--- a/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
+++ b/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\_INTERNET-databank\1. Monetary Sector\1-Monetary indicators-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89C9913-0ADD-4975-AF3D-E52C3E0BD98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2285DEB8-C540-4A0D-A8DA-24CC02EC27E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4226,7 +4226,7 @@
         <rFont val="Times Armenian"/>
         <family val="1"/>
       </rPr>
-      <t>3</t>
+      <t>2</t>
     </r>
   </si>
 </sst>
@@ -7085,16 +7085,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IW31"/>
+  <dimension ref="A1:IX31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="IN5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="IY22" sqref="IY22"/>
+      <selection pane="bottomRight" activeCell="JB22" sqref="JB22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -7186,24 +7186,24 @@
     <col min="206" max="217" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="218" max="219" width="10.85546875" style="2" customWidth="1"/>
     <col min="220" max="220" width="11.85546875" style="2" customWidth="1"/>
-    <col min="221" max="257" width="10.85546875" style="2" customWidth="1"/>
-    <col min="258" max="16384" width="9.140625" style="2"/>
+    <col min="221" max="258" width="10.85546875" style="2" customWidth="1"/>
+    <col min="259" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:257" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:258" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:258" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:258" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:257" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:258" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="17">
         <v>37622</v>
@@ -7973,8 +7973,11 @@
       <c r="IW4" s="17">
         <v>45410</v>
       </c>
+      <c r="IX4" s="17">
+        <v>45440</v>
+      </c>
     </row>
-    <row r="5" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:258" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8232,8 +8235,9 @@
       <c r="IU5" s="5"/>
       <c r="IV5" s="5"/>
       <c r="IW5" s="5"/>
+      <c r="IX5" s="5"/>
     </row>
-    <row r="6" spans="1:257" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:258" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -9000,13 +9004,16 @@
         <v>1030420.3327887529</v>
       </c>
       <c r="IV6" s="25">
-        <v>966639.33945081348</v>
+        <v>971289.18417911697</v>
       </c>
       <c r="IW6" s="25">
         <v>903195.1391845122</v>
       </c>
+      <c r="IX6" s="25">
+        <v>926820.54863712401</v>
+      </c>
     </row>
-    <row r="7" spans="1:257" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:258" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -9264,8 +9271,9 @@
       <c r="IU7" s="26"/>
       <c r="IV7" s="26"/>
       <c r="IW7" s="26"/>
+      <c r="IX7" s="26"/>
     </row>
-    <row r="8" spans="1:257" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:258" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -10032,13 +10040,16 @@
         <v>619370.28832124709</v>
       </c>
       <c r="IV8" s="26">
-        <v>770494.3144090866</v>
+        <v>765844.46968078311</v>
       </c>
       <c r="IW8" s="26">
         <v>783156.19883118756</v>
       </c>
+      <c r="IX8" s="26">
+        <v>714078.87732437626</v>
+      </c>
     </row>
-    <row r="9" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
@@ -10810,8 +10821,11 @@
       <c r="IW9" s="24">
         <v>-468210.90926629998</v>
       </c>
+      <c r="IX9" s="24">
+        <v>-437181.55686550005</v>
+      </c>
     </row>
-    <row r="10" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -11578,13 +11592,16 @@
         <v>615018.57584749989</v>
       </c>
       <c r="IV10" s="24">
-        <v>793983.53107580007</v>
+        <v>795010.01136959996</v>
       </c>
       <c r="IW10" s="24">
         <v>782381.16842299991</v>
       </c>
+      <c r="IX10" s="24">
+        <v>684017.04693659989</v>
+      </c>
     </row>
-    <row r="11" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
@@ -12356,8 +12373,11 @@
       <c r="IW11" s="24">
         <v>482569.20043300005</v>
       </c>
+      <c r="IX11" s="24">
+        <v>385170.51719799999</v>
+      </c>
     </row>
-    <row r="12" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -13109,8 +13129,11 @@
       <c r="IW12" s="24">
         <v>0</v>
       </c>
+      <c r="IX12" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -13880,8 +13903,11 @@
       <c r="IW13" s="24">
         <v>0</v>
       </c>
+      <c r="IX13" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -14651,8 +14677,11 @@
       <c r="IW14" s="24">
         <v>0</v>
       </c>
+      <c r="IX14" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
@@ -15416,8 +15445,11 @@
       <c r="IW15" s="24">
         <v>0</v>
       </c>
+      <c r="IX15" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
@@ -16129,8 +16161,11 @@
       <c r="IW16" s="24">
         <v>0</v>
       </c>
+      <c r="IX16" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
@@ -16897,13 +16932,16 @@
         <v>454388.04765994719</v>
       </c>
       <c r="IV17" s="24">
-        <v>465505.99978708662</v>
+        <v>459829.67476498312</v>
       </c>
       <c r="IW17" s="24">
         <v>468985.93967448769</v>
       </c>
+      <c r="IX17" s="24">
+        <v>467243.38725327642</v>
+      </c>
     </row>
-    <row r="18" spans="1:257" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:258" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -17163,8 +17201,9 @@
       <c r="IU18" s="26"/>
       <c r="IV18" s="26"/>
       <c r="IW18" s="26"/>
+      <c r="IX18" s="26"/>
     </row>
-    <row r="19" spans="1:257" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:258" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -17936,8 +17975,11 @@
       <c r="IW19" s="26">
         <v>1686351.3380156998</v>
       </c>
+      <c r="IX19" s="26">
+        <v>1640899.4259615003</v>
+      </c>
     </row>
-    <row r="20" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
@@ -18709,8 +18751,11 @@
       <c r="IW20" s="24">
         <v>845215.48278029985</v>
       </c>
+      <c r="IX20" s="24">
+        <v>855915.59543370001</v>
+      </c>
     </row>
-    <row r="21" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>64</v>
       </c>
@@ -19482,8 +19527,11 @@
       <c r="IW21" s="24">
         <v>389386.1581763</v>
       </c>
+      <c r="IX21" s="24">
+        <v>326487.09865230002</v>
+      </c>
     </row>
-    <row r="22" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>63</v>
       </c>
@@ -20197,8 +20245,11 @@
       <c r="IW22" s="24">
         <v>434549.61920800002</v>
       </c>
+      <c r="IX22" s="24">
+        <v>440339.05141649995</v>
+      </c>
     </row>
-    <row r="23" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>35</v>
       </c>
@@ -20970,8 +21021,11 @@
       <c r="IW23" s="24">
         <v>17200.077851099893</v>
       </c>
+      <c r="IX23" s="24">
+        <v>18157.680459000287</v>
+      </c>
     </row>
-    <row r="24" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>65</v>
       </c>
@@ -21743,8 +21797,11 @@
       <c r="IW24" s="24">
         <v>14412.725601599999</v>
       </c>
+      <c r="IX24" s="24">
+        <v>15208.810871400001</v>
+      </c>
     </row>
-    <row r="25" spans="1:257" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>66</v>
       </c>
@@ -22516,23 +22573,26 @@
       <c r="IW25" s="24">
         <v>2787.3522494999997</v>
       </c>
+      <c r="IX25" s="24">
+        <v>2948.8695875999997</v>
+      </c>
     </row>
-    <row r="27" spans="1:257" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:258" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:257" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:258" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:257" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:258" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:257" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:258" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
     </row>
   </sheetData>
@@ -22551,7 +22611,7 @@
       <selection pane="topRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -34363,13 +34423,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEE5C0A0-8616-4B1F-A544-F2C7BAA9CC16}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{601FB487-440F-49E8-BDFB-3878E7D26C54}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17ECBCC1-CA81-407A-A08A-09FEC94ADF6D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F75CBA9-82C0-4FC1-B860-494826550A3B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6225BD2D-4741-4687-9356-584A52728D6C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0293ACEE-6E2F-4769-B0FE-9251E3613E0C}"/>
 </file>
--- a/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
+++ b/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\_INTERNET-databank\1. Monetary Sector\1-Monetary indicators-25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\FOR ALL\_INTERNET-databank\1. Monetary Sector\1-Monetary indicators-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2285DEB8-C540-4A0D-A8DA-24CC02EC27E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2AAF36-1292-47F3-9C31-14B11BE9BE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2903,7 +2903,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
   <si>
     <t xml:space="preserve">(end of period, million drams) </t>
   </si>
@@ -4227,6 +4227,21 @@
         <family val="1"/>
       </rPr>
       <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jun-24 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times Armenian"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
     </r>
   </si>
 </sst>
@@ -6033,7 +6048,7 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="150" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="150" applyFont="1" applyFill="1"/>
@@ -6093,6 +6108,7 @@
     <xf numFmtId="3" fontId="48" fillId="0" borderId="11" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="596">
     <cellStyle name=" Verticals" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7085,13 +7101,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX31"/>
+  <dimension ref="A1:JC31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="IN5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="JB22" sqref="JB22"/>
+      <selection pane="bottomRight" activeCell="IU27" sqref="IU27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7186,24 +7202,24 @@
     <col min="206" max="217" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="218" max="219" width="10.85546875" style="2" customWidth="1"/>
     <col min="220" max="220" width="11.85546875" style="2" customWidth="1"/>
-    <col min="221" max="258" width="10.85546875" style="2" customWidth="1"/>
-    <col min="259" max="16384" width="9.140625" style="2"/>
+    <col min="221" max="259" width="10.85546875" style="2" customWidth="1"/>
+    <col min="260" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:263" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:258" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:263" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:258" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:263" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:258" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:263" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="17">
         <v>37622</v>
@@ -7976,8 +7992,11 @@
       <c r="IX4" s="17">
         <v>45440</v>
       </c>
+      <c r="IY4" s="17" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="5" spans="1:258" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:263" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8236,8 +8255,9 @@
       <c r="IV5" s="5"/>
       <c r="IW5" s="5"/>
       <c r="IX5" s="5"/>
+      <c r="IY5" s="5"/>
     </row>
-    <row r="6" spans="1:258" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:263" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -9012,8 +9032,12 @@
       <c r="IX6" s="25">
         <v>926820.54863712401</v>
       </c>
+      <c r="IY6" s="25">
+        <v>984774.87543887529</v>
+      </c>
+      <c r="JC6" s="27"/>
     </row>
-    <row r="7" spans="1:258" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:263" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -9272,8 +9296,10 @@
       <c r="IV7" s="26"/>
       <c r="IW7" s="26"/>
       <c r="IX7" s="26"/>
+      <c r="IY7" s="26"/>
+      <c r="JC7" s="27"/>
     </row>
-    <row r="8" spans="1:258" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:263" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -10048,8 +10074,12 @@
       <c r="IX8" s="26">
         <v>714078.87732437626</v>
       </c>
+      <c r="IY8" s="26">
+        <v>862170.15462282463</v>
+      </c>
+      <c r="JC8" s="27"/>
     </row>
-    <row r="9" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
@@ -10824,8 +10854,12 @@
       <c r="IX9" s="24">
         <v>-437181.55686550005</v>
       </c>
+      <c r="IY9" s="24">
+        <v>-486536.34381640004</v>
+      </c>
+      <c r="JC9" s="27"/>
     </row>
-    <row r="10" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -11600,8 +11634,12 @@
       <c r="IX10" s="24">
         <v>684017.04693659989</v>
       </c>
+      <c r="IY10" s="24">
+        <v>884164.04184159997</v>
+      </c>
+      <c r="JC10" s="27"/>
     </row>
-    <row r="11" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
@@ -12376,8 +12414,12 @@
       <c r="IX11" s="24">
         <v>385170.51719799999</v>
       </c>
+      <c r="IY11" s="24">
+        <v>581524.16789300006</v>
+      </c>
+      <c r="JC11" s="27"/>
     </row>
-    <row r="12" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -13132,8 +13174,12 @@
       <c r="IX12" s="24">
         <v>0</v>
       </c>
+      <c r="IY12" s="24">
+        <v>0</v>
+      </c>
+      <c r="JC12" s="27"/>
     </row>
-    <row r="13" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -13906,8 +13952,12 @@
       <c r="IX13" s="24">
         <v>0</v>
       </c>
+      <c r="IY13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JC13" s="27"/>
     </row>
-    <row r="14" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -14680,8 +14730,12 @@
       <c r="IX14" s="24">
         <v>0</v>
       </c>
+      <c r="IY14" s="24">
+        <v>0</v>
+      </c>
+      <c r="JC14" s="27"/>
     </row>
-    <row r="15" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
@@ -15448,8 +15502,12 @@
       <c r="IX15" s="24">
         <v>0</v>
       </c>
+      <c r="IY15" s="24">
+        <v>0</v>
+      </c>
+      <c r="JC15" s="27"/>
     </row>
-    <row r="16" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
@@ -16164,8 +16222,12 @@
       <c r="IX16" s="24">
         <v>0</v>
       </c>
+      <c r="IY16" s="24">
+        <v>0</v>
+      </c>
+      <c r="JC16" s="27"/>
     </row>
-    <row r="17" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
@@ -16940,8 +17002,12 @@
       <c r="IX17" s="24">
         <v>467243.38725327642</v>
       </c>
+      <c r="IY17" s="24">
+        <v>464542.4565976247</v>
+      </c>
+      <c r="JC17" s="27"/>
     </row>
-    <row r="18" spans="1:258" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:263" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -17202,8 +17268,10 @@
       <c r="IV18" s="26"/>
       <c r="IW18" s="26"/>
       <c r="IX18" s="26"/>
+      <c r="IY18" s="26"/>
+      <c r="JC18" s="27"/>
     </row>
-    <row r="19" spans="1:258" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:263" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -17978,8 +18046,12 @@
       <c r="IX19" s="26">
         <v>1640899.4259615003</v>
       </c>
+      <c r="IY19" s="26">
+        <v>1846945.0300616999</v>
+      </c>
+      <c r="JC19" s="27"/>
     </row>
-    <row r="20" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
@@ -18754,8 +18826,12 @@
       <c r="IX20" s="24">
         <v>855915.59543370001</v>
       </c>
+      <c r="IY20" s="24">
+        <v>885265.76098079991</v>
+      </c>
+      <c r="JC20" s="27"/>
     </row>
-    <row r="21" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>64</v>
       </c>
@@ -19530,8 +19606,12 @@
       <c r="IX21" s="24">
         <v>326487.09865230002</v>
       </c>
+      <c r="IY21" s="24">
+        <v>488146.60069170006</v>
+      </c>
+      <c r="JC21" s="27"/>
     </row>
-    <row r="22" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>63</v>
       </c>
@@ -20248,8 +20328,12 @@
       <c r="IX22" s="24">
         <v>440339.05141649995</v>
       </c>
+      <c r="IY22" s="24">
+        <v>454921.29308029998</v>
+      </c>
+      <c r="JC22" s="27"/>
     </row>
-    <row r="23" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>35</v>
       </c>
@@ -21024,8 +21108,12 @@
       <c r="IX23" s="24">
         <v>18157.680459000287</v>
       </c>
+      <c r="IY23" s="24">
+        <v>18611.375308899966</v>
+      </c>
+      <c r="JC23" s="27"/>
     </row>
-    <row r="24" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>65</v>
       </c>
@@ -21800,8 +21888,12 @@
       <c r="IX24" s="24">
         <v>15208.810871400001</v>
       </c>
+      <c r="IY24" s="24">
+        <v>15775.263899500002</v>
+      </c>
+      <c r="JC24" s="27"/>
     </row>
-    <row r="25" spans="1:258" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>66</v>
       </c>
@@ -22576,23 +22668,30 @@
       <c r="IX25" s="24">
         <v>2948.8695875999997</v>
       </c>
+      <c r="IY25" s="24">
+        <v>2836.1114094000004</v>
+      </c>
+      <c r="JC25" s="27"/>
     </row>
-    <row r="27" spans="1:258" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:263" x14ac:dyDescent="0.2">
+      <c r="JC26" s="27"/>
+    </row>
+    <row r="27" spans="1:263" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:258" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:263" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:258" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:263" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:258" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:263" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
     </row>
   </sheetData>
@@ -34423,13 +34522,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{601FB487-440F-49E8-BDFB-3878E7D26C54}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42FAE247-2A64-413F-A39B-C7B6954573D5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F75CBA9-82C0-4FC1-B860-494826550A3B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5705369F-39C2-4C0E-A6AC-9FD99393EBE4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0293ACEE-6E2F-4769-B0FE-9251E3613E0C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{086E3B1B-6527-4930-8E9E-2BCF3728E8F9}"/>
 </file>
--- a/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
+++ b/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\FOR ALL\_INTERNET-databank\1. Monetary Sector\1-Monetary indicators-25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\_INTERNET-databank\1. Monetary Sector\1-Monetary indicators-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2AAF36-1292-47F3-9C31-14B11BE9BE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90762B70-4069-4505-BBD9-8D02749AB455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7107,7 +7107,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="IN5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="IU27" sqref="IU27"/>
+      <selection pane="bottomRight" activeCell="JC18" sqref="JC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7202,8 +7202,8 @@
     <col min="206" max="217" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="218" max="219" width="10.85546875" style="2" customWidth="1"/>
     <col min="220" max="220" width="11.85546875" style="2" customWidth="1"/>
-    <col min="221" max="259" width="10.85546875" style="2" customWidth="1"/>
-    <col min="260" max="16384" width="9.140625" style="2"/>
+    <col min="221" max="260" width="10.85546875" style="2" customWidth="1"/>
+    <col min="261" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:263" ht="15" x14ac:dyDescent="0.2">
@@ -7994,6 +7994,9 @@
       </c>
       <c r="IY4" s="17" t="s">
         <v>111</v>
+      </c>
+      <c r="IZ4" s="17">
+        <v>45501</v>
       </c>
     </row>
     <row r="5" spans="1:263" x14ac:dyDescent="0.2">
@@ -8256,6 +8259,7 @@
       <c r="IW5" s="5"/>
       <c r="IX5" s="5"/>
       <c r="IY5" s="5"/>
+      <c r="IZ5" s="5"/>
     </row>
     <row r="6" spans="1:263" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -9034,6 +9038,9 @@
       </c>
       <c r="IY6" s="25">
         <v>984774.87543887529</v>
+      </c>
+      <c r="IZ6" s="25">
+        <v>1011279.8879208271</v>
       </c>
       <c r="JC6" s="27"/>
     </row>
@@ -9297,6 +9304,7 @@
       <c r="IW7" s="26"/>
       <c r="IX7" s="26"/>
       <c r="IY7" s="26"/>
+      <c r="IZ7" s="26"/>
       <c r="JC7" s="27"/>
     </row>
     <row r="8" spans="1:263" ht="14.25" x14ac:dyDescent="0.25">
@@ -10077,6 +10085,9 @@
       <c r="IY8" s="26">
         <v>862170.15462282463</v>
       </c>
+      <c r="IZ8" s="26">
+        <v>680660.75837427308</v>
+      </c>
       <c r="JC8" s="27"/>
     </row>
     <row r="9" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -10857,6 +10868,9 @@
       <c r="IY9" s="24">
         <v>-486536.34381640004</v>
       </c>
+      <c r="IZ9" s="24">
+        <v>-489204.6266134</v>
+      </c>
       <c r="JC9" s="27"/>
     </row>
     <row r="10" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -11637,6 +11651,9 @@
       <c r="IY10" s="24">
         <v>884164.04184159997</v>
       </c>
+      <c r="IZ10" s="24">
+        <v>714162.81608050002</v>
+      </c>
       <c r="JC10" s="27"/>
     </row>
     <row r="11" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -12416,6 +12433,9 @@
       </c>
       <c r="IY11" s="24">
         <v>581524.16789300006</v>
+      </c>
+      <c r="IZ11" s="24">
+        <v>410000</v>
       </c>
       <c r="JC11" s="27"/>
     </row>
@@ -13177,6 +13197,9 @@
       <c r="IY12" s="24">
         <v>0</v>
       </c>
+      <c r="IZ12" s="24">
+        <v>0</v>
+      </c>
       <c r="JC12" s="27"/>
     </row>
     <row r="13" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -13955,6 +13978,9 @@
       <c r="IY13" s="24">
         <v>0</v>
       </c>
+      <c r="IZ13" s="24">
+        <v>0</v>
+      </c>
       <c r="JC13" s="27"/>
     </row>
     <row r="14" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -14733,6 +14759,9 @@
       <c r="IY14" s="24">
         <v>0</v>
       </c>
+      <c r="IZ14" s="24">
+        <v>0</v>
+      </c>
       <c r="JC14" s="27"/>
     </row>
     <row r="15" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -15503,6 +15532,9 @@
         <v>0</v>
       </c>
       <c r="IY15" s="24">
+        <v>0</v>
+      </c>
+      <c r="IZ15" s="24">
         <v>0</v>
       </c>
       <c r="JC15" s="27"/>
@@ -16225,6 +16257,9 @@
       <c r="IY16" s="24">
         <v>0</v>
       </c>
+      <c r="IZ16" s="24">
+        <v>0</v>
+      </c>
       <c r="JC16" s="27"/>
     </row>
     <row r="17" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -17004,6 +17039,9 @@
       </c>
       <c r="IY17" s="24">
         <v>464542.4565976247</v>
+      </c>
+      <c r="IZ17" s="24">
+        <v>455702.568907173</v>
       </c>
       <c r="JC17" s="27"/>
     </row>
@@ -17269,6 +17307,7 @@
       <c r="IW18" s="26"/>
       <c r="IX18" s="26"/>
       <c r="IY18" s="26"/>
+      <c r="IZ18" s="26"/>
       <c r="JC18" s="27"/>
     </row>
     <row r="19" spans="1:263" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
@@ -18049,6 +18088,9 @@
       <c r="IY19" s="26">
         <v>1846945.0300616999</v>
       </c>
+      <c r="IZ19" s="26">
+        <v>1691940.6462951002</v>
+      </c>
       <c r="JC19" s="27"/>
     </row>
     <row r="20" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -18829,6 +18871,9 @@
       <c r="IY20" s="24">
         <v>885265.76098079991</v>
       </c>
+      <c r="IZ20" s="24">
+        <v>915032.53519300011</v>
+      </c>
       <c r="JC20" s="27"/>
     </row>
     <row r="21" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -19608,6 +19653,9 @@
       </c>
       <c r="IY21" s="24">
         <v>488146.60069170006</v>
+      </c>
+      <c r="IZ21" s="24">
+        <v>293960.56550990004</v>
       </c>
       <c r="JC21" s="27"/>
     </row>
@@ -20331,6 +20379,9 @@
       <c r="IY22" s="24">
         <v>454921.29308029998</v>
       </c>
+      <c r="IZ22" s="24">
+        <v>462789.00924079999</v>
+      </c>
       <c r="JC22" s="27"/>
     </row>
     <row r="23" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -21111,6 +21162,9 @@
       <c r="IY23" s="24">
         <v>18611.375308899966</v>
       </c>
+      <c r="IZ23" s="24">
+        <v>20158.536351400078</v>
+      </c>
       <c r="JC23" s="27"/>
     </row>
     <row r="24" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -21891,6 +21945,9 @@
       <c r="IY24" s="24">
         <v>15775.263899500002</v>
       </c>
+      <c r="IZ24" s="24">
+        <v>16865.764892799998</v>
+      </c>
       <c r="JC24" s="27"/>
     </row>
     <row r="25" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -22670,6 +22727,9 @@
       </c>
       <c r="IY25" s="24">
         <v>2836.1114094000004</v>
+      </c>
+      <c r="IZ25" s="24">
+        <v>3292.7714586000002</v>
       </c>
       <c r="JC25" s="27"/>
     </row>
@@ -34522,13 +34582,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42FAE247-2A64-413F-A39B-C7B6954573D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E8E8E53-E372-4695-896E-688B0442C7C8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5705369F-39C2-4C0E-A6AC-9FD99393EBE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C42839D-95EB-4134-9C0C-C6F536D9D8D6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{086E3B1B-6527-4930-8E9E-2BCF3728E8F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87D86773-13C7-4F5A-9705-DB8D552690D2}"/>
 </file>
--- a/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
+++ b/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\_INTERNET-databank\1. Monetary Sector\1-Monetary indicators-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90762B70-4069-4505-BBD9-8D02749AB455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B510006-88F9-482C-9860-61044AC07998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4241,7 +4241,7 @@
         <rFont val="Times Armenian"/>
         <family val="1"/>
       </rPr>
-      <t>3</t>
+      <t>2</t>
     </r>
   </si>
 </sst>
@@ -7107,7 +7107,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="IN5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="JC18" sqref="JC18"/>
+      <selection pane="bottomRight" activeCell="IS30" sqref="IS30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7202,8 +7202,8 @@
     <col min="206" max="217" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="218" max="219" width="10.85546875" style="2" customWidth="1"/>
     <col min="220" max="220" width="11.85546875" style="2" customWidth="1"/>
-    <col min="221" max="260" width="10.85546875" style="2" customWidth="1"/>
-    <col min="261" max="16384" width="9.140625" style="2"/>
+    <col min="221" max="261" width="10.85546875" style="2" customWidth="1"/>
+    <col min="262" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:263" ht="15" x14ac:dyDescent="0.2">
@@ -7997,6 +7997,9 @@
       </c>
       <c r="IZ4" s="17">
         <v>45501</v>
+      </c>
+      <c r="JA4" s="17">
+        <v>45532</v>
       </c>
     </row>
     <row r="5" spans="1:263" x14ac:dyDescent="0.2">
@@ -8260,6 +8263,7 @@
       <c r="IX5" s="5"/>
       <c r="IY5" s="5"/>
       <c r="IZ5" s="5"/>
+      <c r="JA5" s="5"/>
     </row>
     <row r="6" spans="1:263" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -9037,10 +9041,13 @@
         <v>926820.54863712401</v>
       </c>
       <c r="IY6" s="25">
-        <v>984774.87543887529</v>
+        <v>988499.13655198901</v>
       </c>
       <c r="IZ6" s="25">
         <v>1011279.8879208271</v>
+      </c>
+      <c r="JA6" s="25">
+        <v>1081889.7866975579</v>
       </c>
       <c r="JC6" s="27"/>
     </row>
@@ -9305,6 +9312,7 @@
       <c r="IX7" s="26"/>
       <c r="IY7" s="26"/>
       <c r="IZ7" s="26"/>
+      <c r="JA7" s="26"/>
       <c r="JC7" s="27"/>
     </row>
     <row r="8" spans="1:263" ht="14.25" x14ac:dyDescent="0.25">
@@ -10083,10 +10091,13 @@
         <v>714078.87732437626</v>
       </c>
       <c r="IY8" s="26">
-        <v>862170.15462282463</v>
+        <v>858445.89350971091</v>
       </c>
       <c r="IZ8" s="26">
         <v>680660.75837427308</v>
+      </c>
+      <c r="JA8" s="26">
+        <v>702668.27182374219</v>
       </c>
       <c r="JC8" s="27"/>
     </row>
@@ -10871,6 +10882,9 @@
       <c r="IZ9" s="24">
         <v>-489204.6266134</v>
       </c>
+      <c r="JA9" s="24">
+        <v>-486586.92172869999</v>
+      </c>
       <c r="JC9" s="27"/>
     </row>
     <row r="10" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -11649,10 +11663,13 @@
         <v>684017.04693659989</v>
       </c>
       <c r="IY10" s="24">
-        <v>884164.04184159997</v>
+        <v>885048.99702929996</v>
       </c>
       <c r="IZ10" s="24">
         <v>714162.81608050002</v>
+      </c>
+      <c r="JA10" s="24">
+        <v>741348.17518090014</v>
       </c>
       <c r="JC10" s="27"/>
     </row>
@@ -12436,6 +12453,9 @@
       </c>
       <c r="IZ11" s="24">
         <v>410000</v>
+      </c>
+      <c r="JA11" s="24">
+        <v>430278.74866699998</v>
       </c>
       <c r="JC11" s="27"/>
     </row>
@@ -13200,6 +13220,9 @@
       <c r="IZ12" s="24">
         <v>0</v>
       </c>
+      <c r="JA12" s="24">
+        <v>0</v>
+      </c>
       <c r="JC12" s="27"/>
     </row>
     <row r="13" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -13981,6 +14004,9 @@
       <c r="IZ13" s="24">
         <v>0</v>
       </c>
+      <c r="JA13" s="24">
+        <v>0</v>
+      </c>
       <c r="JC13" s="27"/>
     </row>
     <row r="14" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -14762,6 +14788,9 @@
       <c r="IZ14" s="24">
         <v>0</v>
       </c>
+      <c r="JA14" s="24">
+        <v>0</v>
+      </c>
       <c r="JC14" s="27"/>
     </row>
     <row r="15" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -15535,6 +15564,9 @@
         <v>0</v>
       </c>
       <c r="IZ15" s="24">
+        <v>0</v>
+      </c>
+      <c r="JA15" s="24">
         <v>0</v>
       </c>
       <c r="JC15" s="27"/>
@@ -16260,6 +16292,9 @@
       <c r="IZ16" s="24">
         <v>0</v>
       </c>
+      <c r="JA16" s="24">
+        <v>0</v>
+      </c>
       <c r="JC16" s="27"/>
     </row>
     <row r="17" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -17038,10 +17073,13 @@
         <v>467243.38725327642</v>
       </c>
       <c r="IY17" s="24">
-        <v>464542.4565976247</v>
+        <v>459933.24029681098</v>
       </c>
       <c r="IZ17" s="24">
         <v>455702.568907173</v>
+      </c>
+      <c r="JA17" s="24">
+        <v>447907.01837154198</v>
       </c>
       <c r="JC17" s="27"/>
     </row>
@@ -17308,6 +17346,7 @@
       <c r="IX18" s="26"/>
       <c r="IY18" s="26"/>
       <c r="IZ18" s="26"/>
+      <c r="JA18" s="26"/>
       <c r="JC18" s="27"/>
     </row>
     <row r="19" spans="1:263" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
@@ -18091,6 +18130,9 @@
       <c r="IZ19" s="26">
         <v>1691940.6462951002</v>
       </c>
+      <c r="JA19" s="26">
+        <v>1784558.0585213001</v>
+      </c>
       <c r="JC19" s="27"/>
     </row>
     <row r="20" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -18874,6 +18916,9 @@
       <c r="IZ20" s="24">
         <v>915032.53519300011</v>
       </c>
+      <c r="JA20" s="24">
+        <v>930076.05141179997</v>
+      </c>
       <c r="JC20" s="27"/>
     </row>
     <row r="21" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -19656,6 +19701,9 @@
       </c>
       <c r="IZ21" s="24">
         <v>293960.56550990004</v>
+      </c>
+      <c r="JA21" s="24">
+        <v>336468.20764670003</v>
       </c>
       <c r="JC21" s="27"/>
     </row>
@@ -20382,6 +20430,9 @@
       <c r="IZ22" s="24">
         <v>462789.00924079999</v>
       </c>
+      <c r="JA22" s="24">
+        <v>496521.53092709999</v>
+      </c>
       <c r="JC22" s="27"/>
     </row>
     <row r="23" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -21165,6 +21216,9 @@
       <c r="IZ23" s="24">
         <v>20158.536351400078</v>
       </c>
+      <c r="JA23" s="24">
+        <v>21492.268535700103</v>
+      </c>
       <c r="JC23" s="27"/>
     </row>
     <row r="24" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -21948,6 +22002,9 @@
       <c r="IZ24" s="24">
         <v>16865.764892799998</v>
       </c>
+      <c r="JA24" s="24">
+        <v>16951.532343300001</v>
+      </c>
       <c r="JC24" s="27"/>
     </row>
     <row r="25" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -22730,6 +22787,9 @@
       </c>
       <c r="IZ25" s="24">
         <v>3292.7714586000002</v>
+      </c>
+      <c r="JA25" s="24">
+        <v>4540.7361923999997</v>
       </c>
       <c r="JC25" s="27"/>
     </row>
@@ -34582,13 +34642,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E8E8E53-E372-4695-896E-688B0442C7C8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F39449-D883-4712-B86C-E5C3A2AD9218}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C42839D-95EB-4134-9C0C-C6F536D9D8D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFF9546E-1D1D-42F9-BFD0-12C99BBA695B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87D86773-13C7-4F5A-9705-DB8D552690D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8DF18B9-4695-4FBC-8119-51132D69C5EA}"/>
 </file>
--- a/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
+++ b/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\_INTERNET-databank\1. Monetary Sector\1-Monetary indicators-25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\FOR ALL\_INTERNET-databank\1. Monetary Sector\1-Monetary indicators-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B510006-88F9-482C-9860-61044AC07998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6721B1BE-6895-4052-AC6E-53DAE997359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2903,7 +2903,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="115">
   <si>
     <t xml:space="preserve">(end of period, million drams) </t>
   </si>
@@ -4243,6 +4243,27 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sep-24 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times Armenian"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">         Other banks accounts in drams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Other banke accounts in FX</t>
   </si>
 </sst>
 </file>
@@ -7101,13 +7122,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JC31"/>
+  <dimension ref="A1:JC33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="IN5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="IS30" sqref="IS30"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7202,8 +7223,8 @@
     <col min="206" max="217" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="218" max="219" width="10.85546875" style="2" customWidth="1"/>
     <col min="220" max="220" width="11.85546875" style="2" customWidth="1"/>
-    <col min="221" max="261" width="10.85546875" style="2" customWidth="1"/>
-    <col min="262" max="16384" width="9.140625" style="2"/>
+    <col min="221" max="262" width="10.85546875" style="2" customWidth="1"/>
+    <col min="263" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:263" ht="15" x14ac:dyDescent="0.2">
@@ -8000,6 +8021,9 @@
       </c>
       <c r="JA4" s="17">
         <v>45532</v>
+      </c>
+      <c r="JB4" s="17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:263" x14ac:dyDescent="0.2">
@@ -8264,6 +8288,7 @@
       <c r="IY5" s="5"/>
       <c r="IZ5" s="5"/>
       <c r="JA5" s="5"/>
+      <c r="JB5" s="5"/>
     </row>
     <row r="6" spans="1:263" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -9048,6 +9073,9 @@
       </c>
       <c r="JA6" s="25">
         <v>1081889.7866975579</v>
+      </c>
+      <c r="JB6" s="25">
+        <v>1063474.8085381764</v>
       </c>
       <c r="JC6" s="27"/>
     </row>
@@ -9313,6 +9341,7 @@
       <c r="IY7" s="26"/>
       <c r="IZ7" s="26"/>
       <c r="JA7" s="26"/>
+      <c r="JB7" s="26"/>
       <c r="JC7" s="27"/>
     </row>
     <row r="8" spans="1:263" ht="14.25" x14ac:dyDescent="0.25">
@@ -10099,6 +10128,9 @@
       <c r="JA8" s="26">
         <v>702668.27182374219</v>
       </c>
+      <c r="JB8" s="26">
+        <v>850392.75384562346</v>
+      </c>
       <c r="JC8" s="27"/>
     </row>
     <row r="9" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -10885,6 +10917,9 @@
       <c r="JA9" s="24">
         <v>-486586.92172869999</v>
       </c>
+      <c r="JB9" s="24">
+        <v>-502688.64815000008</v>
+      </c>
       <c r="JC9" s="27"/>
     </row>
     <row r="10" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -11671,6 +11706,9 @@
       <c r="JA10" s="24">
         <v>741348.17518090014</v>
       </c>
+      <c r="JB10" s="24">
+        <v>913145.32347970014</v>
+      </c>
       <c r="JC10" s="27"/>
     </row>
     <row r="11" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -12456,6 +12494,9 @@
       </c>
       <c r="JA11" s="24">
         <v>430278.74866699998</v>
+      </c>
+      <c r="JB11" s="24">
+        <v>598129.66269200004</v>
       </c>
       <c r="JC11" s="27"/>
     </row>
@@ -13223,6 +13264,9 @@
       <c r="JA12" s="24">
         <v>0</v>
       </c>
+      <c r="JB12" s="24">
+        <v>0</v>
+      </c>
       <c r="JC12" s="27"/>
     </row>
     <row r="13" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -14007,6 +14051,9 @@
       <c r="JA13" s="24">
         <v>0</v>
       </c>
+      <c r="JB13" s="24">
+        <v>-1000.1639344</v>
+      </c>
       <c r="JC13" s="27"/>
     </row>
     <row r="14" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -14791,6 +14838,9 @@
       <c r="JA14" s="24">
         <v>0</v>
       </c>
+      <c r="JB14" s="24">
+        <v>0</v>
+      </c>
       <c r="JC14" s="27"/>
     </row>
     <row r="15" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -15567,6 +15617,9 @@
         <v>0</v>
       </c>
       <c r="JA15" s="24">
+        <v>0</v>
+      </c>
+      <c r="JB15" s="24">
         <v>0</v>
       </c>
       <c r="JC15" s="27"/>
@@ -16295,6 +16348,9 @@
       <c r="JA16" s="24">
         <v>0</v>
       </c>
+      <c r="JB16" s="24">
+        <v>0</v>
+      </c>
       <c r="JC16" s="27"/>
     </row>
     <row r="17" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -17080,6 +17136,9 @@
       </c>
       <c r="JA17" s="24">
         <v>447907.01837154198</v>
+      </c>
+      <c r="JB17" s="24">
+        <v>439936.07851592335</v>
       </c>
       <c r="JC17" s="27"/>
     </row>
@@ -17347,6 +17406,7 @@
       <c r="IY18" s="26"/>
       <c r="IZ18" s="26"/>
       <c r="JA18" s="26"/>
+      <c r="JB18" s="26"/>
       <c r="JC18" s="27"/>
     </row>
     <row r="19" spans="1:263" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
@@ -18133,6 +18193,9 @@
       <c r="JA19" s="26">
         <v>1784558.0585213001</v>
       </c>
+      <c r="JB19" s="26">
+        <v>1913867.5623837998</v>
+      </c>
       <c r="JC19" s="27"/>
     </row>
     <row r="20" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -18919,6 +18982,9 @@
       <c r="JA20" s="24">
         <v>930076.05141179997</v>
       </c>
+      <c r="JB20" s="24">
+        <v>929502.41521340003</v>
+      </c>
       <c r="JC20" s="27"/>
     </row>
     <row r="21" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
@@ -19704,6 +19770,9 @@
       </c>
       <c r="JA21" s="24">
         <v>336468.20764670003</v>
+      </c>
+      <c r="JB21" s="24">
+        <v>507991.10935669998</v>
       </c>
       <c r="JC21" s="27"/>
     </row>
@@ -20433,2386 +20502,2936 @@
       <c r="JA22" s="24">
         <v>496521.53092709999</v>
       </c>
+      <c r="JB22" s="24">
+        <v>458149.54235890001</v>
+      </c>
       <c r="JC22" s="27"/>
     </row>
     <row r="23" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="11">
-        <v>375</v>
-      </c>
-      <c r="C23" s="11">
-        <v>411</v>
-      </c>
-      <c r="D23" s="11">
-        <v>446</v>
-      </c>
-      <c r="E23" s="11">
-        <v>469</v>
-      </c>
-      <c r="F23" s="11">
-        <v>410</v>
-      </c>
-      <c r="G23" s="11">
-        <v>425</v>
-      </c>
-      <c r="H23" s="11">
-        <v>369</v>
-      </c>
-      <c r="I23" s="13">
-        <v>378.20000000000618</v>
-      </c>
-      <c r="J23" s="13">
-        <v>635</v>
-      </c>
-      <c r="K23" s="13">
-        <v>411.20000000000437</v>
-      </c>
-      <c r="L23" s="13">
-        <v>565</v>
-      </c>
-      <c r="M23" s="13">
-        <v>700.20000000000437</v>
-      </c>
-      <c r="N23" s="11">
-        <v>577</v>
-      </c>
-      <c r="O23" s="11">
-        <v>515</v>
-      </c>
-      <c r="P23" s="11">
-        <v>957</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>503</v>
-      </c>
-      <c r="R23" s="11">
-        <v>814</v>
-      </c>
-      <c r="S23" s="11">
-        <v>498</v>
-      </c>
-      <c r="T23" s="11">
-        <v>505.8904082000081</v>
-      </c>
-      <c r="U23" s="13">
-        <v>469.24000519998663</v>
-      </c>
-      <c r="V23" s="13">
-        <v>471.70476949999647</v>
-      </c>
-      <c r="W23" s="13">
-        <v>533.17581190001147</v>
-      </c>
-      <c r="X23" s="13">
-        <v>854.86797439999646</v>
-      </c>
-      <c r="Y23" s="13">
-        <v>716.1555408999775</v>
-      </c>
-      <c r="Z23" s="11">
-        <v>571.73023399999147</v>
-      </c>
-      <c r="AA23" s="11">
-        <v>521.22626200000013</v>
-      </c>
-      <c r="AB23" s="11">
-        <v>956.88503019998461</v>
-      </c>
-      <c r="AC23" s="11">
-        <v>586.07527440000194</v>
-      </c>
-      <c r="AD23" s="11">
-        <v>561</v>
-      </c>
-      <c r="AE23" s="11">
-        <v>552.10328389998904</v>
-      </c>
-      <c r="AF23" s="11">
-        <v>574.35953620000146</v>
-      </c>
-      <c r="AG23" s="13">
-        <v>591.55563770002118</v>
-      </c>
-      <c r="AH23" s="13">
-        <v>570.58242480001354</v>
-      </c>
-      <c r="AI23" s="13">
-        <v>785.89999999999418</v>
-      </c>
-      <c r="AJ23" s="13">
-        <v>823.49252310001248</v>
-      </c>
-      <c r="AK23" s="13">
-        <v>762.25331370000015</v>
-      </c>
-      <c r="AL23" s="11">
-        <v>1064.2058947999999</v>
-      </c>
-      <c r="AM23" s="11">
-        <v>651.89533680001114</v>
-      </c>
-      <c r="AN23" s="11">
-        <v>754.79729900000893</v>
-      </c>
-      <c r="AO23" s="11">
-        <v>797.56498880001891</v>
-      </c>
-      <c r="AP23" s="11">
-        <v>750.87887670002965</v>
-      </c>
-      <c r="AQ23" s="11">
-        <v>677.88901700003407</v>
-      </c>
-      <c r="AR23" s="11">
-        <v>719.38092079996932</v>
-      </c>
-      <c r="AS23" s="13">
-        <v>991.8427297999915</v>
-      </c>
-      <c r="AT23" s="13">
-        <v>773.10171980001542</v>
-      </c>
-      <c r="AU23" s="13">
-        <v>1106.4868973000084</v>
-      </c>
-      <c r="AV23" s="13">
-        <v>799.76553280000007</v>
-      </c>
-      <c r="AW23" s="13">
-        <v>1205.5050899000598</v>
-      </c>
-      <c r="AX23" s="11">
-        <v>972.37432400000034</v>
-      </c>
-      <c r="AY23" s="11">
-        <v>886.68741510000473</v>
-      </c>
-      <c r="AZ23" s="11">
-        <v>1060.1546123999979</v>
-      </c>
-      <c r="BA23" s="11">
-        <v>793.38641500000085</v>
-      </c>
-      <c r="BB23" s="11">
-        <v>896.25108779995207</v>
-      </c>
-      <c r="BC23" s="11">
-        <v>778.35854950002613</v>
-      </c>
-      <c r="BD23" s="11">
-        <v>1097.789705300027</v>
-      </c>
-      <c r="BE23" s="13">
-        <v>800.47808090002582</v>
-      </c>
-      <c r="BF23" s="13">
-        <v>884.25244099998599</v>
-      </c>
-      <c r="BG23" s="13">
-        <v>807.56400490000669</v>
-      </c>
-      <c r="BH23" s="13">
-        <v>1170.0115554000004</v>
-      </c>
-      <c r="BI23" s="13">
-        <v>978.51542849998805</v>
-      </c>
-      <c r="BJ23" s="11">
-        <v>1050.6275244999415</v>
-      </c>
-      <c r="BK23" s="11">
-        <v>969.08770029999505</v>
-      </c>
-      <c r="BL23" s="11">
-        <v>1059.6428594000063</v>
-      </c>
-      <c r="BM23" s="11">
-        <v>952.21395060004579</v>
-      </c>
-      <c r="BN23" s="11">
-        <v>829.41404090001743</v>
-      </c>
-      <c r="BO23" s="11">
-        <v>817.4755393000305</v>
-      </c>
-      <c r="BP23" s="11">
-        <v>920.96487039998465</v>
-      </c>
-      <c r="BQ23" s="13">
-        <v>852.14285900002142</v>
-      </c>
-      <c r="BR23" s="13">
-        <v>893.3971581000078</v>
-      </c>
-      <c r="BS23" s="13">
-        <v>770.95525010000711</v>
-      </c>
-      <c r="BT23" s="13">
-        <v>855.05249400002504</v>
-      </c>
-      <c r="BU23" s="13">
-        <v>795.05403940007091</v>
-      </c>
-      <c r="BV23" s="11">
-        <v>806.53799269990122</v>
-      </c>
-      <c r="BW23" s="11">
-        <v>455.30060429999139</v>
-      </c>
-      <c r="BX23" s="11">
-        <v>397.22909540002001</v>
-      </c>
-      <c r="BY23" s="11">
-        <v>519.83674959999917</v>
-      </c>
-      <c r="BZ23" s="11">
-        <v>445.95500039996114</v>
-      </c>
-      <c r="CA23" s="11">
-        <v>458.40400390002469</v>
-      </c>
-      <c r="CB23" s="11">
-        <v>5461.0629111999588</v>
-      </c>
-      <c r="CC23" s="13">
-        <v>5423.131641299944</v>
-      </c>
-      <c r="CD23" s="13">
-        <v>2659.0760591000726</v>
-      </c>
-      <c r="CE23" s="13">
-        <v>2386.383604099974</v>
-      </c>
-      <c r="CF23" s="13">
-        <v>1335.6357534000708</v>
-      </c>
-      <c r="CG23" s="13">
-        <v>1885.3583927000291</v>
-      </c>
-      <c r="CH23" s="11">
-        <v>1580.1811434999981</v>
-      </c>
-      <c r="CI23" s="11">
-        <v>4033.1829414000385</v>
-      </c>
-      <c r="CJ23" s="11">
-        <v>3815.387569799932</v>
-      </c>
-      <c r="CK23" s="11">
-        <v>4230.8008010000631</v>
-      </c>
-      <c r="CL23" s="11">
-        <v>3767.4399168000091</v>
-      </c>
-      <c r="CM23" s="11">
-        <v>2524.7639629999612</v>
-      </c>
-      <c r="CN23" s="11">
-        <v>2843.0292306000192</v>
-      </c>
-      <c r="CO23" s="11">
-        <v>2729.0990679999813</v>
-      </c>
-      <c r="CP23" s="11">
-        <v>3011.3386289999326</v>
-      </c>
-      <c r="CQ23" s="11">
-        <v>2666.1365269999078</v>
-      </c>
-      <c r="CR23" s="11">
-        <v>2884.2892440999713</v>
-      </c>
-      <c r="CS23" s="11">
-        <v>13634.734304799975</v>
-      </c>
-      <c r="CT23" s="11">
-        <v>13471.021368399975</v>
-      </c>
-      <c r="CU23" s="11">
-        <v>12913.881240200011</v>
-      </c>
-      <c r="CV23" s="11">
-        <v>15606.378570000015</v>
-      </c>
-      <c r="CW23" s="11">
-        <v>12962.318786799951</v>
-      </c>
-      <c r="CX23" s="11">
-        <v>12548.717793999946</v>
-      </c>
-      <c r="CY23" s="11">
-        <v>14674.01381240008</v>
-      </c>
-      <c r="CZ23" s="11">
-        <v>13864.444904099946</v>
-      </c>
-      <c r="DA23" s="11">
-        <v>11197.2</v>
-      </c>
-      <c r="DB23" s="11">
-        <v>8858.36</v>
-      </c>
-      <c r="DC23" s="11">
-        <v>7709.42</v>
-      </c>
-      <c r="DD23" s="11">
-        <v>7902.8559449998866</v>
-      </c>
-      <c r="DE23" s="11">
-        <v>6802.8330665000831</v>
-      </c>
-      <c r="DF23" s="11">
-        <v>7621.81</v>
-      </c>
-      <c r="DG23" s="11">
-        <v>7067.6600180999521</v>
-      </c>
-      <c r="DH23" s="11">
-        <v>7448.76</v>
-      </c>
-      <c r="DI23" s="11">
-        <v>7115.05</v>
-      </c>
-      <c r="DJ23" s="11">
-        <v>6514.27</v>
-      </c>
-      <c r="DK23" s="11">
-        <v>4867.0653789999778</v>
-      </c>
-      <c r="DL23" s="11">
-        <v>11023.72</v>
-      </c>
-      <c r="DM23" s="11">
-        <v>9897.806479000028</v>
-      </c>
-      <c r="DN23" s="11">
-        <v>9248.15</v>
-      </c>
-      <c r="DO23" s="11">
-        <v>8791.4195064999149</v>
-      </c>
-      <c r="DP23" s="11">
-        <v>7567.3578992999683</v>
-      </c>
-      <c r="DQ23" s="11">
-        <v>3171.1</v>
-      </c>
-      <c r="DR23" s="11">
-        <v>5902.84</v>
-      </c>
-      <c r="DS23" s="11">
-        <v>5241.3829313997994</v>
-      </c>
-      <c r="DT23" s="11">
-        <v>3049.74</v>
-      </c>
-      <c r="DU23" s="11">
-        <v>3626.0352152999403</v>
-      </c>
-      <c r="DV23" s="11">
-        <v>4115.8043026000523</v>
-      </c>
-      <c r="DW23" s="11">
-        <v>2821.645572400128</v>
-      </c>
-      <c r="DX23" s="11">
-        <v>3277.9105462000007</v>
-      </c>
-      <c r="DY23" s="11">
-        <v>2697.15</v>
-      </c>
-      <c r="DZ23" s="11">
-        <v>4111.4047800000117</v>
-      </c>
-      <c r="EA23" s="11">
-        <v>2920.4160467000329</v>
-      </c>
-      <c r="EB23" s="11">
-        <v>3755.8909130999527</v>
-      </c>
-      <c r="EC23" s="11">
-        <v>3407.6230605001037</v>
-      </c>
-      <c r="ED23" s="11">
-        <v>4090.7341062000196</v>
-      </c>
-      <c r="EE23" s="11">
-        <v>10749.94</v>
-      </c>
-      <c r="EF23" s="11">
-        <v>5335.35</v>
-      </c>
-      <c r="EG23" s="11">
-        <v>3015.7710871000891</v>
-      </c>
-      <c r="EH23" s="11">
-        <v>3213.22</v>
-      </c>
-      <c r="EI23" s="11">
-        <v>4661.22</v>
-      </c>
-      <c r="EJ23" s="11">
-        <v>3916.9776501001325</v>
-      </c>
-      <c r="EK23" s="11">
-        <v>4824.0200000000004</v>
-      </c>
-      <c r="EL23" s="11">
-        <v>4154.71</v>
-      </c>
-      <c r="EM23" s="11">
-        <v>2929.98</v>
-      </c>
-      <c r="EN23" s="24">
-        <v>6181.363876699892</v>
-      </c>
-      <c r="EO23" s="24">
-        <v>3921.8667578999884</v>
-      </c>
-      <c r="EP23" s="24">
-        <v>5538.3126731000521</v>
-      </c>
-      <c r="EQ23" s="24">
-        <v>6112.5332729000947</v>
-      </c>
-      <c r="ER23" s="24">
-        <v>6436.4716934000171</v>
-      </c>
-      <c r="ES23" s="24">
-        <v>5312.11</v>
-      </c>
-      <c r="ET23" s="24">
-        <v>3997.891101700021</v>
-      </c>
-      <c r="EU23" s="24">
-        <v>3684.563795700029</v>
-      </c>
-      <c r="EV23" s="24">
-        <v>2737.6264134999656</v>
-      </c>
-      <c r="EW23" s="24">
-        <v>2367.2800000000002</v>
-      </c>
-      <c r="EX23" s="24">
-        <v>2182.5492969999032</v>
-      </c>
-      <c r="EY23" s="24">
-        <v>3405.65</v>
-      </c>
-      <c r="EZ23" s="24">
-        <v>2843.5014687998628</v>
-      </c>
-      <c r="FA23" s="24">
-        <v>2197.54</v>
-      </c>
-      <c r="FB23" s="24">
-        <v>8684.3369091998902</v>
-      </c>
-      <c r="FC23" s="24">
-        <v>7299.4</v>
-      </c>
-      <c r="FD23" s="24">
-        <v>5225.8488273000985</v>
-      </c>
-      <c r="FE23" s="24">
-        <v>5854.48</v>
-      </c>
-      <c r="FF23" s="24">
-        <v>5203.8900000000003</v>
-      </c>
-      <c r="FG23" s="24">
-        <v>5009.0480757000332</v>
-      </c>
-      <c r="FH23" s="24">
-        <v>9169.8654889001045</v>
-      </c>
-      <c r="FI23" s="24">
-        <v>7887.0181795001263</v>
-      </c>
-      <c r="FJ23" s="24">
-        <v>8275.16</v>
-      </c>
-      <c r="FK23" s="24">
-        <v>7352.75</v>
-      </c>
-      <c r="FL23" s="24">
-        <v>5528.4986814999429</v>
-      </c>
-      <c r="FM23" s="24">
-        <v>15651.347891800164</v>
-      </c>
-      <c r="FN23" s="24">
-        <v>15882.680479400151</v>
-      </c>
-      <c r="FO23" s="24">
-        <v>14836.964638400008</v>
-      </c>
-      <c r="FP23" s="24">
-        <v>13870.388681800076</v>
-      </c>
-      <c r="FQ23" s="24">
-        <v>10804.746790400066</v>
-      </c>
-      <c r="FR23" s="24">
-        <v>12322.145076200017</v>
-      </c>
-      <c r="FS23" s="24">
-        <v>15530.74</v>
-      </c>
-      <c r="FT23" s="24">
-        <v>20072.232023299992</v>
-      </c>
-      <c r="FU23" s="24">
-        <v>15054.74386409999</v>
-      </c>
-      <c r="FV23" s="24">
-        <v>16966.88</v>
-      </c>
-      <c r="FW23" s="24">
-        <v>16385.599876600027</v>
-      </c>
-      <c r="FX23" s="24">
-        <v>21800.491900600202</v>
-      </c>
-      <c r="FY23" s="24">
-        <v>27189.35870949988</v>
-      </c>
-      <c r="FZ23" s="24">
-        <v>28128.519423099962</v>
-      </c>
-      <c r="GA23" s="24">
-        <v>24965.835609200032</v>
-      </c>
-      <c r="GB23" s="24">
-        <v>25436.174072600086</v>
-      </c>
-      <c r="GC23" s="24">
-        <v>22071.321281299912</v>
-      </c>
-      <c r="GD23" s="24">
-        <v>19237.318234600025</v>
-      </c>
-      <c r="GE23" s="24">
-        <v>19286.332234200032</v>
-      </c>
-      <c r="GF23" s="24">
-        <v>26041.625064299995</v>
-      </c>
-      <c r="GG23" s="24">
-        <v>23474.147971199884</v>
-      </c>
-      <c r="GH23" s="24">
-        <v>27478.489230800042</v>
-      </c>
-      <c r="GI23" s="24">
-        <v>31716.538932099997</v>
-      </c>
-      <c r="GJ23" s="24">
-        <v>46166.157351599948</v>
-      </c>
-      <c r="GK23" s="24">
-        <v>52211.257500400039</v>
-      </c>
-      <c r="GL23" s="24">
-        <v>58868.079649099978</v>
-      </c>
-      <c r="GM23" s="24">
-        <v>58997.852478100074</v>
-      </c>
-      <c r="GN23" s="24">
-        <v>64515.868411299831</v>
-      </c>
-      <c r="GO23" s="24">
-        <v>59132.33432269987</v>
-      </c>
-      <c r="GP23" s="24">
-        <v>56083.165015200211</v>
-      </c>
-      <c r="GQ23" s="24">
-        <v>47450.643439499894</v>
-      </c>
-      <c r="GR23" s="24">
-        <v>45717.87706020003</v>
-      </c>
-      <c r="GS23" s="24">
-        <v>45175.716131699941</v>
-      </c>
-      <c r="GT23" s="24">
-        <v>48757.160465699882</v>
-      </c>
-      <c r="GU23" s="24">
-        <v>41522.577455899765</v>
-      </c>
-      <c r="GV23" s="24">
-        <v>38562.331542099942</v>
-      </c>
-      <c r="GW23" s="24">
-        <v>40769.513290000032</v>
-      </c>
-      <c r="GX23" s="24">
-        <v>42863.117329399916</v>
-      </c>
-      <c r="GY23" s="24">
-        <v>39098.834824199963</v>
-      </c>
-      <c r="GZ23" s="24">
-        <v>39741.795699200418</v>
-      </c>
-      <c r="HA23" s="24">
-        <v>42368.729495899868</v>
-      </c>
-      <c r="HB23" s="24">
-        <v>41330.663948900066</v>
-      </c>
-      <c r="HC23" s="24">
-        <v>37013.438913400169</v>
-      </c>
-      <c r="HD23" s="24">
-        <v>34095.184020600282</v>
-      </c>
-      <c r="HE23" s="24">
-        <v>33633.189543100074</v>
-      </c>
-      <c r="HF23" s="24">
-        <v>37497.874313100067</v>
-      </c>
-      <c r="HG23" s="24">
-        <v>40024.759553499985</v>
-      </c>
-      <c r="HH23" s="24">
-        <v>49978.360951400071</v>
-      </c>
-      <c r="HI23" s="24">
-        <v>53551.693483399577</v>
-      </c>
-      <c r="HJ23" s="24">
-        <v>60142.124527999898</v>
-      </c>
-      <c r="HK23" s="24">
-        <v>59891.845155899995</v>
-      </c>
-      <c r="HL23" s="24">
-        <v>56418.931454199832</v>
-      </c>
-      <c r="HM23" s="24">
-        <v>56243.388498700282</v>
-      </c>
-      <c r="HN23" s="24">
-        <v>54770.516378400091</v>
-      </c>
-      <c r="HO23" s="24">
-        <v>52625.736132000107</v>
-      </c>
-      <c r="HP23" s="24">
-        <v>54335.285369000048</v>
-      </c>
-      <c r="HQ23" s="24">
-        <v>50992.944744899985</v>
-      </c>
-      <c r="HR23" s="24">
-        <v>47393.233648400055</v>
-      </c>
-      <c r="HS23" s="24">
-        <v>43431.298992700176</v>
-      </c>
-      <c r="HT23" s="24">
-        <v>43380.505602199933</v>
-      </c>
-      <c r="HU23" s="24">
-        <v>39650.807422600104</v>
-      </c>
-      <c r="HV23" s="24">
-        <v>43818.348132199957</v>
-      </c>
-      <c r="HW23" s="24">
-        <v>39335.761335000163</v>
-      </c>
-      <c r="HX23" s="24">
-        <v>41433.350312300026</v>
-      </c>
-      <c r="HY23" s="24">
-        <v>41942.43358039984</v>
-      </c>
-      <c r="HZ23" s="24">
-        <v>39934.087182800053</v>
-      </c>
-      <c r="IA23" s="24">
-        <v>39678.003695399966</v>
-      </c>
-      <c r="IB23" s="24">
-        <v>41793.938235400012</v>
-      </c>
-      <c r="IC23" s="24">
-        <v>37808.107495100005</v>
-      </c>
-      <c r="ID23" s="24">
-        <v>41400.001304900041</v>
-      </c>
-      <c r="IE23" s="24">
-        <v>36514.917480999953</v>
-      </c>
-      <c r="IF23" s="24">
-        <v>34574.482871300308</v>
-      </c>
-      <c r="IG23" s="24">
-        <v>30471.060156300082</v>
-      </c>
-      <c r="IH23" s="24">
-        <v>33155.955533300061</v>
-      </c>
-      <c r="II23" s="24">
-        <v>29829.135829399922</v>
-      </c>
-      <c r="IJ23" s="24">
-        <v>32035.516562999925</v>
-      </c>
-      <c r="IK23" s="24">
-        <v>32083.432640400075</v>
-      </c>
-      <c r="IL23" s="24">
-        <v>31191.419197899697</v>
-      </c>
-      <c r="IM23" s="24">
-        <v>37228.694375799969</v>
-      </c>
-      <c r="IN23" s="24">
-        <v>21667.559098600061</v>
-      </c>
-      <c r="IO23" s="24">
-        <v>18544.006377500016</v>
-      </c>
-      <c r="IP23" s="24">
-        <v>19999.518835500116</v>
-      </c>
-      <c r="IQ23" s="24">
-        <v>18145.780310900009</v>
-      </c>
-      <c r="IR23" s="24">
-        <v>17741.505703199713</v>
-      </c>
-      <c r="IS23" s="24">
-        <v>47966.948261700221</v>
-      </c>
-      <c r="IT23" s="24">
-        <v>19698.203578300017</v>
-      </c>
-      <c r="IU23" s="24">
-        <v>21770.781455199991</v>
-      </c>
-      <c r="IV23" s="24">
-        <v>18537.654393000237</v>
-      </c>
-      <c r="IW23" s="24">
-        <v>17200.077851099893</v>
-      </c>
-      <c r="IX23" s="24">
-        <v>18157.680459000287</v>
-      </c>
-      <c r="IY23" s="24">
-        <v>18611.375308899966</v>
-      </c>
-      <c r="IZ23" s="24">
-        <v>20158.536351400078</v>
-      </c>
-      <c r="JA23" s="24">
-        <v>21492.268535700103</v>
+        <v>113</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="11"/>
+      <c r="AY23" s="11"/>
+      <c r="AZ23" s="11"/>
+      <c r="BA23" s="11"/>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="11"/>
+      <c r="BD23" s="11"/>
+      <c r="BE23" s="13"/>
+      <c r="BF23" s="13"/>
+      <c r="BG23" s="13"/>
+      <c r="BH23" s="13"/>
+      <c r="BI23" s="13"/>
+      <c r="BJ23" s="11"/>
+      <c r="BK23" s="11"/>
+      <c r="BL23" s="11"/>
+      <c r="BM23" s="11"/>
+      <c r="BN23" s="11"/>
+      <c r="BO23" s="11"/>
+      <c r="BP23" s="11"/>
+      <c r="BQ23" s="13"/>
+      <c r="BR23" s="13"/>
+      <c r="BS23" s="13"/>
+      <c r="BT23" s="13"/>
+      <c r="BU23" s="13"/>
+      <c r="BV23" s="11"/>
+      <c r="BW23" s="11"/>
+      <c r="BX23" s="11"/>
+      <c r="BY23" s="11"/>
+      <c r="BZ23" s="11"/>
+      <c r="CA23" s="11"/>
+      <c r="CB23" s="11"/>
+      <c r="CC23" s="13"/>
+      <c r="CD23" s="13"/>
+      <c r="CE23" s="13"/>
+      <c r="CF23" s="13"/>
+      <c r="CG23" s="13"/>
+      <c r="CH23" s="11"/>
+      <c r="CI23" s="11"/>
+      <c r="CJ23" s="11"/>
+      <c r="CK23" s="11"/>
+      <c r="CL23" s="11"/>
+      <c r="CM23" s="11"/>
+      <c r="CN23" s="11"/>
+      <c r="CO23" s="11"/>
+      <c r="CP23" s="11"/>
+      <c r="CQ23" s="11"/>
+      <c r="CR23" s="11"/>
+      <c r="CS23" s="11"/>
+      <c r="CT23" s="11"/>
+      <c r="CU23" s="11"/>
+      <c r="CV23" s="11"/>
+      <c r="CW23" s="11"/>
+      <c r="CX23" s="11"/>
+      <c r="CY23" s="11"/>
+      <c r="CZ23" s="11"/>
+      <c r="DA23" s="11"/>
+      <c r="DB23" s="11"/>
+      <c r="DC23" s="11"/>
+      <c r="DD23" s="11"/>
+      <c r="DE23" s="11"/>
+      <c r="DF23" s="11"/>
+      <c r="DG23" s="11"/>
+      <c r="DH23" s="11"/>
+      <c r="DI23" s="11"/>
+      <c r="DJ23" s="11"/>
+      <c r="DK23" s="11"/>
+      <c r="DL23" s="11"/>
+      <c r="DM23" s="11"/>
+      <c r="DN23" s="11"/>
+      <c r="DO23" s="11"/>
+      <c r="DP23" s="11"/>
+      <c r="DQ23" s="11"/>
+      <c r="DR23" s="11"/>
+      <c r="DS23" s="11"/>
+      <c r="DT23" s="11"/>
+      <c r="DU23" s="11"/>
+      <c r="DV23" s="11"/>
+      <c r="DW23" s="11"/>
+      <c r="DX23" s="11"/>
+      <c r="DY23" s="11"/>
+      <c r="DZ23" s="11"/>
+      <c r="EA23" s="11"/>
+      <c r="EB23" s="11"/>
+      <c r="EC23" s="11"/>
+      <c r="ED23" s="11"/>
+      <c r="EE23" s="11"/>
+      <c r="EF23" s="11"/>
+      <c r="EG23" s="11"/>
+      <c r="EH23" s="11"/>
+      <c r="EI23" s="11"/>
+      <c r="EJ23" s="11"/>
+      <c r="EK23" s="11"/>
+      <c r="EL23" s="11"/>
+      <c r="EM23" s="11"/>
+      <c r="EN23" s="24"/>
+      <c r="EO23" s="24"/>
+      <c r="EP23" s="24"/>
+      <c r="EQ23" s="24"/>
+      <c r="ER23" s="24"/>
+      <c r="ES23" s="24"/>
+      <c r="ET23" s="24"/>
+      <c r="EU23" s="24"/>
+      <c r="EV23" s="24"/>
+      <c r="EW23" s="24"/>
+      <c r="EX23" s="24"/>
+      <c r="EY23" s="24"/>
+      <c r="EZ23" s="24"/>
+      <c r="FA23" s="24"/>
+      <c r="FB23" s="24"/>
+      <c r="FC23" s="24"/>
+      <c r="FD23" s="24"/>
+      <c r="FE23" s="24"/>
+      <c r="FF23" s="24"/>
+      <c r="FG23" s="24"/>
+      <c r="FH23" s="24"/>
+      <c r="FI23" s="24"/>
+      <c r="FJ23" s="24"/>
+      <c r="FK23" s="24"/>
+      <c r="FL23" s="24"/>
+      <c r="FM23" s="24"/>
+      <c r="FN23" s="24"/>
+      <c r="FO23" s="24"/>
+      <c r="FP23" s="24"/>
+      <c r="FQ23" s="24"/>
+      <c r="FR23" s="24"/>
+      <c r="FS23" s="24"/>
+      <c r="FT23" s="24"/>
+      <c r="FU23" s="24"/>
+      <c r="FV23" s="24"/>
+      <c r="FW23" s="24"/>
+      <c r="FX23" s="24"/>
+      <c r="FY23" s="24"/>
+      <c r="FZ23" s="24"/>
+      <c r="GA23" s="24"/>
+      <c r="GB23" s="24"/>
+      <c r="GC23" s="24"/>
+      <c r="GD23" s="24"/>
+      <c r="GE23" s="24"/>
+      <c r="GF23" s="24"/>
+      <c r="GG23" s="24"/>
+      <c r="GH23" s="24"/>
+      <c r="GI23" s="24"/>
+      <c r="GJ23" s="24"/>
+      <c r="GK23" s="24"/>
+      <c r="GL23" s="24"/>
+      <c r="GM23" s="24"/>
+      <c r="GN23" s="24"/>
+      <c r="GO23" s="24"/>
+      <c r="GP23" s="24"/>
+      <c r="GQ23" s="24"/>
+      <c r="GR23" s="24"/>
+      <c r="GS23" s="24"/>
+      <c r="GT23" s="24"/>
+      <c r="GU23" s="24"/>
+      <c r="GV23" s="24"/>
+      <c r="GW23" s="24"/>
+      <c r="GX23" s="24"/>
+      <c r="GY23" s="24"/>
+      <c r="GZ23" s="24"/>
+      <c r="HA23" s="24"/>
+      <c r="HB23" s="24"/>
+      <c r="HC23" s="24"/>
+      <c r="HD23" s="24"/>
+      <c r="HE23" s="24"/>
+      <c r="HF23" s="24"/>
+      <c r="HG23" s="24"/>
+      <c r="HH23" s="24"/>
+      <c r="HI23" s="24"/>
+      <c r="HJ23" s="24"/>
+      <c r="HK23" s="24"/>
+      <c r="HL23" s="24"/>
+      <c r="HM23" s="24"/>
+      <c r="HN23" s="24"/>
+      <c r="HO23" s="24"/>
+      <c r="HP23" s="24"/>
+      <c r="HQ23" s="24"/>
+      <c r="HR23" s="24"/>
+      <c r="HS23" s="24"/>
+      <c r="HT23" s="24"/>
+      <c r="HU23" s="24"/>
+      <c r="HV23" s="24"/>
+      <c r="HW23" s="24"/>
+      <c r="HX23" s="24"/>
+      <c r="HY23" s="24"/>
+      <c r="HZ23" s="24"/>
+      <c r="IA23" s="24"/>
+      <c r="IB23" s="24"/>
+      <c r="IC23" s="24"/>
+      <c r="ID23" s="24"/>
+      <c r="IE23" s="24"/>
+      <c r="IF23" s="24"/>
+      <c r="IG23" s="24"/>
+      <c r="IH23" s="24"/>
+      <c r="II23" s="24"/>
+      <c r="IJ23" s="24"/>
+      <c r="IK23" s="24"/>
+      <c r="IL23" s="24"/>
+      <c r="IM23" s="24"/>
+      <c r="IN23" s="24"/>
+      <c r="IO23" s="24"/>
+      <c r="IP23" s="24"/>
+      <c r="IQ23" s="24"/>
+      <c r="IR23" s="24"/>
+      <c r="IS23" s="24"/>
+      <c r="IT23" s="24"/>
+      <c r="IU23" s="24"/>
+      <c r="IV23" s="24"/>
+      <c r="IW23" s="24"/>
+      <c r="IX23" s="24"/>
+      <c r="IY23" s="24"/>
+      <c r="IZ23" s="24"/>
+      <c r="JA23" s="24"/>
+      <c r="JB23" s="24">
+        <v>1.1020768000000001</v>
       </c>
       <c r="JC23" s="27"/>
     </row>
     <row r="24" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="11">
-        <v>374</v>
-      </c>
-      <c r="C24" s="11">
-        <v>398</v>
-      </c>
-      <c r="D24" s="11">
-        <v>445</v>
-      </c>
-      <c r="E24" s="11">
-        <v>469</v>
-      </c>
-      <c r="F24" s="11">
-        <v>410</v>
-      </c>
-      <c r="G24" s="11">
-        <v>425</v>
-      </c>
-      <c r="H24" s="11">
-        <v>341</v>
-      </c>
-      <c r="I24" s="13">
-        <v>329.13392740000006</v>
-      </c>
-      <c r="J24" s="13">
-        <v>347</v>
-      </c>
-      <c r="K24" s="13">
-        <v>394</v>
-      </c>
-      <c r="L24" s="13">
-        <v>550</v>
-      </c>
-      <c r="M24" s="13">
-        <v>657</v>
-      </c>
-      <c r="N24" s="11">
-        <v>517</v>
-      </c>
-      <c r="O24" s="11">
-        <v>493</v>
-      </c>
-      <c r="P24" s="11">
-        <v>528</v>
-      </c>
-      <c r="Q24" s="11">
-        <v>481</v>
-      </c>
-      <c r="R24" s="11">
-        <v>810</v>
-      </c>
-      <c r="S24" s="11">
-        <v>457</v>
-      </c>
-      <c r="T24" s="11">
-        <v>502.63414219999999</v>
-      </c>
-      <c r="U24" s="13">
-        <v>466.00758889999997</v>
-      </c>
-      <c r="V24" s="13">
-        <v>468.51665189999994</v>
-      </c>
-      <c r="W24" s="13">
-        <v>492.70883130000004</v>
-      </c>
-      <c r="X24" s="13">
-        <v>701.33892440000011</v>
-      </c>
-      <c r="Y24" s="13">
-        <v>561.40474259999996</v>
-      </c>
-      <c r="Z24" s="11">
-        <v>528.56370179999999</v>
-      </c>
-      <c r="AA24" s="11">
-        <v>507.27027520000001</v>
-      </c>
-      <c r="AB24" s="11">
-        <v>588.26632459999996</v>
-      </c>
-      <c r="AC24" s="11">
-        <v>578.46897969999998</v>
-      </c>
-      <c r="AD24" s="11">
-        <v>561</v>
-      </c>
-      <c r="AE24" s="11">
-        <v>551.59775089999994</v>
-      </c>
-      <c r="AF24" s="11">
-        <v>570.66996960000006</v>
-      </c>
-      <c r="AG24" s="13">
-        <v>557.21080089999998</v>
-      </c>
-      <c r="AH24" s="13">
-        <v>568.64896820000001</v>
-      </c>
-      <c r="AI24" s="13">
-        <v>785.57168369999988</v>
-      </c>
-      <c r="AJ24" s="13">
-        <v>721.02653759999987</v>
-      </c>
-      <c r="AK24" s="13">
-        <v>649.63363140000013</v>
-      </c>
-      <c r="AL24" s="11">
-        <v>1051.5501339</v>
-      </c>
-      <c r="AM24" s="11">
-        <v>613.11027879999995</v>
-      </c>
-      <c r="AN24" s="11">
-        <v>642.69546360000004</v>
-      </c>
-      <c r="AO24" s="11">
-        <v>613.3715886</v>
-      </c>
-      <c r="AP24" s="11">
-        <v>611.25176170000009</v>
-      </c>
-      <c r="AQ24" s="11">
-        <v>631.23252879999995</v>
-      </c>
-      <c r="AR24" s="11">
-        <v>718.82853740000007</v>
-      </c>
-      <c r="AS24" s="13">
-        <v>911.95902870000009</v>
-      </c>
-      <c r="AT24" s="13">
-        <v>749.50821110000004</v>
-      </c>
-      <c r="AU24" s="13">
-        <v>1083.1921369000002</v>
-      </c>
-      <c r="AV24" s="13">
-        <v>778.30047060000004</v>
-      </c>
-      <c r="AW24" s="13">
-        <v>717.30913220000002</v>
-      </c>
-      <c r="AX24" s="11">
-        <v>958.36550459999989</v>
-      </c>
-      <c r="AY24" s="11">
-        <v>751.40469449999989</v>
-      </c>
-      <c r="AZ24" s="11">
-        <v>1060.0872753000001</v>
-      </c>
-      <c r="BA24" s="11">
-        <v>754.78702300000009</v>
-      </c>
-      <c r="BB24" s="11">
-        <v>750.7300684999999</v>
-      </c>
-      <c r="BC24" s="11">
-        <v>769.73978529999988</v>
-      </c>
-      <c r="BD24" s="11">
-        <v>992.10180749999995</v>
-      </c>
-      <c r="BE24" s="13">
-        <v>778.42335430000003</v>
-      </c>
-      <c r="BF24" s="13">
-        <v>821.96797760000015</v>
-      </c>
-      <c r="BG24" s="13">
-        <v>803.18264339999996</v>
-      </c>
-      <c r="BH24" s="13">
-        <v>1004.7252018000001</v>
-      </c>
-      <c r="BI24" s="13">
-        <v>940.62890240000013</v>
-      </c>
-      <c r="BJ24" s="11">
-        <v>1021.6760617</v>
-      </c>
-      <c r="BK24" s="11">
-        <v>954.68336799999986</v>
-      </c>
-      <c r="BL24" s="11">
-        <v>1044.5456303999999</v>
-      </c>
-      <c r="BM24" s="11">
-        <v>952.13509210000007</v>
-      </c>
-      <c r="BN24" s="11">
-        <v>829.33559750000006</v>
-      </c>
-      <c r="BO24" s="11">
-        <v>817.32690120000007</v>
-      </c>
-      <c r="BP24" s="11">
-        <v>891.60915160000013</v>
-      </c>
-      <c r="BQ24" s="13">
-        <v>848.18349609999996</v>
-      </c>
-      <c r="BR24" s="13">
-        <v>823.89371119999987</v>
-      </c>
-      <c r="BS24" s="13">
-        <v>770.94079099999999</v>
-      </c>
-      <c r="BT24" s="13">
-        <v>841.18938680000008</v>
-      </c>
-      <c r="BU24" s="13">
-        <v>773.57282200000009</v>
-      </c>
-      <c r="BV24" s="11">
-        <v>652.18098510000016</v>
-      </c>
-      <c r="BW24" s="11">
-        <v>452.37163299999997</v>
-      </c>
-      <c r="BX24" s="11">
-        <v>397.213527</v>
-      </c>
-      <c r="BY24" s="11">
-        <v>493.86835250000001</v>
-      </c>
-      <c r="BZ24" s="11">
-        <v>444.08592240000002</v>
-      </c>
-      <c r="CA24" s="11">
-        <v>443.381415</v>
-      </c>
-      <c r="CB24" s="11">
-        <v>5451.0531730000002</v>
-      </c>
-      <c r="CC24" s="13">
-        <v>5385.6360185999993</v>
-      </c>
-      <c r="CD24" s="13">
-        <v>2659.0578776000002</v>
-      </c>
-      <c r="CE24" s="13">
-        <v>2289.3860061</v>
-      </c>
-      <c r="CF24" s="13">
-        <v>1314.2999513</v>
-      </c>
-      <c r="CG24" s="13">
-        <v>1845.6595287999999</v>
-      </c>
-      <c r="CH24" s="11">
-        <v>1564.3440602000003</v>
-      </c>
-      <c r="CI24" s="11">
-        <v>4033.165489</v>
-      </c>
-      <c r="CJ24" s="11">
-        <v>3735.3676267000001</v>
-      </c>
-      <c r="CK24" s="11">
-        <v>4159.964113</v>
-      </c>
-      <c r="CL24" s="11">
-        <v>3680.6383175999999</v>
-      </c>
-      <c r="CM24" s="11">
-        <v>2474.5267993000002</v>
-      </c>
-      <c r="CN24" s="11">
-        <v>2799.5275041</v>
-      </c>
-      <c r="CO24" s="11">
-        <v>2729.0825091999995</v>
-      </c>
-      <c r="CP24" s="11">
-        <v>2999.7596787000002</v>
-      </c>
-      <c r="CQ24" s="11">
-        <v>2488.3329948000001</v>
-      </c>
-      <c r="CR24" s="11">
-        <v>2338.7758462000002</v>
-      </c>
-      <c r="CS24" s="11">
-        <v>3905.5128745999996</v>
-      </c>
-      <c r="CT24" s="11">
-        <v>3664.1560071999997</v>
-      </c>
-      <c r="CU24" s="11">
-        <v>3323.8231534000001</v>
-      </c>
-      <c r="CV24" s="11">
-        <v>8589.7254466000013</v>
-      </c>
-      <c r="CW24" s="11">
-        <v>6125.2039068000004</v>
-      </c>
-      <c r="CX24" s="11">
-        <v>6478.8665136</v>
-      </c>
-      <c r="CY24" s="11">
-        <v>11337.8864911</v>
-      </c>
-      <c r="CZ24" s="11">
-        <v>11361.7954582</v>
-      </c>
-      <c r="DA24" s="11">
-        <v>11032.54</v>
-      </c>
-      <c r="DB24" s="11">
-        <v>8745.56</v>
-      </c>
-      <c r="DC24" s="11">
-        <v>7104.84</v>
-      </c>
-      <c r="DD24" s="11">
-        <v>7745.1803065000004</v>
-      </c>
-      <c r="DE24" s="11">
-        <v>6715.2380633999992</v>
-      </c>
-      <c r="DF24" s="11">
-        <v>7561.05</v>
-      </c>
-      <c r="DG24" s="11">
-        <v>7001.7467815</v>
-      </c>
-      <c r="DH24" s="11">
-        <v>7359.97</v>
-      </c>
-      <c r="DI24" s="11">
-        <v>7053.45</v>
-      </c>
-      <c r="DJ24" s="11">
-        <v>6399.83</v>
-      </c>
-      <c r="DK24" s="11">
-        <v>4843.2116681000007</v>
-      </c>
-      <c r="DL24" s="11">
-        <v>8531.6200000000008</v>
-      </c>
-      <c r="DM24" s="11">
-        <v>7399.6563472999997</v>
-      </c>
-      <c r="DN24" s="11">
-        <v>6764.31</v>
-      </c>
-      <c r="DO24" s="11">
-        <v>7754.7126541999987</v>
-      </c>
-      <c r="DP24" s="11">
-        <v>6533.5928389000001</v>
-      </c>
-      <c r="DQ24" s="11">
-        <v>3161.97</v>
-      </c>
-      <c r="DR24" s="11">
-        <v>5900.06</v>
-      </c>
-      <c r="DS24" s="11">
-        <v>5218.1294860999997</v>
-      </c>
-      <c r="DT24" s="11">
-        <v>3046.88</v>
-      </c>
-      <c r="DU24" s="11">
-        <v>3599.0755205000005</v>
-      </c>
-      <c r="DV24" s="11">
-        <v>4033.1727392000003</v>
-      </c>
-      <c r="DW24" s="11">
-        <v>2808.6116296</v>
-      </c>
-      <c r="DX24" s="11">
-        <v>3262.8182391000005</v>
-      </c>
-      <c r="DY24" s="11">
-        <v>2694.38</v>
-      </c>
-      <c r="DZ24" s="11">
-        <v>4108.6372162000007</v>
-      </c>
-      <c r="EA24" s="11">
-        <v>2913.2048004999997</v>
-      </c>
-      <c r="EB24" s="11">
-        <v>3753.0930090000002</v>
-      </c>
-      <c r="EC24" s="11">
-        <v>3404.8535623999996</v>
-      </c>
-      <c r="ED24" s="11">
-        <v>3810.4452286000001</v>
-      </c>
-      <c r="EE24" s="11">
-        <v>10608.73</v>
-      </c>
-      <c r="EF24" s="11">
-        <v>5332.53</v>
-      </c>
-      <c r="EG24" s="11">
-        <v>3012.9469522000004</v>
-      </c>
-      <c r="EH24" s="11">
-        <v>3198</v>
-      </c>
-      <c r="EI24" s="11">
-        <v>4646.22</v>
-      </c>
-      <c r="EJ24" s="11">
-        <v>3914.2051056</v>
-      </c>
-      <c r="EK24" s="11">
-        <v>4808.88</v>
-      </c>
-      <c r="EL24" s="11">
-        <v>4151.93</v>
-      </c>
-      <c r="EM24" s="11">
-        <v>2926.73</v>
-      </c>
-      <c r="EN24" s="24">
-        <v>6152.5644122000012</v>
-      </c>
-      <c r="EO24" s="24">
-        <v>3166.6525970000002</v>
-      </c>
-      <c r="EP24" s="24">
-        <v>4859.6244747000001</v>
-      </c>
-      <c r="EQ24" s="24">
-        <v>5298.8535893999988</v>
-      </c>
-      <c r="ER24" s="24">
-        <v>5420.8738978999991</v>
-      </c>
-      <c r="ES24" s="24">
-        <v>3713.69</v>
-      </c>
-      <c r="ET24" s="24">
-        <v>2426.1607708000001</v>
-      </c>
-      <c r="EU24" s="24">
-        <v>2414.8111457999998</v>
-      </c>
-      <c r="EV24" s="24">
-        <v>1776.9541537999999</v>
-      </c>
-      <c r="EW24" s="24">
-        <v>1633.83</v>
-      </c>
-      <c r="EX24" s="24">
-        <v>1709.1495789000001</v>
-      </c>
-      <c r="EY24" s="24">
-        <v>3027.58</v>
-      </c>
-      <c r="EZ24" s="24">
-        <v>2457.9224100000001</v>
-      </c>
-      <c r="FA24" s="24">
-        <v>1907.89</v>
-      </c>
-      <c r="FB24" s="24">
-        <v>8284.2246189999987</v>
-      </c>
-      <c r="FC24" s="24">
-        <v>6897.69</v>
-      </c>
-      <c r="FD24" s="24">
-        <v>4501.2552142000004</v>
-      </c>
-      <c r="FE24" s="24">
-        <v>2867.27</v>
-      </c>
-      <c r="FF24" s="24">
-        <v>2245.79</v>
-      </c>
-      <c r="FG24" s="24">
-        <v>2273.7124711999995</v>
-      </c>
-      <c r="FH24" s="24">
-        <v>6543.0334657999992</v>
-      </c>
-      <c r="FI24" s="24">
-        <v>5194.2053141999986</v>
-      </c>
-      <c r="FJ24" s="24">
-        <v>5662.26</v>
-      </c>
-      <c r="FK24" s="24">
-        <v>4690.29</v>
-      </c>
-      <c r="FL24" s="24">
-        <v>5524.4673711000005</v>
-      </c>
-      <c r="FM24" s="24">
-        <v>11522.318624299998</v>
-      </c>
-      <c r="FN24" s="24">
-        <v>11718.426713700001</v>
-      </c>
-      <c r="FO24" s="24">
-        <v>12151.007614</v>
-      </c>
-      <c r="FP24" s="24">
-        <v>13843.263760099999</v>
-      </c>
-      <c r="FQ24" s="24">
-        <v>10772.217900399999</v>
-      </c>
-      <c r="FR24" s="24">
-        <v>10631.705720599999</v>
-      </c>
-      <c r="FS24" s="24">
-        <v>10722.62</v>
-      </c>
-      <c r="FT24" s="24">
-        <v>10651.458390999998</v>
-      </c>
-      <c r="FU24" s="24">
-        <v>5929.8900295000003</v>
-      </c>
-      <c r="FV24" s="24">
-        <v>7868.86</v>
-      </c>
-      <c r="FW24" s="24">
-        <v>6377.1223018000001</v>
-      </c>
-      <c r="FX24" s="24">
-        <v>12135.9399686</v>
-      </c>
-      <c r="FY24" s="24">
-        <v>17461.840467500002</v>
-      </c>
-      <c r="FZ24" s="24">
-        <v>18436.459789200002</v>
-      </c>
-      <c r="GA24" s="24">
-        <v>15330.080663500001</v>
-      </c>
-      <c r="GB24" s="24">
-        <v>15784.059304900002</v>
-      </c>
-      <c r="GC24" s="24">
-        <v>21192.271808200003</v>
-      </c>
-      <c r="GD24" s="24">
-        <v>18720.348236499998</v>
-      </c>
-      <c r="GE24" s="24">
-        <v>18501.757231800006</v>
-      </c>
-      <c r="GF24" s="24">
-        <v>25330.705938499999</v>
-      </c>
-      <c r="GG24" s="24">
-        <v>22626.104800000001</v>
-      </c>
-      <c r="GH24" s="24">
-        <v>22168.846975500001</v>
-      </c>
-      <c r="GI24" s="24">
-        <v>26374.175042499999</v>
-      </c>
-      <c r="GJ24" s="24">
-        <v>40884.845181399993</v>
-      </c>
-      <c r="GK24" s="24">
-        <v>40796.373752599997</v>
-      </c>
-      <c r="GL24" s="24">
-        <v>47275.329291499991</v>
-      </c>
-      <c r="GM24" s="24">
-        <v>53756.334088199997</v>
-      </c>
-      <c r="GN24" s="24">
-        <v>59261.508494999995</v>
-      </c>
-      <c r="GO24" s="24">
-        <v>53789.112262399998</v>
-      </c>
-      <c r="GP24" s="24">
-        <v>48634.669165799998</v>
-      </c>
-      <c r="GQ24" s="24">
-        <v>40128.200849399997</v>
-      </c>
-      <c r="GR24" s="24">
-        <v>36350.738084400007</v>
-      </c>
-      <c r="GS24" s="24">
-        <v>34414.075083700001</v>
-      </c>
-      <c r="GT24" s="24">
-        <v>38219.456902599995</v>
-      </c>
-      <c r="GU24" s="24">
-        <v>30838.819356399999</v>
-      </c>
-      <c r="GV24" s="24">
-        <v>37150.257477899991</v>
-      </c>
-      <c r="GW24" s="24">
-        <v>31625.331068300002</v>
-      </c>
-      <c r="GX24" s="24">
-        <v>33255.814718400004</v>
-      </c>
-      <c r="GY24" s="24">
-        <v>29221.2858165</v>
-      </c>
-      <c r="GZ24" s="24">
-        <v>38102.665498300004</v>
-      </c>
-      <c r="HA24" s="24">
-        <v>39948.707485700004</v>
-      </c>
-      <c r="HB24" s="24">
-        <v>38495.192188199995</v>
-      </c>
-      <c r="HC24" s="24">
-        <v>32806.816317600002</v>
-      </c>
-      <c r="HD24" s="24">
-        <v>29880.119852600004</v>
-      </c>
-      <c r="HE24" s="24">
-        <v>29313.105992299996</v>
-      </c>
-      <c r="HF24" s="24">
-        <v>32464.320661700003</v>
-      </c>
-      <c r="HG24" s="24">
-        <v>22137.359912899999</v>
-      </c>
-      <c r="HH24" s="24">
-        <v>22934.284351800001</v>
-      </c>
-      <c r="HI24" s="24">
-        <v>28281.751069800001</v>
-      </c>
-      <c r="HJ24" s="24">
-        <v>34024.657411200002</v>
-      </c>
-      <c r="HK24" s="24">
-        <v>33504.654074700004</v>
-      </c>
-      <c r="HL24" s="24">
-        <v>30394.769281300003</v>
-      </c>
-      <c r="HM24" s="24">
-        <v>30864.351168600002</v>
-      </c>
-      <c r="HN24" s="24">
-        <v>29326.188397499998</v>
-      </c>
-      <c r="HO24" s="24">
-        <v>29369.9780503</v>
-      </c>
-      <c r="HP24" s="24">
-        <v>32173.546582799998</v>
-      </c>
-      <c r="HQ24" s="24">
-        <v>29127.908090100002</v>
-      </c>
-      <c r="HR24" s="24">
-        <v>28549.480344200001</v>
-      </c>
-      <c r="HS24" s="24">
-        <v>26085.930809699996</v>
-      </c>
-      <c r="HT24" s="24">
-        <v>27316.799566999998</v>
-      </c>
-      <c r="HU24" s="24">
-        <v>27554.853041599999</v>
-      </c>
-      <c r="HV24" s="24">
-        <v>30226.616821900003</v>
-      </c>
-      <c r="HW24" s="24">
-        <v>29866.160059299997</v>
-      </c>
-      <c r="HX24" s="24">
-        <v>31787.432981299997</v>
-      </c>
-      <c r="HY24" s="24">
-        <v>32685.660705599999</v>
-      </c>
-      <c r="HZ24" s="24">
-        <v>30964.007895699997</v>
-      </c>
-      <c r="IA24" s="24">
-        <v>31147.182958700003</v>
-      </c>
-      <c r="IB24" s="24">
-        <v>31827.945630799997</v>
-      </c>
-      <c r="IC24" s="24">
-        <v>31946.061509700001</v>
-      </c>
-      <c r="ID24" s="24">
-        <v>31536.769798500001</v>
-      </c>
-      <c r="IE24" s="24">
-        <v>31915.862000499998</v>
-      </c>
-      <c r="IF24" s="24">
-        <v>29350.764554499998</v>
-      </c>
-      <c r="IG24" s="24">
-        <v>27352.088036200003</v>
-      </c>
-      <c r="IH24" s="24">
-        <v>27850.319570199998</v>
-      </c>
-      <c r="II24" s="24">
-        <v>25373.941794800001</v>
-      </c>
-      <c r="IJ24" s="24">
-        <v>23663.423558400002</v>
-      </c>
-      <c r="IK24" s="24">
-        <v>23551.500158799998</v>
-      </c>
-      <c r="IL24" s="24">
-        <v>25571.968105600001</v>
-      </c>
-      <c r="IM24" s="24">
-        <v>17985.1766451</v>
-      </c>
-      <c r="IN24" s="24">
-        <v>17690.090479099999</v>
-      </c>
-      <c r="IO24" s="24">
-        <v>15929.150590199999</v>
-      </c>
-      <c r="IP24" s="24">
-        <v>16153.984304699999</v>
-      </c>
-      <c r="IQ24" s="24">
-        <v>15005.258912200001</v>
-      </c>
-      <c r="IR24" s="24">
-        <v>14336.152454999999</v>
-      </c>
-      <c r="IS24" s="24">
-        <v>45984.854159299997</v>
-      </c>
-      <c r="IT24" s="24">
-        <v>16460.127254500003</v>
-      </c>
-      <c r="IU24" s="24">
-        <v>18882.044943599998</v>
-      </c>
-      <c r="IV24" s="24">
-        <v>14840.554750899999</v>
-      </c>
-      <c r="IW24" s="24">
-        <v>14412.725601599999</v>
-      </c>
-      <c r="IX24" s="24">
-        <v>15208.810871400001</v>
-      </c>
-      <c r="IY24" s="24">
-        <v>15775.263899500002</v>
-      </c>
-      <c r="IZ24" s="24">
-        <v>16865.764892799998</v>
-      </c>
-      <c r="JA24" s="24">
-        <v>16951.532343300001</v>
+        <v>114</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="11"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="11"/>
+      <c r="AY24" s="11"/>
+      <c r="AZ24" s="11"/>
+      <c r="BA24" s="11"/>
+      <c r="BB24" s="11"/>
+      <c r="BC24" s="11"/>
+      <c r="BD24" s="11"/>
+      <c r="BE24" s="13"/>
+      <c r="BF24" s="13"/>
+      <c r="BG24" s="13"/>
+      <c r="BH24" s="13"/>
+      <c r="BI24" s="13"/>
+      <c r="BJ24" s="11"/>
+      <c r="BK24" s="11"/>
+      <c r="BL24" s="11"/>
+      <c r="BM24" s="11"/>
+      <c r="BN24" s="11"/>
+      <c r="BO24" s="11"/>
+      <c r="BP24" s="11"/>
+      <c r="BQ24" s="13"/>
+      <c r="BR24" s="13"/>
+      <c r="BS24" s="13"/>
+      <c r="BT24" s="13"/>
+      <c r="BU24" s="13"/>
+      <c r="BV24" s="11"/>
+      <c r="BW24" s="11"/>
+      <c r="BX24" s="11"/>
+      <c r="BY24" s="11"/>
+      <c r="BZ24" s="11"/>
+      <c r="CA24" s="11"/>
+      <c r="CB24" s="11"/>
+      <c r="CC24" s="13"/>
+      <c r="CD24" s="13"/>
+      <c r="CE24" s="13"/>
+      <c r="CF24" s="13"/>
+      <c r="CG24" s="13"/>
+      <c r="CH24" s="11"/>
+      <c r="CI24" s="11"/>
+      <c r="CJ24" s="11"/>
+      <c r="CK24" s="11"/>
+      <c r="CL24" s="11"/>
+      <c r="CM24" s="11"/>
+      <c r="CN24" s="11"/>
+      <c r="CO24" s="11"/>
+      <c r="CP24" s="11"/>
+      <c r="CQ24" s="11"/>
+      <c r="CR24" s="11"/>
+      <c r="CS24" s="11"/>
+      <c r="CT24" s="11"/>
+      <c r="CU24" s="11"/>
+      <c r="CV24" s="11"/>
+      <c r="CW24" s="11"/>
+      <c r="CX24" s="11"/>
+      <c r="CY24" s="11"/>
+      <c r="CZ24" s="11"/>
+      <c r="DA24" s="11"/>
+      <c r="DB24" s="11"/>
+      <c r="DC24" s="11"/>
+      <c r="DD24" s="11"/>
+      <c r="DE24" s="11"/>
+      <c r="DF24" s="11"/>
+      <c r="DG24" s="11"/>
+      <c r="DH24" s="11"/>
+      <c r="DI24" s="11"/>
+      <c r="DJ24" s="11"/>
+      <c r="DK24" s="11"/>
+      <c r="DL24" s="11"/>
+      <c r="DM24" s="11"/>
+      <c r="DN24" s="11"/>
+      <c r="DO24" s="11"/>
+      <c r="DP24" s="11"/>
+      <c r="DQ24" s="11"/>
+      <c r="DR24" s="11"/>
+      <c r="DS24" s="11"/>
+      <c r="DT24" s="11"/>
+      <c r="DU24" s="11"/>
+      <c r="DV24" s="11"/>
+      <c r="DW24" s="11"/>
+      <c r="DX24" s="11"/>
+      <c r="DY24" s="11"/>
+      <c r="DZ24" s="11"/>
+      <c r="EA24" s="11"/>
+      <c r="EB24" s="11"/>
+      <c r="EC24" s="11"/>
+      <c r="ED24" s="11"/>
+      <c r="EE24" s="11"/>
+      <c r="EF24" s="11"/>
+      <c r="EG24" s="11"/>
+      <c r="EH24" s="11"/>
+      <c r="EI24" s="11"/>
+      <c r="EJ24" s="11"/>
+      <c r="EK24" s="11"/>
+      <c r="EL24" s="11"/>
+      <c r="EM24" s="11"/>
+      <c r="EN24" s="24"/>
+      <c r="EO24" s="24"/>
+      <c r="EP24" s="24"/>
+      <c r="EQ24" s="24"/>
+      <c r="ER24" s="24"/>
+      <c r="ES24" s="24"/>
+      <c r="ET24" s="24"/>
+      <c r="EU24" s="24"/>
+      <c r="EV24" s="24"/>
+      <c r="EW24" s="24"/>
+      <c r="EX24" s="24"/>
+      <c r="EY24" s="24"/>
+      <c r="EZ24" s="24"/>
+      <c r="FA24" s="24"/>
+      <c r="FB24" s="24"/>
+      <c r="FC24" s="24"/>
+      <c r="FD24" s="24"/>
+      <c r="FE24" s="24"/>
+      <c r="FF24" s="24"/>
+      <c r="FG24" s="24"/>
+      <c r="FH24" s="24"/>
+      <c r="FI24" s="24"/>
+      <c r="FJ24" s="24"/>
+      <c r="FK24" s="24"/>
+      <c r="FL24" s="24"/>
+      <c r="FM24" s="24"/>
+      <c r="FN24" s="24"/>
+      <c r="FO24" s="24"/>
+      <c r="FP24" s="24"/>
+      <c r="FQ24" s="24"/>
+      <c r="FR24" s="24"/>
+      <c r="FS24" s="24"/>
+      <c r="FT24" s="24"/>
+      <c r="FU24" s="24"/>
+      <c r="FV24" s="24"/>
+      <c r="FW24" s="24"/>
+      <c r="FX24" s="24"/>
+      <c r="FY24" s="24"/>
+      <c r="FZ24" s="24"/>
+      <c r="GA24" s="24"/>
+      <c r="GB24" s="24"/>
+      <c r="GC24" s="24"/>
+      <c r="GD24" s="24"/>
+      <c r="GE24" s="24"/>
+      <c r="GF24" s="24"/>
+      <c r="GG24" s="24"/>
+      <c r="GH24" s="24"/>
+      <c r="GI24" s="24"/>
+      <c r="GJ24" s="24"/>
+      <c r="GK24" s="24"/>
+      <c r="GL24" s="24"/>
+      <c r="GM24" s="24"/>
+      <c r="GN24" s="24"/>
+      <c r="GO24" s="24"/>
+      <c r="GP24" s="24"/>
+      <c r="GQ24" s="24"/>
+      <c r="GR24" s="24"/>
+      <c r="GS24" s="24"/>
+      <c r="GT24" s="24"/>
+      <c r="GU24" s="24"/>
+      <c r="GV24" s="24"/>
+      <c r="GW24" s="24"/>
+      <c r="GX24" s="24"/>
+      <c r="GY24" s="24"/>
+      <c r="GZ24" s="24"/>
+      <c r="HA24" s="24"/>
+      <c r="HB24" s="24"/>
+      <c r="HC24" s="24"/>
+      <c r="HD24" s="24"/>
+      <c r="HE24" s="24"/>
+      <c r="HF24" s="24"/>
+      <c r="HG24" s="24"/>
+      <c r="HH24" s="24"/>
+      <c r="HI24" s="24"/>
+      <c r="HJ24" s="24"/>
+      <c r="HK24" s="24"/>
+      <c r="HL24" s="24"/>
+      <c r="HM24" s="24"/>
+      <c r="HN24" s="24"/>
+      <c r="HO24" s="24"/>
+      <c r="HP24" s="24"/>
+      <c r="HQ24" s="24"/>
+      <c r="HR24" s="24"/>
+      <c r="HS24" s="24"/>
+      <c r="HT24" s="24"/>
+      <c r="HU24" s="24"/>
+      <c r="HV24" s="24"/>
+      <c r="HW24" s="24"/>
+      <c r="HX24" s="24"/>
+      <c r="HY24" s="24"/>
+      <c r="HZ24" s="24"/>
+      <c r="IA24" s="24"/>
+      <c r="IB24" s="24"/>
+      <c r="IC24" s="24"/>
+      <c r="ID24" s="24"/>
+      <c r="IE24" s="24"/>
+      <c r="IF24" s="24"/>
+      <c r="IG24" s="24"/>
+      <c r="IH24" s="24"/>
+      <c r="II24" s="24"/>
+      <c r="IJ24" s="24"/>
+      <c r="IK24" s="24"/>
+      <c r="IL24" s="24"/>
+      <c r="IM24" s="24"/>
+      <c r="IN24" s="24"/>
+      <c r="IO24" s="24"/>
+      <c r="IP24" s="24"/>
+      <c r="IQ24" s="24"/>
+      <c r="IR24" s="24"/>
+      <c r="IS24" s="24"/>
+      <c r="IT24" s="24"/>
+      <c r="IU24" s="24"/>
+      <c r="IV24" s="24"/>
+      <c r="IW24" s="24"/>
+      <c r="IX24" s="24"/>
+      <c r="IY24" s="24"/>
+      <c r="IZ24" s="24"/>
+      <c r="JA24" s="24"/>
+      <c r="JB24" s="24">
+        <v>143.92885219999999</v>
       </c>
       <c r="JC24" s="27"/>
     </row>
     <row r="25" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B25" s="11">
-        <v>1.118881300000794</v>
+        <v>375</v>
       </c>
       <c r="C25" s="11">
-        <v>12.883559800007788</v>
+        <v>411</v>
       </c>
       <c r="D25" s="11">
-        <v>1.5967228000008618</v>
+        <v>446</v>
       </c>
       <c r="E25" s="11">
-        <v>1.0944698999956017</v>
+        <v>469</v>
       </c>
       <c r="F25" s="11">
-        <v>-0.22657270001218421</v>
+        <v>410</v>
       </c>
       <c r="G25" s="11">
-        <v>0.14595610000105808</v>
+        <v>425</v>
       </c>
       <c r="H25" s="11">
-        <v>27.931744599987724</v>
+        <v>369</v>
       </c>
       <c r="I25" s="13">
-        <v>49.051186299999991</v>
+        <v>378.20000000000618</v>
       </c>
       <c r="J25" s="13">
-        <v>288</v>
+        <v>635</v>
       </c>
       <c r="K25" s="13">
-        <v>17</v>
+        <v>411.20000000000437</v>
       </c>
       <c r="L25" s="13">
-        <v>15</v>
+        <v>565</v>
       </c>
       <c r="M25" s="13">
-        <v>43</v>
+        <v>700.20000000000437</v>
       </c>
       <c r="N25" s="11">
-        <v>60</v>
+        <v>577</v>
       </c>
       <c r="O25" s="11">
-        <v>21</v>
+        <v>515</v>
       </c>
       <c r="P25" s="11">
-        <v>429</v>
+        <v>957</v>
       </c>
       <c r="Q25" s="11">
-        <v>22</v>
+        <v>503</v>
       </c>
       <c r="R25" s="11">
-        <v>4</v>
+        <v>814</v>
       </c>
       <c r="S25" s="11">
-        <v>41</v>
+        <v>498</v>
       </c>
       <c r="T25" s="11">
-        <v>3.2562660000000001</v>
+        <v>505.8904082000081</v>
       </c>
       <c r="U25" s="13">
-        <v>3.2324162999999997</v>
+        <v>469.24000519998663</v>
       </c>
       <c r="V25" s="13">
-        <v>3.1881176</v>
+        <v>471.70476949999647</v>
       </c>
       <c r="W25" s="13">
-        <v>40.466980599999999</v>
+        <v>533.17581190001147</v>
       </c>
       <c r="X25" s="13">
-        <v>153.52904999999998</v>
+        <v>854.86797439999646</v>
       </c>
       <c r="Y25" s="13">
-        <v>154.75079830000001</v>
+        <v>716.1555408999775</v>
       </c>
       <c r="Z25" s="11">
-        <v>43.166532199999999</v>
+        <v>571.73023399999147</v>
       </c>
       <c r="AA25" s="11">
-        <v>13.9559868</v>
+        <v>521.22626200000013</v>
       </c>
       <c r="AB25" s="11">
-        <v>368.61870560000006</v>
+        <v>956.88503019998461</v>
       </c>
       <c r="AC25" s="11">
-        <v>7.6062947000000003</v>
+        <v>586.07527440000194</v>
       </c>
       <c r="AD25" s="11">
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="AE25" s="11">
-        <v>0.50553300000000001</v>
+        <v>552.10328389998904</v>
       </c>
       <c r="AF25" s="11">
-        <v>3.6895666</v>
+        <v>574.35953620000146</v>
       </c>
       <c r="AG25" s="13">
-        <v>34.344836799999996</v>
+        <v>591.55563770002118</v>
       </c>
       <c r="AH25" s="13">
-        <v>1.9334566</v>
+        <v>570.58242480001354</v>
       </c>
       <c r="AI25" s="13">
-        <v>0</v>
+        <v>785.89999999999418</v>
       </c>
       <c r="AJ25" s="13">
-        <v>102.4659855</v>
+        <v>823.49252310001248</v>
       </c>
       <c r="AK25" s="13">
-        <v>112.61968229999999</v>
+        <v>762.25331370000015</v>
       </c>
       <c r="AL25" s="11">
-        <v>12.655760900000001</v>
+        <v>1064.2058947999999</v>
       </c>
       <c r="AM25" s="11">
-        <v>38.785057999999999</v>
+        <v>651.89533680001114</v>
       </c>
       <c r="AN25" s="11">
-        <v>112.10183540000001</v>
+        <v>754.79729900000893</v>
       </c>
       <c r="AO25" s="11">
-        <v>184.19340019999999</v>
+        <v>797.56498880001891</v>
       </c>
       <c r="AP25" s="11">
-        <v>139.627115</v>
+        <v>750.87887670002965</v>
       </c>
       <c r="AQ25" s="11">
-        <v>46.656488199999998</v>
+        <v>677.88901700003407</v>
       </c>
       <c r="AR25" s="11">
-        <v>0.55238340000000008</v>
+        <v>719.38092079996932</v>
       </c>
       <c r="AS25" s="13">
-        <v>79.883701099999996</v>
+        <v>991.8427297999915</v>
       </c>
       <c r="AT25" s="13">
-        <v>23.593508699999997</v>
+        <v>773.10171980001542</v>
       </c>
       <c r="AU25" s="13">
-        <v>23.294760399999998</v>
+        <v>1106.4868973000084</v>
       </c>
       <c r="AV25" s="13">
-        <v>21.465062199999998</v>
+        <v>799.76553280000007</v>
       </c>
       <c r="AW25" s="13">
-        <v>488.19595769999995</v>
+        <v>1205.5050899000598</v>
       </c>
       <c r="AX25" s="11">
-        <v>14.0088194</v>
+        <v>972.37432400000034</v>
       </c>
       <c r="AY25" s="11">
-        <v>135.2827206</v>
+        <v>886.68741510000473</v>
       </c>
       <c r="AZ25" s="11">
-        <v>6.7337100000000011E-2</v>
+        <v>1060.1546123999979</v>
       </c>
       <c r="BA25" s="11">
-        <v>38.599392000000002</v>
+        <v>793.38641500000085</v>
       </c>
       <c r="BB25" s="11">
-        <v>145.52101930000001</v>
+        <v>896.25108779995207</v>
       </c>
       <c r="BC25" s="11">
-        <v>8.6187641999999993</v>
+        <v>778.35854950002613</v>
       </c>
       <c r="BD25" s="11">
-        <v>105.68789779999999</v>
+        <v>1097.789705300027</v>
       </c>
       <c r="BE25" s="13">
-        <v>22.054726600000002</v>
+        <v>800.47808090002582</v>
       </c>
       <c r="BF25" s="13">
-        <v>62.2844634</v>
+        <v>884.25244099998599</v>
       </c>
       <c r="BG25" s="13">
-        <v>4.3813614999999997</v>
+        <v>807.56400490000669</v>
       </c>
       <c r="BH25" s="13">
-        <v>165.28635360000001</v>
+        <v>1170.0115554000004</v>
       </c>
       <c r="BI25" s="13">
-        <v>37.886526100000005</v>
+        <v>978.51542849998805</v>
       </c>
       <c r="BJ25" s="11">
-        <v>28.951462800000002</v>
+        <v>1050.6275244999415</v>
       </c>
       <c r="BK25" s="11">
-        <v>14.4043323</v>
+        <v>969.08770029999505</v>
       </c>
       <c r="BL25" s="11">
-        <v>15.097228999999999</v>
+        <v>1059.6428594000063</v>
       </c>
       <c r="BM25" s="11">
-        <v>7.8858500000000012E-2</v>
+        <v>952.21395060004579</v>
       </c>
       <c r="BN25" s="11">
-        <v>7.8443399999999996E-2</v>
+        <v>829.41404090001743</v>
       </c>
       <c r="BO25" s="11">
-        <v>0.1486381</v>
+        <v>817.4755393000305</v>
       </c>
       <c r="BP25" s="11">
-        <v>29.355718800000002</v>
+        <v>920.96487039998465</v>
       </c>
       <c r="BQ25" s="13">
-        <v>3.9593628999999999</v>
+        <v>852.14285900002142</v>
       </c>
       <c r="BR25" s="13">
-        <v>69.503446900000014</v>
+        <v>893.3971581000078</v>
       </c>
       <c r="BS25" s="13">
-        <v>1.4459100000000001E-2</v>
+        <v>770.95525010000711</v>
       </c>
       <c r="BT25" s="13">
-        <v>13.863107199999998</v>
+        <v>855.05249400002504</v>
       </c>
       <c r="BU25" s="13">
-        <v>21.481217399999998</v>
+        <v>795.05403940007091</v>
       </c>
       <c r="BV25" s="11">
-        <v>154.35700759999997</v>
+        <v>806.53799269990122</v>
       </c>
       <c r="BW25" s="11">
-        <v>2.9289712999999997</v>
+        <v>455.30060429999139</v>
       </c>
       <c r="BX25" s="11">
-        <v>1.55684E-2</v>
+        <v>397.22909540002001</v>
       </c>
       <c r="BY25" s="11">
-        <v>25.968397100000001</v>
+        <v>519.83674959999917</v>
       </c>
       <c r="BZ25" s="11">
-        <v>1.869078</v>
+        <v>445.95500039996114</v>
       </c>
       <c r="CA25" s="11">
-        <v>15.022588900000001</v>
+        <v>458.40400390002469</v>
       </c>
       <c r="CB25" s="11">
-        <v>10.009738199999999</v>
+        <v>5461.0629111999588</v>
       </c>
       <c r="CC25" s="13">
-        <v>37.495622699999998</v>
+        <v>5423.131641299944</v>
       </c>
       <c r="CD25" s="13">
-        <v>1.81815E-2</v>
+        <v>2659.0760591000726</v>
       </c>
       <c r="CE25" s="13">
-        <v>96.997597999999996</v>
+        <v>2386.383604099974</v>
       </c>
       <c r="CF25" s="13">
-        <v>21.335802100000002</v>
+        <v>1335.6357534000708</v>
       </c>
       <c r="CG25" s="13">
-        <v>39.698863899999999</v>
+        <v>1885.3583927000291</v>
       </c>
       <c r="CH25" s="11">
-        <v>15.8370833</v>
+        <v>1580.1811434999981</v>
       </c>
       <c r="CI25" s="11">
-        <v>1.74524E-2</v>
+        <v>4033.1829414000385</v>
       </c>
       <c r="CJ25" s="11">
-        <v>80.019943099999992</v>
+        <v>3815.387569799932</v>
       </c>
       <c r="CK25" s="11">
-        <v>70.836687999999995</v>
+        <v>4230.8008010000631</v>
       </c>
       <c r="CL25" s="11">
-        <v>86.801599199999998</v>
+        <v>3767.4399168000091</v>
       </c>
       <c r="CM25" s="11">
-        <v>50.237163700000004</v>
+        <v>2524.7639629999612</v>
       </c>
       <c r="CN25" s="11">
-        <v>43.501726499999997</v>
+        <v>2843.0292306000192</v>
       </c>
       <c r="CO25" s="11">
-        <v>1.6558799999999999E-2</v>
+        <v>2729.0990679999813</v>
       </c>
       <c r="CP25" s="11">
-        <v>11.578950300000001</v>
+        <v>3011.3386289999326</v>
       </c>
       <c r="CQ25" s="11">
-        <v>177.80353219999998</v>
+        <v>2666.1365269999078</v>
       </c>
       <c r="CR25" s="11">
-        <v>545.51339789999997</v>
+        <v>2884.2892440999713</v>
       </c>
       <c r="CS25" s="11">
-        <v>9729.2214302000011</v>
+        <v>13634.734304799975</v>
       </c>
       <c r="CT25" s="11">
-        <v>9806.8653612000016</v>
+        <v>13471.021368399975</v>
       </c>
       <c r="CU25" s="11">
-        <v>9590.0580867999997</v>
+        <v>12913.881240200011</v>
       </c>
       <c r="CV25" s="11">
-        <v>7016.6531234000004</v>
+        <v>15606.378570000015</v>
       </c>
       <c r="CW25" s="11">
-        <v>6837.1148800000001</v>
+        <v>12962.318786799951</v>
       </c>
       <c r="CX25" s="11">
-        <v>6069.8512803999993</v>
+        <v>12548.717793999946</v>
       </c>
       <c r="CY25" s="11">
-        <v>3336.1273213000004</v>
+        <v>14674.01381240008</v>
       </c>
       <c r="CZ25" s="11">
-        <v>2502.6494459</v>
+        <v>13864.444904099946</v>
       </c>
       <c r="DA25" s="11">
-        <v>164.663454</v>
+        <v>11197.2</v>
       </c>
       <c r="DB25" s="11">
-        <v>112.80148799999999</v>
+        <v>8858.36</v>
       </c>
       <c r="DC25" s="11">
-        <v>604.58358789999988</v>
+        <v>7709.42</v>
       </c>
       <c r="DD25" s="11">
-        <v>157.67563849999999</v>
+        <v>7902.8559449998866</v>
       </c>
       <c r="DE25" s="11">
-        <v>87.595003099999985</v>
+        <v>6802.8330665000831</v>
       </c>
       <c r="DF25" s="11">
-        <v>60.7586656</v>
+        <v>7621.81</v>
       </c>
       <c r="DG25" s="11">
-        <v>65.913236600000005</v>
+        <v>7067.6600180999521</v>
       </c>
       <c r="DH25" s="11">
-        <v>88.7882058</v>
+        <v>7448.76</v>
       </c>
       <c r="DI25" s="11">
-        <v>61.599168299999995</v>
+        <v>7115.05</v>
       </c>
       <c r="DJ25" s="11">
-        <v>114.4360358</v>
+        <v>6514.27</v>
       </c>
       <c r="DK25" s="11">
-        <v>23.853710899999999</v>
+        <v>4867.0653789999778</v>
       </c>
       <c r="DL25" s="11">
-        <v>2492.0970653000004</v>
+        <v>11023.72</v>
       </c>
       <c r="DM25" s="11">
-        <v>2498.1501316999997</v>
+        <v>9897.806479000028</v>
       </c>
       <c r="DN25" s="11">
-        <v>2483.8442359999999</v>
+        <v>9248.15</v>
       </c>
       <c r="DO25" s="11">
-        <v>1036.7068522999998</v>
+        <v>8791.4195064999149</v>
       </c>
       <c r="DP25" s="11">
-        <v>1033.7650604</v>
+        <v>7567.3578992999683</v>
       </c>
       <c r="DQ25" s="11">
-        <v>9.1315144000000004</v>
+        <v>3171.1</v>
       </c>
       <c r="DR25" s="11">
-        <v>2.7755660999999998</v>
+        <v>5902.84</v>
       </c>
       <c r="DS25" s="11">
-        <v>23.253445299999999</v>
+        <v>5241.3829313997994</v>
       </c>
       <c r="DT25" s="11">
-        <v>2.8563561000000002</v>
+        <v>3049.74</v>
       </c>
       <c r="DU25" s="11">
-        <v>26.959694800000001</v>
+        <v>3626.0352152999403</v>
       </c>
       <c r="DV25" s="11">
-        <v>82.631563400000005</v>
+        <v>4115.8043026000523</v>
       </c>
       <c r="DW25" s="11">
-        <v>13.0339428</v>
+        <v>2821.645572400128</v>
       </c>
       <c r="DX25" s="11">
-        <v>15.092307099999999</v>
+        <v>3277.9105462000007</v>
       </c>
       <c r="DY25" s="11">
-        <v>2.7724579999999999</v>
+        <v>2697.15</v>
       </c>
       <c r="DZ25" s="11">
-        <v>2.7675638</v>
+        <v>4111.4047800000117</v>
       </c>
       <c r="EA25" s="11">
-        <v>7.2112462000000006</v>
+        <v>2920.4160467000329</v>
       </c>
       <c r="EB25" s="11">
-        <v>2.7979041000000002</v>
+        <v>3755.8909130999527</v>
       </c>
       <c r="EC25" s="11">
-        <v>2.7694981000000003</v>
+        <v>3407.6230605001037</v>
       </c>
       <c r="ED25" s="11">
-        <v>280.28887760000003</v>
+        <v>4090.7341062000196</v>
       </c>
       <c r="EE25" s="11">
-        <v>141.2077098</v>
+        <v>10749.94</v>
       </c>
       <c r="EF25" s="11">
-        <v>2.8220291000000004</v>
+        <v>5335.35</v>
       </c>
       <c r="EG25" s="11">
-        <v>2.8241349000000002</v>
+        <v>3015.7710871000891</v>
       </c>
       <c r="EH25" s="11">
-        <v>15.2202252</v>
+        <v>3213.22</v>
       </c>
       <c r="EI25" s="11">
-        <v>14.999765</v>
+        <v>4661.22</v>
       </c>
       <c r="EJ25" s="11">
-        <v>2.7725445</v>
+        <v>3916.9776501001325</v>
       </c>
       <c r="EK25" s="11">
-        <v>15.1447789</v>
+        <v>4824.0200000000004</v>
       </c>
       <c r="EL25" s="11">
-        <v>2.7826677999999996</v>
+        <v>4154.71</v>
       </c>
       <c r="EM25" s="11">
-        <v>3.2515917999999995</v>
+        <v>2929.98</v>
       </c>
       <c r="EN25" s="24">
-        <v>28.799464499999999</v>
+        <v>6181.363876699892</v>
       </c>
       <c r="EO25" s="24">
-        <v>755.21416090000002</v>
+        <v>3921.8667578999884</v>
       </c>
       <c r="EP25" s="24">
-        <v>678.68819840000003</v>
+        <v>5538.3126731000521</v>
       </c>
       <c r="EQ25" s="24">
-        <v>813.67968350000001</v>
+        <v>6112.5332729000947</v>
       </c>
       <c r="ER25" s="24">
-        <v>1015.5977955</v>
+        <v>6436.4716934000171</v>
       </c>
       <c r="ES25" s="24">
-        <v>1598.4242505</v>
+        <v>5312.11</v>
       </c>
       <c r="ET25" s="24">
-        <v>1571.7303309000001</v>
+        <v>3997.891101700021</v>
       </c>
       <c r="EU25" s="24">
-        <v>1269.7526499000001</v>
+        <v>3684.563795700029</v>
       </c>
       <c r="EV25" s="24">
-        <v>960.67225970000004</v>
+        <v>2737.6264134999656</v>
       </c>
       <c r="EW25" s="24">
-        <v>733.45330820000004</v>
+        <v>2367.2800000000002</v>
       </c>
       <c r="EX25" s="24">
-        <v>473.39971809999997</v>
+        <v>2182.5492969999032</v>
       </c>
       <c r="EY25" s="24">
-        <v>378.06637180000001</v>
+        <v>3405.65</v>
       </c>
       <c r="EZ25" s="24">
-        <v>385.57905879999998</v>
+        <v>2843.5014687998628</v>
       </c>
       <c r="FA25" s="24">
-        <v>289.64543560000004</v>
+        <v>2197.54</v>
       </c>
       <c r="FB25" s="24">
-        <v>400.11229019999996</v>
+        <v>8684.3369091998902</v>
       </c>
       <c r="FC25" s="24">
-        <v>401.70805999999999</v>
+        <v>7299.4</v>
       </c>
       <c r="FD25" s="24">
-        <v>724.59361310000008</v>
+        <v>5225.8488273000985</v>
       </c>
       <c r="FE25" s="24">
-        <v>2987.2144926999999</v>
+        <v>5854.48</v>
       </c>
       <c r="FF25" s="24">
-        <v>2958.1026844000003</v>
+        <v>5203.8900000000003</v>
       </c>
       <c r="FG25" s="24">
-        <v>2735.3356045</v>
+        <v>5009.0480757000332</v>
       </c>
       <c r="FH25" s="24">
-        <v>2626.8320230999998</v>
+        <v>9169.8654889001045</v>
       </c>
       <c r="FI25" s="24">
-        <v>2692.8128653000003</v>
+        <v>7887.0181795001263</v>
       </c>
       <c r="FJ25" s="24">
-        <v>2612.8999551999996</v>
+        <v>8275.16</v>
       </c>
       <c r="FK25" s="24">
-        <v>2662.4554003000003</v>
+        <v>7352.75</v>
       </c>
       <c r="FL25" s="24">
-        <v>4.0313103999999997</v>
+        <v>5528.4986814999429</v>
       </c>
       <c r="FM25" s="24">
-        <v>4129.0292675000001</v>
+        <v>15651.347891800164</v>
       </c>
       <c r="FN25" s="24">
-        <v>4164.2537657000003</v>
+        <v>15882.680479400151</v>
       </c>
       <c r="FO25" s="24">
-        <v>2685.9570244000001</v>
+        <v>14836.964638400008</v>
       </c>
       <c r="FP25" s="24">
-        <v>27.124921699999998</v>
+        <v>13870.388681800076</v>
       </c>
       <c r="FQ25" s="24">
-        <v>32.528889999999997</v>
+        <v>10804.746790400066</v>
       </c>
       <c r="FR25" s="24">
-        <v>1690.4393556</v>
+        <v>12322.145076200017</v>
       </c>
       <c r="FS25" s="24">
-        <v>4808.1219467000001</v>
+        <v>15530.74</v>
       </c>
       <c r="FT25" s="24">
-        <v>9420.773632299999</v>
+        <v>20072.232023299992</v>
       </c>
       <c r="FU25" s="24">
-        <v>9124.8538346000005</v>
+        <v>15054.74386409999</v>
       </c>
       <c r="FV25" s="24">
-        <v>9098.0166399999998</v>
+        <v>16966.88</v>
       </c>
       <c r="FW25" s="24">
-        <v>10008.477574799999</v>
+        <v>16385.599876600027</v>
       </c>
       <c r="FX25" s="24">
-        <v>9664.5519320000003</v>
+        <v>21800.491900600202</v>
       </c>
       <c r="FY25" s="24">
-        <v>9727.5182420000001</v>
+        <v>27189.35870949988</v>
       </c>
       <c r="FZ25" s="24">
-        <v>9692.0596339000003</v>
+        <v>28128.519423099962</v>
       </c>
       <c r="GA25" s="24">
-        <v>9635.7549457000005</v>
+        <v>24965.835609200032</v>
       </c>
       <c r="GB25" s="24">
-        <v>9652.1147677000008</v>
+        <v>25436.174072600086</v>
       </c>
       <c r="GC25" s="24">
-        <v>879.04947310000011</v>
+        <v>22071.321281299912</v>
       </c>
       <c r="GD25" s="24">
-        <v>516.9699981</v>
+        <v>19237.318234600025</v>
       </c>
       <c r="GE25" s="24">
-        <v>784.57500240000002</v>
+        <v>19286.332234200032</v>
       </c>
       <c r="GF25" s="24">
-        <v>710.91912579999996</v>
+        <v>26041.625064299995</v>
       </c>
       <c r="GG25" s="24">
-        <v>848.04317120000007</v>
+        <v>23474.147971199884</v>
       </c>
       <c r="GH25" s="24">
-        <v>5309.6422553000002</v>
+        <v>27478.489230800042</v>
       </c>
       <c r="GI25" s="24">
-        <v>5342.3638896000002</v>
+        <v>31716.538932099997</v>
       </c>
       <c r="GJ25" s="24">
-        <v>5281.3121701999999</v>
+        <v>46166.157351599948</v>
       </c>
       <c r="GK25" s="24">
-        <v>11414.8837478</v>
+        <v>52211.257500400039</v>
       </c>
       <c r="GL25" s="24">
-        <v>11592.7503576</v>
+        <v>58868.079649099978</v>
       </c>
       <c r="GM25" s="24">
-        <v>5241.5183898999994</v>
+        <v>58997.852478100074</v>
       </c>
       <c r="GN25" s="24">
-        <v>5254.3599163000008</v>
+        <v>64515.868411299831</v>
       </c>
       <c r="GO25" s="24">
-        <v>5343.2220602999996</v>
+        <v>59132.33432269987</v>
       </c>
       <c r="GP25" s="24">
-        <v>7448.4958493999993</v>
+        <v>56083.165015200211</v>
       </c>
       <c r="GQ25" s="24">
-        <v>7322.4425901000004</v>
+        <v>47450.643439499894</v>
       </c>
       <c r="GR25" s="24">
-        <v>9367.1389758000005</v>
+        <v>45717.87706020003</v>
       </c>
       <c r="GS25" s="24">
-        <v>10761.641048000001</v>
+        <v>45175.716131699941</v>
       </c>
       <c r="GT25" s="24">
-        <v>10537.703563100002</v>
+        <v>48757.160465699882</v>
       </c>
       <c r="GU25" s="24">
-        <v>10683.758099500001</v>
+        <v>41522.577455899765</v>
       </c>
       <c r="GV25" s="24">
-        <v>1412.0740642000001</v>
+        <v>38562.331542099942</v>
       </c>
       <c r="GW25" s="24">
-        <v>9144.1822217000008</v>
+        <v>40769.513290000032</v>
       </c>
       <c r="GX25" s="24">
-        <v>9607.3026109999992</v>
+        <v>42863.117329399916</v>
       </c>
       <c r="GY25" s="24">
-        <v>9877.5490076999995</v>
+        <v>39098.834824199963</v>
       </c>
       <c r="GZ25" s="24">
-        <v>1639.1302009000001</v>
+        <v>39741.795699200418</v>
       </c>
       <c r="HA25" s="24">
-        <v>2420.0220101999998</v>
+        <v>42368.729495899868</v>
       </c>
       <c r="HB25" s="24">
-        <v>2835.4717606999998</v>
+        <v>41330.663948900066</v>
       </c>
       <c r="HC25" s="24">
-        <v>4206.6225958000005</v>
+        <v>37013.438913400169</v>
       </c>
       <c r="HD25" s="24">
-        <v>4215.0641679999999</v>
+        <v>34095.184020600282</v>
       </c>
       <c r="HE25" s="24">
-        <v>4320.0835508</v>
+        <v>33633.189543100074</v>
       </c>
       <c r="HF25" s="24">
-        <v>5033.5536513999996</v>
+        <v>37497.874313100067</v>
       </c>
       <c r="HG25" s="24">
-        <v>17887.399640600001</v>
+        <v>40024.759553499985</v>
       </c>
       <c r="HH25" s="24">
-        <v>27044.076599599997</v>
+        <v>49978.360951400071</v>
       </c>
       <c r="HI25" s="24">
-        <v>25269.942413599998</v>
+        <v>53551.693483399577</v>
       </c>
       <c r="HJ25" s="24">
-        <v>26117.467116799999</v>
+        <v>60142.124527999898</v>
       </c>
       <c r="HK25" s="24">
-        <v>26387.191081199999</v>
+        <v>59891.845155899995</v>
       </c>
       <c r="HL25" s="24">
-        <v>26024.162172900003</v>
+        <v>56418.931454199832</v>
       </c>
       <c r="HM25" s="24">
-        <v>25379.0373301</v>
+        <v>56243.388498700282</v>
       </c>
       <c r="HN25" s="24">
-        <v>25444.327980900001</v>
+        <v>54770.516378400091</v>
       </c>
       <c r="HO25" s="24">
-        <v>23255.758081700002</v>
+        <v>52625.736132000107</v>
       </c>
       <c r="HP25" s="24">
-        <v>22161.738786200003</v>
+        <v>54335.285369000048</v>
       </c>
       <c r="HQ25" s="24">
-        <v>21865.036654799998</v>
+        <v>50992.944744899985</v>
       </c>
       <c r="HR25" s="24">
-        <v>18843.7533042</v>
+        <v>47393.233648400055</v>
       </c>
       <c r="HS25" s="24">
-        <v>17345.368182999999</v>
+        <v>43431.298992700176</v>
       </c>
       <c r="HT25" s="24">
-        <v>16063.706035200001</v>
+        <v>43380.505602199933</v>
       </c>
       <c r="HU25" s="24">
-        <v>12095.954381</v>
+        <v>39650.807422600104</v>
       </c>
       <c r="HV25" s="24">
-        <v>13591.7313103</v>
+        <v>43818.348132199957</v>
       </c>
       <c r="HW25" s="24">
-        <v>9469.6012757000008</v>
+        <v>39335.761335000163</v>
       </c>
       <c r="HX25" s="24">
-        <v>9645.9173310000006</v>
+        <v>41433.350312300026</v>
       </c>
       <c r="HY25" s="24">
-        <v>9256.772874799999</v>
+        <v>41942.43358039984</v>
       </c>
       <c r="HZ25" s="24">
-        <v>8970.0792870999994</v>
+        <v>39934.087182800053</v>
       </c>
       <c r="IA25" s="24">
-        <v>8530.8207366999995</v>
+        <v>39678.003695399966</v>
       </c>
       <c r="IB25" s="24">
-        <v>9965.9926046000019</v>
+        <v>41793.938235400012</v>
       </c>
       <c r="IC25" s="24">
-        <v>5862.0459854000001</v>
+        <v>37808.107495100005</v>
       </c>
       <c r="ID25" s="24">
-        <v>9863.2315063999995</v>
+        <v>41400.001304900041</v>
       </c>
       <c r="IE25" s="24">
-        <v>4599.0554804999992</v>
+        <v>36514.917480999953</v>
       </c>
       <c r="IF25" s="24">
-        <v>5223.7183168000001</v>
+        <v>34574.482871300308</v>
       </c>
       <c r="IG25" s="24">
-        <v>3118.9721200999998</v>
+        <v>30471.060156300082</v>
       </c>
       <c r="IH25" s="24">
-        <v>5305.6359631000005</v>
+        <v>33155.955533300061</v>
       </c>
       <c r="II25" s="24">
-        <v>4455.194034600001</v>
+        <v>29829.135829399922</v>
       </c>
       <c r="IJ25" s="24">
-        <v>8372.0930046000012</v>
+        <v>32035.516562999925</v>
       </c>
       <c r="IK25" s="24">
-        <v>8531.9324815999989</v>
+        <v>32083.432640400075</v>
       </c>
       <c r="IL25" s="24">
-        <v>5619.4510923000007</v>
+        <v>31191.419197899697</v>
       </c>
       <c r="IM25" s="24">
-        <v>19243.517730700001</v>
+        <v>37228.694375799969</v>
       </c>
       <c r="IN25" s="24">
-        <v>3977.4686194999999</v>
+        <v>21667.559098600061</v>
       </c>
       <c r="IO25" s="24">
-        <v>2614.8557873</v>
+        <v>18544.006377500016</v>
       </c>
       <c r="IP25" s="24">
-        <v>3845.5345308000001</v>
+        <v>19999.518835500116</v>
       </c>
       <c r="IQ25" s="24">
-        <v>3140.5213986999997</v>
+        <v>18145.780310900009</v>
       </c>
       <c r="IR25" s="24">
-        <v>3405.3532481999996</v>
+        <v>17741.505703199713</v>
       </c>
       <c r="IS25" s="24">
-        <v>1982.0941024000001</v>
+        <v>47966.948261700221</v>
       </c>
       <c r="IT25" s="24">
-        <v>3238.0763238000004</v>
+        <v>19698.203578300017</v>
       </c>
       <c r="IU25" s="24">
-        <v>2888.7365115999996</v>
+        <v>21770.781455199991</v>
       </c>
       <c r="IV25" s="24">
-        <v>3697.0996421</v>
+        <v>18537.654393000237</v>
       </c>
       <c r="IW25" s="24">
-        <v>2787.3522494999997</v>
+        <v>17200.077851099893</v>
       </c>
       <c r="IX25" s="24">
-        <v>2948.8695875999997</v>
+        <v>18157.680459000287</v>
       </c>
       <c r="IY25" s="24">
-        <v>2836.1114094000004</v>
+        <v>18611.375308899966</v>
       </c>
       <c r="IZ25" s="24">
-        <v>3292.7714586000002</v>
+        <v>20158.536351400078</v>
       </c>
       <c r="JA25" s="24">
-        <v>4540.7361923999997</v>
+        <v>21492.268535700103</v>
+      </c>
+      <c r="JB25" s="24">
+        <v>18079.464525799791</v>
       </c>
       <c r="JC25" s="27"/>
     </row>
-    <row r="26" spans="1:263" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="11">
+        <v>374</v>
+      </c>
+      <c r="C26" s="11">
+        <v>398</v>
+      </c>
+      <c r="D26" s="11">
+        <v>445</v>
+      </c>
+      <c r="E26" s="11">
+        <v>469</v>
+      </c>
+      <c r="F26" s="11">
+        <v>410</v>
+      </c>
+      <c r="G26" s="11">
+        <v>425</v>
+      </c>
+      <c r="H26" s="11">
+        <v>341</v>
+      </c>
+      <c r="I26" s="13">
+        <v>329.13392740000006</v>
+      </c>
+      <c r="J26" s="13">
+        <v>347</v>
+      </c>
+      <c r="K26" s="13">
+        <v>394</v>
+      </c>
+      <c r="L26" s="13">
+        <v>550</v>
+      </c>
+      <c r="M26" s="13">
+        <v>657</v>
+      </c>
+      <c r="N26" s="11">
+        <v>517</v>
+      </c>
+      <c r="O26" s="11">
+        <v>493</v>
+      </c>
+      <c r="P26" s="11">
+        <v>528</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>481</v>
+      </c>
+      <c r="R26" s="11">
+        <v>810</v>
+      </c>
+      <c r="S26" s="11">
+        <v>457</v>
+      </c>
+      <c r="T26" s="11">
+        <v>502.63414219999999</v>
+      </c>
+      <c r="U26" s="13">
+        <v>466.00758889999997</v>
+      </c>
+      <c r="V26" s="13">
+        <v>468.51665189999994</v>
+      </c>
+      <c r="W26" s="13">
+        <v>492.70883130000004</v>
+      </c>
+      <c r="X26" s="13">
+        <v>701.33892440000011</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>561.40474259999996</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>528.56370179999999</v>
+      </c>
+      <c r="AA26" s="11">
+        <v>507.27027520000001</v>
+      </c>
+      <c r="AB26" s="11">
+        <v>588.26632459999996</v>
+      </c>
+      <c r="AC26" s="11">
+        <v>578.46897969999998</v>
+      </c>
+      <c r="AD26" s="11">
+        <v>561</v>
+      </c>
+      <c r="AE26" s="11">
+        <v>551.59775089999994</v>
+      </c>
+      <c r="AF26" s="11">
+        <v>570.66996960000006</v>
+      </c>
+      <c r="AG26" s="13">
+        <v>557.21080089999998</v>
+      </c>
+      <c r="AH26" s="13">
+        <v>568.64896820000001</v>
+      </c>
+      <c r="AI26" s="13">
+        <v>785.57168369999988</v>
+      </c>
+      <c r="AJ26" s="13">
+        <v>721.02653759999987</v>
+      </c>
+      <c r="AK26" s="13">
+        <v>649.63363140000013</v>
+      </c>
+      <c r="AL26" s="11">
+        <v>1051.5501339</v>
+      </c>
+      <c r="AM26" s="11">
+        <v>613.11027879999995</v>
+      </c>
+      <c r="AN26" s="11">
+        <v>642.69546360000004</v>
+      </c>
+      <c r="AO26" s="11">
+        <v>613.3715886</v>
+      </c>
+      <c r="AP26" s="11">
+        <v>611.25176170000009</v>
+      </c>
+      <c r="AQ26" s="11">
+        <v>631.23252879999995</v>
+      </c>
+      <c r="AR26" s="11">
+        <v>718.82853740000007</v>
+      </c>
+      <c r="AS26" s="13">
+        <v>911.95902870000009</v>
+      </c>
+      <c r="AT26" s="13">
+        <v>749.50821110000004</v>
+      </c>
+      <c r="AU26" s="13">
+        <v>1083.1921369000002</v>
+      </c>
+      <c r="AV26" s="13">
+        <v>778.30047060000004</v>
+      </c>
+      <c r="AW26" s="13">
+        <v>717.30913220000002</v>
+      </c>
+      <c r="AX26" s="11">
+        <v>958.36550459999989</v>
+      </c>
+      <c r="AY26" s="11">
+        <v>751.40469449999989</v>
+      </c>
+      <c r="AZ26" s="11">
+        <v>1060.0872753000001</v>
+      </c>
+      <c r="BA26" s="11">
+        <v>754.78702300000009</v>
+      </c>
+      <c r="BB26" s="11">
+        <v>750.7300684999999</v>
+      </c>
+      <c r="BC26" s="11">
+        <v>769.73978529999988</v>
+      </c>
+      <c r="BD26" s="11">
+        <v>992.10180749999995</v>
+      </c>
+      <c r="BE26" s="13">
+        <v>778.42335430000003</v>
+      </c>
+      <c r="BF26" s="13">
+        <v>821.96797760000015</v>
+      </c>
+      <c r="BG26" s="13">
+        <v>803.18264339999996</v>
+      </c>
+      <c r="BH26" s="13">
+        <v>1004.7252018000001</v>
+      </c>
+      <c r="BI26" s="13">
+        <v>940.62890240000013</v>
+      </c>
+      <c r="BJ26" s="11">
+        <v>1021.6760617</v>
+      </c>
+      <c r="BK26" s="11">
+        <v>954.68336799999986</v>
+      </c>
+      <c r="BL26" s="11">
+        <v>1044.5456303999999</v>
+      </c>
+      <c r="BM26" s="11">
+        <v>952.13509210000007</v>
+      </c>
+      <c r="BN26" s="11">
+        <v>829.33559750000006</v>
+      </c>
+      <c r="BO26" s="11">
+        <v>817.32690120000007</v>
+      </c>
+      <c r="BP26" s="11">
+        <v>891.60915160000013</v>
+      </c>
+      <c r="BQ26" s="13">
+        <v>848.18349609999996</v>
+      </c>
+      <c r="BR26" s="13">
+        <v>823.89371119999987</v>
+      </c>
+      <c r="BS26" s="13">
+        <v>770.94079099999999</v>
+      </c>
+      <c r="BT26" s="13">
+        <v>841.18938680000008</v>
+      </c>
+      <c r="BU26" s="13">
+        <v>773.57282200000009</v>
+      </c>
+      <c r="BV26" s="11">
+        <v>652.18098510000016</v>
+      </c>
+      <c r="BW26" s="11">
+        <v>452.37163299999997</v>
+      </c>
+      <c r="BX26" s="11">
+        <v>397.213527</v>
+      </c>
+      <c r="BY26" s="11">
+        <v>493.86835250000001</v>
+      </c>
+      <c r="BZ26" s="11">
+        <v>444.08592240000002</v>
+      </c>
+      <c r="CA26" s="11">
+        <v>443.381415</v>
+      </c>
+      <c r="CB26" s="11">
+        <v>5451.0531730000002</v>
+      </c>
+      <c r="CC26" s="13">
+        <v>5385.6360185999993</v>
+      </c>
+      <c r="CD26" s="13">
+        <v>2659.0578776000002</v>
+      </c>
+      <c r="CE26" s="13">
+        <v>2289.3860061</v>
+      </c>
+      <c r="CF26" s="13">
+        <v>1314.2999513</v>
+      </c>
+      <c r="CG26" s="13">
+        <v>1845.6595287999999</v>
+      </c>
+      <c r="CH26" s="11">
+        <v>1564.3440602000003</v>
+      </c>
+      <c r="CI26" s="11">
+        <v>4033.165489</v>
+      </c>
+      <c r="CJ26" s="11">
+        <v>3735.3676267000001</v>
+      </c>
+      <c r="CK26" s="11">
+        <v>4159.964113</v>
+      </c>
+      <c r="CL26" s="11">
+        <v>3680.6383175999999</v>
+      </c>
+      <c r="CM26" s="11">
+        <v>2474.5267993000002</v>
+      </c>
+      <c r="CN26" s="11">
+        <v>2799.5275041</v>
+      </c>
+      <c r="CO26" s="11">
+        <v>2729.0825091999995</v>
+      </c>
+      <c r="CP26" s="11">
+        <v>2999.7596787000002</v>
+      </c>
+      <c r="CQ26" s="11">
+        <v>2488.3329948000001</v>
+      </c>
+      <c r="CR26" s="11">
+        <v>2338.7758462000002</v>
+      </c>
+      <c r="CS26" s="11">
+        <v>3905.5128745999996</v>
+      </c>
+      <c r="CT26" s="11">
+        <v>3664.1560071999997</v>
+      </c>
+      <c r="CU26" s="11">
+        <v>3323.8231534000001</v>
+      </c>
+      <c r="CV26" s="11">
+        <v>8589.7254466000013</v>
+      </c>
+      <c r="CW26" s="11">
+        <v>6125.2039068000004</v>
+      </c>
+      <c r="CX26" s="11">
+        <v>6478.8665136</v>
+      </c>
+      <c r="CY26" s="11">
+        <v>11337.8864911</v>
+      </c>
+      <c r="CZ26" s="11">
+        <v>11361.7954582</v>
+      </c>
+      <c r="DA26" s="11">
+        <v>11032.54</v>
+      </c>
+      <c r="DB26" s="11">
+        <v>8745.56</v>
+      </c>
+      <c r="DC26" s="11">
+        <v>7104.84</v>
+      </c>
+      <c r="DD26" s="11">
+        <v>7745.1803065000004</v>
+      </c>
+      <c r="DE26" s="11">
+        <v>6715.2380633999992</v>
+      </c>
+      <c r="DF26" s="11">
+        <v>7561.05</v>
+      </c>
+      <c r="DG26" s="11">
+        <v>7001.7467815</v>
+      </c>
+      <c r="DH26" s="11">
+        <v>7359.97</v>
+      </c>
+      <c r="DI26" s="11">
+        <v>7053.45</v>
+      </c>
+      <c r="DJ26" s="11">
+        <v>6399.83</v>
+      </c>
+      <c r="DK26" s="11">
+        <v>4843.2116681000007</v>
+      </c>
+      <c r="DL26" s="11">
+        <v>8531.6200000000008</v>
+      </c>
+      <c r="DM26" s="11">
+        <v>7399.6563472999997</v>
+      </c>
+      <c r="DN26" s="11">
+        <v>6764.31</v>
+      </c>
+      <c r="DO26" s="11">
+        <v>7754.7126541999987</v>
+      </c>
+      <c r="DP26" s="11">
+        <v>6533.5928389000001</v>
+      </c>
+      <c r="DQ26" s="11">
+        <v>3161.97</v>
+      </c>
+      <c r="DR26" s="11">
+        <v>5900.06</v>
+      </c>
+      <c r="DS26" s="11">
+        <v>5218.1294860999997</v>
+      </c>
+      <c r="DT26" s="11">
+        <v>3046.88</v>
+      </c>
+      <c r="DU26" s="11">
+        <v>3599.0755205000005</v>
+      </c>
+      <c r="DV26" s="11">
+        <v>4033.1727392000003</v>
+      </c>
+      <c r="DW26" s="11">
+        <v>2808.6116296</v>
+      </c>
+      <c r="DX26" s="11">
+        <v>3262.8182391000005</v>
+      </c>
+      <c r="DY26" s="11">
+        <v>2694.38</v>
+      </c>
+      <c r="DZ26" s="11">
+        <v>4108.6372162000007</v>
+      </c>
+      <c r="EA26" s="11">
+        <v>2913.2048004999997</v>
+      </c>
+      <c r="EB26" s="11">
+        <v>3753.0930090000002</v>
+      </c>
+      <c r="EC26" s="11">
+        <v>3404.8535623999996</v>
+      </c>
+      <c r="ED26" s="11">
+        <v>3810.4452286000001</v>
+      </c>
+      <c r="EE26" s="11">
+        <v>10608.73</v>
+      </c>
+      <c r="EF26" s="11">
+        <v>5332.53</v>
+      </c>
+      <c r="EG26" s="11">
+        <v>3012.9469522000004</v>
+      </c>
+      <c r="EH26" s="11">
+        <v>3198</v>
+      </c>
+      <c r="EI26" s="11">
+        <v>4646.22</v>
+      </c>
+      <c r="EJ26" s="11">
+        <v>3914.2051056</v>
+      </c>
+      <c r="EK26" s="11">
+        <v>4808.88</v>
+      </c>
+      <c r="EL26" s="11">
+        <v>4151.93</v>
+      </c>
+      <c r="EM26" s="11">
+        <v>2926.73</v>
+      </c>
+      <c r="EN26" s="24">
+        <v>6152.5644122000012</v>
+      </c>
+      <c r="EO26" s="24">
+        <v>3166.6525970000002</v>
+      </c>
+      <c r="EP26" s="24">
+        <v>4859.6244747000001</v>
+      </c>
+      <c r="EQ26" s="24">
+        <v>5298.8535893999988</v>
+      </c>
+      <c r="ER26" s="24">
+        <v>5420.8738978999991</v>
+      </c>
+      <c r="ES26" s="24">
+        <v>3713.69</v>
+      </c>
+      <c r="ET26" s="24">
+        <v>2426.1607708000001</v>
+      </c>
+      <c r="EU26" s="24">
+        <v>2414.8111457999998</v>
+      </c>
+      <c r="EV26" s="24">
+        <v>1776.9541537999999</v>
+      </c>
+      <c r="EW26" s="24">
+        <v>1633.83</v>
+      </c>
+      <c r="EX26" s="24">
+        <v>1709.1495789000001</v>
+      </c>
+      <c r="EY26" s="24">
+        <v>3027.58</v>
+      </c>
+      <c r="EZ26" s="24">
+        <v>2457.9224100000001</v>
+      </c>
+      <c r="FA26" s="24">
+        <v>1907.89</v>
+      </c>
+      <c r="FB26" s="24">
+        <v>8284.2246189999987</v>
+      </c>
+      <c r="FC26" s="24">
+        <v>6897.69</v>
+      </c>
+      <c r="FD26" s="24">
+        <v>4501.2552142000004</v>
+      </c>
+      <c r="FE26" s="24">
+        <v>2867.27</v>
+      </c>
+      <c r="FF26" s="24">
+        <v>2245.79</v>
+      </c>
+      <c r="FG26" s="24">
+        <v>2273.7124711999995</v>
+      </c>
+      <c r="FH26" s="24">
+        <v>6543.0334657999992</v>
+      </c>
+      <c r="FI26" s="24">
+        <v>5194.2053141999986</v>
+      </c>
+      <c r="FJ26" s="24">
+        <v>5662.26</v>
+      </c>
+      <c r="FK26" s="24">
+        <v>4690.29</v>
+      </c>
+      <c r="FL26" s="24">
+        <v>5524.4673711000005</v>
+      </c>
+      <c r="FM26" s="24">
+        <v>11522.318624299998</v>
+      </c>
+      <c r="FN26" s="24">
+        <v>11718.426713700001</v>
+      </c>
+      <c r="FO26" s="24">
+        <v>12151.007614</v>
+      </c>
+      <c r="FP26" s="24">
+        <v>13843.263760099999</v>
+      </c>
+      <c r="FQ26" s="24">
+        <v>10772.217900399999</v>
+      </c>
+      <c r="FR26" s="24">
+        <v>10631.705720599999</v>
+      </c>
+      <c r="FS26" s="24">
+        <v>10722.62</v>
+      </c>
+      <c r="FT26" s="24">
+        <v>10651.458390999998</v>
+      </c>
+      <c r="FU26" s="24">
+        <v>5929.8900295000003</v>
+      </c>
+      <c r="FV26" s="24">
+        <v>7868.86</v>
+      </c>
+      <c r="FW26" s="24">
+        <v>6377.1223018000001</v>
+      </c>
+      <c r="FX26" s="24">
+        <v>12135.9399686</v>
+      </c>
+      <c r="FY26" s="24">
+        <v>17461.840467500002</v>
+      </c>
+      <c r="FZ26" s="24">
+        <v>18436.459789200002</v>
+      </c>
+      <c r="GA26" s="24">
+        <v>15330.080663500001</v>
+      </c>
+      <c r="GB26" s="24">
+        <v>15784.059304900002</v>
+      </c>
+      <c r="GC26" s="24">
+        <v>21192.271808200003</v>
+      </c>
+      <c r="GD26" s="24">
+        <v>18720.348236499998</v>
+      </c>
+      <c r="GE26" s="24">
+        <v>18501.757231800006</v>
+      </c>
+      <c r="GF26" s="24">
+        <v>25330.705938499999</v>
+      </c>
+      <c r="GG26" s="24">
+        <v>22626.104800000001</v>
+      </c>
+      <c r="GH26" s="24">
+        <v>22168.846975500001</v>
+      </c>
+      <c r="GI26" s="24">
+        <v>26374.175042499999</v>
+      </c>
+      <c r="GJ26" s="24">
+        <v>40884.845181399993</v>
+      </c>
+      <c r="GK26" s="24">
+        <v>40796.373752599997</v>
+      </c>
+      <c r="GL26" s="24">
+        <v>47275.329291499991</v>
+      </c>
+      <c r="GM26" s="24">
+        <v>53756.334088199997</v>
+      </c>
+      <c r="GN26" s="24">
+        <v>59261.508494999995</v>
+      </c>
+      <c r="GO26" s="24">
+        <v>53789.112262399998</v>
+      </c>
+      <c r="GP26" s="24">
+        <v>48634.669165799998</v>
+      </c>
+      <c r="GQ26" s="24">
+        <v>40128.200849399997</v>
+      </c>
+      <c r="GR26" s="24">
+        <v>36350.738084400007</v>
+      </c>
+      <c r="GS26" s="24">
+        <v>34414.075083700001</v>
+      </c>
+      <c r="GT26" s="24">
+        <v>38219.456902599995</v>
+      </c>
+      <c r="GU26" s="24">
+        <v>30838.819356399999</v>
+      </c>
+      <c r="GV26" s="24">
+        <v>37150.257477899991</v>
+      </c>
+      <c r="GW26" s="24">
+        <v>31625.331068300002</v>
+      </c>
+      <c r="GX26" s="24">
+        <v>33255.814718400004</v>
+      </c>
+      <c r="GY26" s="24">
+        <v>29221.2858165</v>
+      </c>
+      <c r="GZ26" s="24">
+        <v>38102.665498300004</v>
+      </c>
+      <c r="HA26" s="24">
+        <v>39948.707485700004</v>
+      </c>
+      <c r="HB26" s="24">
+        <v>38495.192188199995</v>
+      </c>
+      <c r="HC26" s="24">
+        <v>32806.816317600002</v>
+      </c>
+      <c r="HD26" s="24">
+        <v>29880.119852600004</v>
+      </c>
+      <c r="HE26" s="24">
+        <v>29313.105992299996</v>
+      </c>
+      <c r="HF26" s="24">
+        <v>32464.320661700003</v>
+      </c>
+      <c r="HG26" s="24">
+        <v>22137.359912899999</v>
+      </c>
+      <c r="HH26" s="24">
+        <v>22934.284351800001</v>
+      </c>
+      <c r="HI26" s="24">
+        <v>28281.751069800001</v>
+      </c>
+      <c r="HJ26" s="24">
+        <v>34024.657411200002</v>
+      </c>
+      <c r="HK26" s="24">
+        <v>33504.654074700004</v>
+      </c>
+      <c r="HL26" s="24">
+        <v>30394.769281300003</v>
+      </c>
+      <c r="HM26" s="24">
+        <v>30864.351168600002</v>
+      </c>
+      <c r="HN26" s="24">
+        <v>29326.188397499998</v>
+      </c>
+      <c r="HO26" s="24">
+        <v>29369.9780503</v>
+      </c>
+      <c r="HP26" s="24">
+        <v>32173.546582799998</v>
+      </c>
+      <c r="HQ26" s="24">
+        <v>29127.908090100002</v>
+      </c>
+      <c r="HR26" s="24">
+        <v>28549.480344200001</v>
+      </c>
+      <c r="HS26" s="24">
+        <v>26085.930809699996</v>
+      </c>
+      <c r="HT26" s="24">
+        <v>27316.799566999998</v>
+      </c>
+      <c r="HU26" s="24">
+        <v>27554.853041599999</v>
+      </c>
+      <c r="HV26" s="24">
+        <v>30226.616821900003</v>
+      </c>
+      <c r="HW26" s="24">
+        <v>29866.160059299997</v>
+      </c>
+      <c r="HX26" s="24">
+        <v>31787.432981299997</v>
+      </c>
+      <c r="HY26" s="24">
+        <v>32685.660705599999</v>
+      </c>
+      <c r="HZ26" s="24">
+        <v>30964.007895699997</v>
+      </c>
+      <c r="IA26" s="24">
+        <v>31147.182958700003</v>
+      </c>
+      <c r="IB26" s="24">
+        <v>31827.945630799997</v>
+      </c>
+      <c r="IC26" s="24">
+        <v>31946.061509700001</v>
+      </c>
+      <c r="ID26" s="24">
+        <v>31536.769798500001</v>
+      </c>
+      <c r="IE26" s="24">
+        <v>31915.862000499998</v>
+      </c>
+      <c r="IF26" s="24">
+        <v>29350.764554499998</v>
+      </c>
+      <c r="IG26" s="24">
+        <v>27352.088036200003</v>
+      </c>
+      <c r="IH26" s="24">
+        <v>27850.319570199998</v>
+      </c>
+      <c r="II26" s="24">
+        <v>25373.941794800001</v>
+      </c>
+      <c r="IJ26" s="24">
+        <v>23663.423558400002</v>
+      </c>
+      <c r="IK26" s="24">
+        <v>23551.500158799998</v>
+      </c>
+      <c r="IL26" s="24">
+        <v>25571.968105600001</v>
+      </c>
+      <c r="IM26" s="24">
+        <v>17985.1766451</v>
+      </c>
+      <c r="IN26" s="24">
+        <v>17690.090479099999</v>
+      </c>
+      <c r="IO26" s="24">
+        <v>15929.150590199999</v>
+      </c>
+      <c r="IP26" s="24">
+        <v>16153.984304699999</v>
+      </c>
+      <c r="IQ26" s="24">
+        <v>15005.258912200001</v>
+      </c>
+      <c r="IR26" s="24">
+        <v>14336.152454999999</v>
+      </c>
+      <c r="IS26" s="24">
+        <v>45984.854159299997</v>
+      </c>
+      <c r="IT26" s="24">
+        <v>16460.127254500003</v>
+      </c>
+      <c r="IU26" s="24">
+        <v>18882.044943599998</v>
+      </c>
+      <c r="IV26" s="24">
+        <v>14840.554750899999</v>
+      </c>
+      <c r="IW26" s="24">
+        <v>14412.725601599999</v>
+      </c>
+      <c r="IX26" s="24">
+        <v>15208.810871400001</v>
+      </c>
+      <c r="IY26" s="24">
+        <v>15775.263899500002</v>
+      </c>
+      <c r="IZ26" s="24">
+        <v>16865.764892799998</v>
+      </c>
+      <c r="JA26" s="24">
+        <v>16951.532343300001</v>
+      </c>
+      <c r="JB26" s="24">
+        <v>13348.417133399998</v>
+      </c>
       <c r="JC26" s="27"/>
     </row>
-    <row r="27" spans="1:263" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1.118881300000794</v>
+      </c>
+      <c r="C27" s="11">
+        <v>12.883559800007788</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1.5967228000008618</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1.0944698999956017</v>
+      </c>
+      <c r="F27" s="11">
+        <v>-0.22657270001218421</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0.14595610000105808</v>
+      </c>
+      <c r="H27" s="11">
+        <v>27.931744599987724</v>
+      </c>
+      <c r="I27" s="13">
+        <v>49.051186299999991</v>
+      </c>
+      <c r="J27" s="13">
+        <v>288</v>
+      </c>
+      <c r="K27" s="13">
+        <v>17</v>
+      </c>
+      <c r="L27" s="13">
+        <v>15</v>
+      </c>
+      <c r="M27" s="13">
+        <v>43</v>
+      </c>
+      <c r="N27" s="11">
+        <v>60</v>
+      </c>
+      <c r="O27" s="11">
+        <v>21</v>
+      </c>
+      <c r="P27" s="11">
+        <v>429</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>22</v>
+      </c>
+      <c r="R27" s="11">
+        <v>4</v>
+      </c>
+      <c r="S27" s="11">
+        <v>41</v>
+      </c>
+      <c r="T27" s="11">
+        <v>3.2562660000000001</v>
+      </c>
+      <c r="U27" s="13">
+        <v>3.2324162999999997</v>
+      </c>
+      <c r="V27" s="13">
+        <v>3.1881176</v>
+      </c>
+      <c r="W27" s="13">
+        <v>40.466980599999999</v>
+      </c>
+      <c r="X27" s="13">
+        <v>153.52904999999998</v>
+      </c>
+      <c r="Y27" s="13">
+        <v>154.75079830000001</v>
+      </c>
+      <c r="Z27" s="11">
+        <v>43.166532199999999</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>13.9559868</v>
+      </c>
+      <c r="AB27" s="11">
+        <v>368.61870560000006</v>
+      </c>
+      <c r="AC27" s="11">
+        <v>7.6062947000000003</v>
+      </c>
+      <c r="AD27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="11">
+        <v>0.50553300000000001</v>
+      </c>
+      <c r="AF27" s="11">
+        <v>3.6895666</v>
+      </c>
+      <c r="AG27" s="13">
+        <v>34.344836799999996</v>
+      </c>
+      <c r="AH27" s="13">
+        <v>1.9334566</v>
+      </c>
+      <c r="AI27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="13">
+        <v>102.4659855</v>
+      </c>
+      <c r="AK27" s="13">
+        <v>112.61968229999999</v>
+      </c>
+      <c r="AL27" s="11">
+        <v>12.655760900000001</v>
+      </c>
+      <c r="AM27" s="11">
+        <v>38.785057999999999</v>
+      </c>
+      <c r="AN27" s="11">
+        <v>112.10183540000001</v>
+      </c>
+      <c r="AO27" s="11">
+        <v>184.19340019999999</v>
+      </c>
+      <c r="AP27" s="11">
+        <v>139.627115</v>
+      </c>
+      <c r="AQ27" s="11">
+        <v>46.656488199999998</v>
+      </c>
+      <c r="AR27" s="11">
+        <v>0.55238340000000008</v>
+      </c>
+      <c r="AS27" s="13">
+        <v>79.883701099999996</v>
+      </c>
+      <c r="AT27" s="13">
+        <v>23.593508699999997</v>
+      </c>
+      <c r="AU27" s="13">
+        <v>23.294760399999998</v>
+      </c>
+      <c r="AV27" s="13">
+        <v>21.465062199999998</v>
+      </c>
+      <c r="AW27" s="13">
+        <v>488.19595769999995</v>
+      </c>
+      <c r="AX27" s="11">
+        <v>14.0088194</v>
+      </c>
+      <c r="AY27" s="11">
+        <v>135.2827206</v>
+      </c>
+      <c r="AZ27" s="11">
+        <v>6.7337100000000011E-2</v>
+      </c>
+      <c r="BA27" s="11">
+        <v>38.599392000000002</v>
+      </c>
+      <c r="BB27" s="11">
+        <v>145.52101930000001</v>
+      </c>
+      <c r="BC27" s="11">
+        <v>8.6187641999999993</v>
+      </c>
+      <c r="BD27" s="11">
+        <v>105.68789779999999</v>
+      </c>
+      <c r="BE27" s="13">
+        <v>22.054726600000002</v>
+      </c>
+      <c r="BF27" s="13">
+        <v>62.2844634</v>
+      </c>
+      <c r="BG27" s="13">
+        <v>4.3813614999999997</v>
+      </c>
+      <c r="BH27" s="13">
+        <v>165.28635360000001</v>
+      </c>
+      <c r="BI27" s="13">
+        <v>37.886526100000005</v>
+      </c>
+      <c r="BJ27" s="11">
+        <v>28.951462800000002</v>
+      </c>
+      <c r="BK27" s="11">
+        <v>14.4043323</v>
+      </c>
+      <c r="BL27" s="11">
+        <v>15.097228999999999</v>
+      </c>
+      <c r="BM27" s="11">
+        <v>7.8858500000000012E-2</v>
+      </c>
+      <c r="BN27" s="11">
+        <v>7.8443399999999996E-2</v>
+      </c>
+      <c r="BO27" s="11">
+        <v>0.1486381</v>
+      </c>
+      <c r="BP27" s="11">
+        <v>29.355718800000002</v>
+      </c>
+      <c r="BQ27" s="13">
+        <v>3.9593628999999999</v>
+      </c>
+      <c r="BR27" s="13">
+        <v>69.503446900000014</v>
+      </c>
+      <c r="BS27" s="13">
+        <v>1.4459100000000001E-2</v>
+      </c>
+      <c r="BT27" s="13">
+        <v>13.863107199999998</v>
+      </c>
+      <c r="BU27" s="13">
+        <v>21.481217399999998</v>
+      </c>
+      <c r="BV27" s="11">
+        <v>154.35700759999997</v>
+      </c>
+      <c r="BW27" s="11">
+        <v>2.9289712999999997</v>
+      </c>
+      <c r="BX27" s="11">
+        <v>1.55684E-2</v>
+      </c>
+      <c r="BY27" s="11">
+        <v>25.968397100000001</v>
+      </c>
+      <c r="BZ27" s="11">
+        <v>1.869078</v>
+      </c>
+      <c r="CA27" s="11">
+        <v>15.022588900000001</v>
+      </c>
+      <c r="CB27" s="11">
+        <v>10.009738199999999</v>
+      </c>
+      <c r="CC27" s="13">
+        <v>37.495622699999998</v>
+      </c>
+      <c r="CD27" s="13">
+        <v>1.81815E-2</v>
+      </c>
+      <c r="CE27" s="13">
+        <v>96.997597999999996</v>
+      </c>
+      <c r="CF27" s="13">
+        <v>21.335802100000002</v>
+      </c>
+      <c r="CG27" s="13">
+        <v>39.698863899999999</v>
+      </c>
+      <c r="CH27" s="11">
+        <v>15.8370833</v>
+      </c>
+      <c r="CI27" s="11">
+        <v>1.74524E-2</v>
+      </c>
+      <c r="CJ27" s="11">
+        <v>80.019943099999992</v>
+      </c>
+      <c r="CK27" s="11">
+        <v>70.836687999999995</v>
+      </c>
+      <c r="CL27" s="11">
+        <v>86.801599199999998</v>
+      </c>
+      <c r="CM27" s="11">
+        <v>50.237163700000004</v>
+      </c>
+      <c r="CN27" s="11">
+        <v>43.501726499999997</v>
+      </c>
+      <c r="CO27" s="11">
+        <v>1.6558799999999999E-2</v>
+      </c>
+      <c r="CP27" s="11">
+        <v>11.578950300000001</v>
+      </c>
+      <c r="CQ27" s="11">
+        <v>177.80353219999998</v>
+      </c>
+      <c r="CR27" s="11">
+        <v>545.51339789999997</v>
+      </c>
+      <c r="CS27" s="11">
+        <v>9729.2214302000011</v>
+      </c>
+      <c r="CT27" s="11">
+        <v>9806.8653612000016</v>
+      </c>
+      <c r="CU27" s="11">
+        <v>9590.0580867999997</v>
+      </c>
+      <c r="CV27" s="11">
+        <v>7016.6531234000004</v>
+      </c>
+      <c r="CW27" s="11">
+        <v>6837.1148800000001</v>
+      </c>
+      <c r="CX27" s="11">
+        <v>6069.8512803999993</v>
+      </c>
+      <c r="CY27" s="11">
+        <v>3336.1273213000004</v>
+      </c>
+      <c r="CZ27" s="11">
+        <v>2502.6494459</v>
+      </c>
+      <c r="DA27" s="11">
+        <v>164.663454</v>
+      </c>
+      <c r="DB27" s="11">
+        <v>112.80148799999999</v>
+      </c>
+      <c r="DC27" s="11">
+        <v>604.58358789999988</v>
+      </c>
+      <c r="DD27" s="11">
+        <v>157.67563849999999</v>
+      </c>
+      <c r="DE27" s="11">
+        <v>87.595003099999985</v>
+      </c>
+      <c r="DF27" s="11">
+        <v>60.7586656</v>
+      </c>
+      <c r="DG27" s="11">
+        <v>65.913236600000005</v>
+      </c>
+      <c r="DH27" s="11">
+        <v>88.7882058</v>
+      </c>
+      <c r="DI27" s="11">
+        <v>61.599168299999995</v>
+      </c>
+      <c r="DJ27" s="11">
+        <v>114.4360358</v>
+      </c>
+      <c r="DK27" s="11">
+        <v>23.853710899999999</v>
+      </c>
+      <c r="DL27" s="11">
+        <v>2492.0970653000004</v>
+      </c>
+      <c r="DM27" s="11">
+        <v>2498.1501316999997</v>
+      </c>
+      <c r="DN27" s="11">
+        <v>2483.8442359999999</v>
+      </c>
+      <c r="DO27" s="11">
+        <v>1036.7068522999998</v>
+      </c>
+      <c r="DP27" s="11">
+        <v>1033.7650604</v>
+      </c>
+      <c r="DQ27" s="11">
+        <v>9.1315144000000004</v>
+      </c>
+      <c r="DR27" s="11">
+        <v>2.7755660999999998</v>
+      </c>
+      <c r="DS27" s="11">
+        <v>23.253445299999999</v>
+      </c>
+      <c r="DT27" s="11">
+        <v>2.8563561000000002</v>
+      </c>
+      <c r="DU27" s="11">
+        <v>26.959694800000001</v>
+      </c>
+      <c r="DV27" s="11">
+        <v>82.631563400000005</v>
+      </c>
+      <c r="DW27" s="11">
+        <v>13.0339428</v>
+      </c>
+      <c r="DX27" s="11">
+        <v>15.092307099999999</v>
+      </c>
+      <c r="DY27" s="11">
+        <v>2.7724579999999999</v>
+      </c>
+      <c r="DZ27" s="11">
+        <v>2.7675638</v>
+      </c>
+      <c r="EA27" s="11">
+        <v>7.2112462000000006</v>
+      </c>
+      <c r="EB27" s="11">
+        <v>2.7979041000000002</v>
+      </c>
+      <c r="EC27" s="11">
+        <v>2.7694981000000003</v>
+      </c>
+      <c r="ED27" s="11">
+        <v>280.28887760000003</v>
+      </c>
+      <c r="EE27" s="11">
+        <v>141.2077098</v>
+      </c>
+      <c r="EF27" s="11">
+        <v>2.8220291000000004</v>
+      </c>
+      <c r="EG27" s="11">
+        <v>2.8241349000000002</v>
+      </c>
+      <c r="EH27" s="11">
+        <v>15.2202252</v>
+      </c>
+      <c r="EI27" s="11">
+        <v>14.999765</v>
+      </c>
+      <c r="EJ27" s="11">
+        <v>2.7725445</v>
+      </c>
+      <c r="EK27" s="11">
+        <v>15.1447789</v>
+      </c>
+      <c r="EL27" s="11">
+        <v>2.7826677999999996</v>
+      </c>
+      <c r="EM27" s="11">
+        <v>3.2515917999999995</v>
+      </c>
+      <c r="EN27" s="24">
+        <v>28.799464499999999</v>
+      </c>
+      <c r="EO27" s="24">
+        <v>755.21416090000002</v>
+      </c>
+      <c r="EP27" s="24">
+        <v>678.68819840000003</v>
+      </c>
+      <c r="EQ27" s="24">
+        <v>813.67968350000001</v>
+      </c>
+      <c r="ER27" s="24">
+        <v>1015.5977955</v>
+      </c>
+      <c r="ES27" s="24">
+        <v>1598.4242505</v>
+      </c>
+      <c r="ET27" s="24">
+        <v>1571.7303309000001</v>
+      </c>
+      <c r="EU27" s="24">
+        <v>1269.7526499000001</v>
+      </c>
+      <c r="EV27" s="24">
+        <v>960.67225970000004</v>
+      </c>
+      <c r="EW27" s="24">
+        <v>733.45330820000004</v>
+      </c>
+      <c r="EX27" s="24">
+        <v>473.39971809999997</v>
+      </c>
+      <c r="EY27" s="24">
+        <v>378.06637180000001</v>
+      </c>
+      <c r="EZ27" s="24">
+        <v>385.57905879999998</v>
+      </c>
+      <c r="FA27" s="24">
+        <v>289.64543560000004</v>
+      </c>
+      <c r="FB27" s="24">
+        <v>400.11229019999996</v>
+      </c>
+      <c r="FC27" s="24">
+        <v>401.70805999999999</v>
+      </c>
+      <c r="FD27" s="24">
+        <v>724.59361310000008</v>
+      </c>
+      <c r="FE27" s="24">
+        <v>2987.2144926999999</v>
+      </c>
+      <c r="FF27" s="24">
+        <v>2958.1026844000003</v>
+      </c>
+      <c r="FG27" s="24">
+        <v>2735.3356045</v>
+      </c>
+      <c r="FH27" s="24">
+        <v>2626.8320230999998</v>
+      </c>
+      <c r="FI27" s="24">
+        <v>2692.8128653000003</v>
+      </c>
+      <c r="FJ27" s="24">
+        <v>2612.8999551999996</v>
+      </c>
+      <c r="FK27" s="24">
+        <v>2662.4554003000003</v>
+      </c>
+      <c r="FL27" s="24">
+        <v>4.0313103999999997</v>
+      </c>
+      <c r="FM27" s="24">
+        <v>4129.0292675000001</v>
+      </c>
+      <c r="FN27" s="24">
+        <v>4164.2537657000003</v>
+      </c>
+      <c r="FO27" s="24">
+        <v>2685.9570244000001</v>
+      </c>
+      <c r="FP27" s="24">
+        <v>27.124921699999998</v>
+      </c>
+      <c r="FQ27" s="24">
+        <v>32.528889999999997</v>
+      </c>
+      <c r="FR27" s="24">
+        <v>1690.4393556</v>
+      </c>
+      <c r="FS27" s="24">
+        <v>4808.1219467000001</v>
+      </c>
+      <c r="FT27" s="24">
+        <v>9420.773632299999</v>
+      </c>
+      <c r="FU27" s="24">
+        <v>9124.8538346000005</v>
+      </c>
+      <c r="FV27" s="24">
+        <v>9098.0166399999998</v>
+      </c>
+      <c r="FW27" s="24">
+        <v>10008.477574799999</v>
+      </c>
+      <c r="FX27" s="24">
+        <v>9664.5519320000003</v>
+      </c>
+      <c r="FY27" s="24">
+        <v>9727.5182420000001</v>
+      </c>
+      <c r="FZ27" s="24">
+        <v>9692.0596339000003</v>
+      </c>
+      <c r="GA27" s="24">
+        <v>9635.7549457000005</v>
+      </c>
+      <c r="GB27" s="24">
+        <v>9652.1147677000008</v>
+      </c>
+      <c r="GC27" s="24">
+        <v>879.04947310000011</v>
+      </c>
+      <c r="GD27" s="24">
+        <v>516.9699981</v>
+      </c>
+      <c r="GE27" s="24">
+        <v>784.57500240000002</v>
+      </c>
+      <c r="GF27" s="24">
+        <v>710.91912579999996</v>
+      </c>
+      <c r="GG27" s="24">
+        <v>848.04317120000007</v>
+      </c>
+      <c r="GH27" s="24">
+        <v>5309.6422553000002</v>
+      </c>
+      <c r="GI27" s="24">
+        <v>5342.3638896000002</v>
+      </c>
+      <c r="GJ27" s="24">
+        <v>5281.3121701999999</v>
+      </c>
+      <c r="GK27" s="24">
+        <v>11414.8837478</v>
+      </c>
+      <c r="GL27" s="24">
+        <v>11592.7503576</v>
+      </c>
+      <c r="GM27" s="24">
+        <v>5241.5183898999994</v>
+      </c>
+      <c r="GN27" s="24">
+        <v>5254.3599163000008</v>
+      </c>
+      <c r="GO27" s="24">
+        <v>5343.2220602999996</v>
+      </c>
+      <c r="GP27" s="24">
+        <v>7448.4958493999993</v>
+      </c>
+      <c r="GQ27" s="24">
+        <v>7322.4425901000004</v>
+      </c>
+      <c r="GR27" s="24">
+        <v>9367.1389758000005</v>
+      </c>
+      <c r="GS27" s="24">
+        <v>10761.641048000001</v>
+      </c>
+      <c r="GT27" s="24">
+        <v>10537.703563100002</v>
+      </c>
+      <c r="GU27" s="24">
+        <v>10683.758099500001</v>
+      </c>
+      <c r="GV27" s="24">
+        <v>1412.0740642000001</v>
+      </c>
+      <c r="GW27" s="24">
+        <v>9144.1822217000008</v>
+      </c>
+      <c r="GX27" s="24">
+        <v>9607.3026109999992</v>
+      </c>
+      <c r="GY27" s="24">
+        <v>9877.5490076999995</v>
+      </c>
+      <c r="GZ27" s="24">
+        <v>1639.1302009000001</v>
+      </c>
+      <c r="HA27" s="24">
+        <v>2420.0220101999998</v>
+      </c>
+      <c r="HB27" s="24">
+        <v>2835.4717606999998</v>
+      </c>
+      <c r="HC27" s="24">
+        <v>4206.6225958000005</v>
+      </c>
+      <c r="HD27" s="24">
+        <v>4215.0641679999999</v>
+      </c>
+      <c r="HE27" s="24">
+        <v>4320.0835508</v>
+      </c>
+      <c r="HF27" s="24">
+        <v>5033.5536513999996</v>
+      </c>
+      <c r="HG27" s="24">
+        <v>17887.399640600001</v>
+      </c>
+      <c r="HH27" s="24">
+        <v>27044.076599599997</v>
+      </c>
+      <c r="HI27" s="24">
+        <v>25269.942413599998</v>
+      </c>
+      <c r="HJ27" s="24">
+        <v>26117.467116799999</v>
+      </c>
+      <c r="HK27" s="24">
+        <v>26387.191081199999</v>
+      </c>
+      <c r="HL27" s="24">
+        <v>26024.162172900003</v>
+      </c>
+      <c r="HM27" s="24">
+        <v>25379.0373301</v>
+      </c>
+      <c r="HN27" s="24">
+        <v>25444.327980900001</v>
+      </c>
+      <c r="HO27" s="24">
+        <v>23255.758081700002</v>
+      </c>
+      <c r="HP27" s="24">
+        <v>22161.738786200003</v>
+      </c>
+      <c r="HQ27" s="24">
+        <v>21865.036654799998</v>
+      </c>
+      <c r="HR27" s="24">
+        <v>18843.7533042</v>
+      </c>
+      <c r="HS27" s="24">
+        <v>17345.368182999999</v>
+      </c>
+      <c r="HT27" s="24">
+        <v>16063.706035200001</v>
+      </c>
+      <c r="HU27" s="24">
+        <v>12095.954381</v>
+      </c>
+      <c r="HV27" s="24">
+        <v>13591.7313103</v>
+      </c>
+      <c r="HW27" s="24">
+        <v>9469.6012757000008</v>
+      </c>
+      <c r="HX27" s="24">
+        <v>9645.9173310000006</v>
+      </c>
+      <c r="HY27" s="24">
+        <v>9256.772874799999</v>
+      </c>
+      <c r="HZ27" s="24">
+        <v>8970.0792870999994</v>
+      </c>
+      <c r="IA27" s="24">
+        <v>8530.8207366999995</v>
+      </c>
+      <c r="IB27" s="24">
+        <v>9965.9926046000019</v>
+      </c>
+      <c r="IC27" s="24">
+        <v>5862.0459854000001</v>
+      </c>
+      <c r="ID27" s="24">
+        <v>9863.2315063999995</v>
+      </c>
+      <c r="IE27" s="24">
+        <v>4599.0554804999992</v>
+      </c>
+      <c r="IF27" s="24">
+        <v>5223.7183168000001</v>
+      </c>
+      <c r="IG27" s="24">
+        <v>3118.9721200999998</v>
+      </c>
+      <c r="IH27" s="24">
+        <v>5305.6359631000005</v>
+      </c>
+      <c r="II27" s="24">
+        <v>4455.194034600001</v>
+      </c>
+      <c r="IJ27" s="24">
+        <v>8372.0930046000012</v>
+      </c>
+      <c r="IK27" s="24">
+        <v>8531.9324815999989</v>
+      </c>
+      <c r="IL27" s="24">
+        <v>5619.4510923000007</v>
+      </c>
+      <c r="IM27" s="24">
+        <v>19243.517730700001</v>
+      </c>
+      <c r="IN27" s="24">
+        <v>3977.4686194999999</v>
+      </c>
+      <c r="IO27" s="24">
+        <v>2614.8557873</v>
+      </c>
+      <c r="IP27" s="24">
+        <v>3845.5345308000001</v>
+      </c>
+      <c r="IQ27" s="24">
+        <v>3140.5213986999997</v>
+      </c>
+      <c r="IR27" s="24">
+        <v>3405.3532481999996</v>
+      </c>
+      <c r="IS27" s="24">
+        <v>1982.0941024000001</v>
+      </c>
+      <c r="IT27" s="24">
+        <v>3238.0763238000004</v>
+      </c>
+      <c r="IU27" s="24">
+        <v>2888.7365115999996</v>
+      </c>
+      <c r="IV27" s="24">
+        <v>3697.0996421</v>
+      </c>
+      <c r="IW27" s="24">
+        <v>2787.3522494999997</v>
+      </c>
+      <c r="IX27" s="24">
+        <v>2948.8695875999997</v>
+      </c>
+      <c r="IY27" s="24">
+        <v>2836.1114094000004</v>
+      </c>
+      <c r="IZ27" s="24">
+        <v>3292.7714586000002</v>
+      </c>
+      <c r="JA27" s="24">
+        <v>4540.7361923999997</v>
+      </c>
+      <c r="JB27" s="24">
+        <v>4731.0473923999989</v>
+      </c>
+      <c r="JC27" s="27"/>
+    </row>
+    <row r="28" spans="1:263" x14ac:dyDescent="0.2">
+      <c r="JC28" s="27"/>
+    </row>
+    <row r="29" spans="1:263" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:263" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+    <row r="30" spans="1:263" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:263" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+    <row r="31" spans="1:263" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:263" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34642,13 +35261,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F39449-D883-4712-B86C-E5C3A2AD9218}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED9A875D-B242-4C4A-AA7C-84E58D669D5E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFF9546E-1D1D-42F9-BFD0-12C99BBA695B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55CD81C-0484-4855-9491-57504BE898D2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8DF18B9-4695-4FBC-8119-51132D69C5EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42184E8-42CB-4590-B73D-F6C3D398BA62}"/>
 </file>
--- a/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
+++ b/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\FOR ALL\_INTERNET-databank\1. Monetary Sector\1-Monetary indicators-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6721B1BE-6895-4052-AC6E-53DAE997359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BDBA06-A4A4-4228-9B77-D1A0CA69C39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4245,6 +4245,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">         Other banks accounts in drams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Other banke accounts in FX</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Sep-24 </t>
     </r>
@@ -4256,14 +4262,8 @@
         <rFont val="Times Armenian"/>
         <family val="1"/>
       </rPr>
-      <t>3</t>
+      <t>2</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">         Other banks accounts in drams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Other banke accounts in FX</t>
   </si>
 </sst>
 </file>
@@ -6069,7 +6069,7 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="150" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="150" applyFont="1" applyFill="1"/>
@@ -6129,7 +6129,6 @@
     <xf numFmtId="3" fontId="48" fillId="0" borderId="11" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="150" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="596">
     <cellStyle name=" Verticals" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7125,10 +7124,10 @@
   <dimension ref="A1:JC33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="IN5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="IS5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="JB5" sqref="JB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7223,8 +7222,8 @@
     <col min="206" max="217" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="218" max="219" width="10.85546875" style="2" customWidth="1"/>
     <col min="220" max="220" width="11.85546875" style="2" customWidth="1"/>
-    <col min="221" max="262" width="10.85546875" style="2" customWidth="1"/>
-    <col min="263" max="16384" width="9.140625" style="2"/>
+    <col min="221" max="263" width="10.85546875" style="2" customWidth="1"/>
+    <col min="264" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:263" ht="15" x14ac:dyDescent="0.2">
@@ -8023,7 +8022,10 @@
         <v>45532</v>
       </c>
       <c r="JB4" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="JC4" s="17">
+        <v>45593</v>
       </c>
     </row>
     <row r="5" spans="1:263" x14ac:dyDescent="0.2">
@@ -8289,6 +8291,7 @@
       <c r="IZ5" s="5"/>
       <c r="JA5" s="5"/>
       <c r="JB5" s="5"/>
+      <c r="JC5" s="5"/>
     </row>
     <row r="6" spans="1:263" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -9075,9 +9078,11 @@
         <v>1081889.7866975579</v>
       </c>
       <c r="JB6" s="25">
-        <v>1063474.8085381764</v>
-      </c>
-      <c r="JC6" s="27"/>
+        <v>1066379.0917010249</v>
+      </c>
+      <c r="JC6" s="25">
+        <v>1074200.0022660706</v>
+      </c>
     </row>
     <row r="7" spans="1:263" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -9342,7 +9347,7 @@
       <c r="IZ7" s="26"/>
       <c r="JA7" s="26"/>
       <c r="JB7" s="26"/>
-      <c r="JC7" s="27"/>
+      <c r="JC7" s="26"/>
     </row>
     <row r="8" spans="1:263" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -10129,9 +10134,11 @@
         <v>702668.27182374219</v>
       </c>
       <c r="JB8" s="26">
-        <v>850392.75384562346</v>
-      </c>
-      <c r="JC8" s="27"/>
+        <v>847488.4706827749</v>
+      </c>
+      <c r="JC8" s="26">
+        <v>672192.01087752893</v>
+      </c>
     </row>
     <row r="9" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -10920,7 +10927,9 @@
       <c r="JB9" s="24">
         <v>-502688.64815000008</v>
       </c>
-      <c r="JC9" s="27"/>
+      <c r="JC9" s="24">
+        <v>-439828.62110599998</v>
+      </c>
     </row>
     <row r="10" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -11709,7 +11718,9 @@
       <c r="JB10" s="24">
         <v>913145.32347970014</v>
       </c>
-      <c r="JC10" s="27"/>
+      <c r="JC10" s="24">
+        <v>677416.91447760002</v>
+      </c>
     </row>
     <row r="11" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -12498,7 +12509,9 @@
       <c r="JB11" s="24">
         <v>598129.66269200004</v>
       </c>
-      <c r="JC11" s="27"/>
+      <c r="JC11" s="24">
+        <v>375076.02791599999</v>
+      </c>
     </row>
     <row r="12" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -13267,7 +13280,9 @@
       <c r="JB12" s="24">
         <v>0</v>
       </c>
-      <c r="JC12" s="27"/>
+      <c r="JC12" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -14054,7 +14069,9 @@
       <c r="JB13" s="24">
         <v>-1000.1639344</v>
       </c>
-      <c r="JC13" s="27"/>
+      <c r="JC13" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -14841,7 +14858,9 @@
       <c r="JB14" s="24">
         <v>0</v>
       </c>
-      <c r="JC14" s="27"/>
+      <c r="JC14" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -15622,7 +15641,9 @@
       <c r="JB15" s="24">
         <v>0</v>
       </c>
-      <c r="JC15" s="27"/>
+      <c r="JC15" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -16351,7 +16372,9 @@
       <c r="JB16" s="24">
         <v>0</v>
       </c>
-      <c r="JC16" s="27"/>
+      <c r="JC16" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -17138,9 +17161,11 @@
         <v>447907.01837154198</v>
       </c>
       <c r="JB17" s="24">
-        <v>439936.07851592335</v>
-      </c>
-      <c r="JC17" s="27"/>
+        <v>437031.79535307479</v>
+      </c>
+      <c r="JC17" s="24">
+        <v>434603.71750592883</v>
+      </c>
     </row>
     <row r="18" spans="1:263" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -17407,7 +17432,7 @@
       <c r="IZ18" s="26"/>
       <c r="JA18" s="26"/>
       <c r="JB18" s="26"/>
-      <c r="JC18" s="27"/>
+      <c r="JC18" s="26"/>
     </row>
     <row r="19" spans="1:263" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -18196,7 +18221,9 @@
       <c r="JB19" s="26">
         <v>1913867.5623837998</v>
       </c>
-      <c r="JC19" s="27"/>
+      <c r="JC19" s="26">
+        <v>1746392.0131435995</v>
+      </c>
     </row>
     <row r="20" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -18985,7 +19012,9 @@
       <c r="JB20" s="24">
         <v>929502.41521340003</v>
       </c>
-      <c r="JC20" s="27"/>
+      <c r="JC20" s="24">
+        <v>923087.6008306999</v>
+      </c>
     </row>
     <row r="21" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
@@ -19774,7 +19803,9 @@
       <c r="JB21" s="24">
         <v>507991.10935669998</v>
       </c>
-      <c r="JC21" s="27"/>
+      <c r="JC21" s="24">
+        <v>342187.53954359994</v>
+      </c>
     </row>
     <row r="22" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -20505,11 +20536,13 @@
       <c r="JB22" s="24">
         <v>458149.54235890001</v>
       </c>
-      <c r="JC22" s="27"/>
+      <c r="JC22" s="24">
+        <v>462118.49991959997</v>
+      </c>
     </row>
     <row r="23" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -20774,11 +20807,13 @@
       <c r="JB23" s="24">
         <v>1.1020768000000001</v>
       </c>
-      <c r="JC23" s="27"/>
+      <c r="JC23" s="24">
+        <v>1.1020768000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -21043,7 +21078,9 @@
       <c r="JB24" s="24">
         <v>143.92885219999999</v>
       </c>
-      <c r="JC24" s="27"/>
+      <c r="JC24" s="24">
+        <v>142.936914</v>
+      </c>
     </row>
     <row r="25" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
@@ -21832,7 +21869,9 @@
       <c r="JB25" s="24">
         <v>18079.464525799791</v>
       </c>
-      <c r="JC25" s="27"/>
+      <c r="JC25" s="24">
+        <v>18854.333858899688</v>
+      </c>
     </row>
     <row r="26" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -22621,7 +22660,9 @@
       <c r="JB26" s="24">
         <v>13348.417133399998</v>
       </c>
-      <c r="JC26" s="27"/>
+      <c r="JC26" s="24">
+        <v>14343.5603558</v>
+      </c>
     </row>
     <row r="27" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -23410,10 +23451,9 @@
       <c r="JB27" s="24">
         <v>4731.0473923999989</v>
       </c>
-      <c r="JC27" s="27"/>
-    </row>
-    <row r="28" spans="1:263" x14ac:dyDescent="0.2">
-      <c r="JC28" s="27"/>
+      <c r="JC27" s="24">
+        <v>4510.7735031000002</v>
+      </c>
     </row>
     <row r="29" spans="1:263" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
@@ -35261,13 +35301,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED9A875D-B242-4C4A-AA7C-84E58D669D5E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DED46AD0-A118-42D7-96C6-739DB018E623}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55CD81C-0484-4855-9491-57504BE898D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CB32292-1BD1-43CB-84EE-C84B5C69B75C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42184E8-42CB-4590-B73D-F6C3D398BA62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25005DD0-F831-4F5A-AF53-50D0159ED26F}"/>
 </file>
--- a/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
+++ b/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\FOR ALL\_INTERNET-databank\1. Monetary Sector\1-Monetary indicators-25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\_INTERNET-databank\1. Monetary Sector\1-Monetary indicators-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BDBA06-A4A4-4228-9B77-D1A0CA69C39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC88ADD-61B7-44CA-9BC0-36183966C46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7127,7 +7127,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="IS5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="JB5" sqref="JB5"/>
+      <selection pane="bottomRight" activeCell="JI24" sqref="JI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11716,7 +11716,7 @@
         <v>741348.17518090014</v>
       </c>
       <c r="JB10" s="24">
-        <v>913145.32347970014</v>
+        <v>914168.22032890015</v>
       </c>
       <c r="JC10" s="24">
         <v>677416.91447760002</v>
@@ -17161,7 +17161,7 @@
         <v>447907.01837154198</v>
       </c>
       <c r="JB17" s="24">
-        <v>437031.79535307479</v>
+        <v>436008.89850369212</v>
       </c>
       <c r="JC17" s="24">
         <v>434603.71750592883</v>
@@ -35301,13 +35301,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DED46AD0-A118-42D7-96C6-739DB018E623}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C724DD08-6627-49CA-8CBE-FA0046F9F3D4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CB32292-1BD1-43CB-84EE-C84B5C69B75C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD20EC0C-29DF-46D0-8A99-B051E3A3448E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25005DD0-F831-4F5A-AF53-50D0159ED26F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE047907-016F-4024-A50C-6E52FEBADEF4}"/>
 </file>
--- a/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
+++ b/2024/2024_06_07_CB_loans/2_Money_Base_eng.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\_INTERNET-databank\1. Monetary Sector\1-Monetary indicators-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC88ADD-61B7-44CA-9BC0-36183966C46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA1751C-AC7D-4D2C-B5BB-F7FB35595B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2903,7 +2903,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
   <si>
     <t xml:space="preserve">(end of period, million drams) </t>
   </si>
@@ -4263,6 +4263,21 @@
         <family val="1"/>
       </rPr>
       <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dec-24 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times Armenian"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
     </r>
   </si>
 </sst>
@@ -6742,7 +6757,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -6761,7 +6776,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -6780,7 +6795,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Ü»ñ·ñ³íí³Í"/>
@@ -6801,9 +6816,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6841,9 +6856,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6876,26 +6891,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6928,26 +6926,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7121,13 +7102,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JC33"/>
+  <dimension ref="A1:JE33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="IS5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="JI24" sqref="JI24"/>
+      <selection pane="bottomRight" activeCell="JH21" sqref="JH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7222,24 +7203,24 @@
     <col min="206" max="217" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="218" max="219" width="10.85546875" style="2" customWidth="1"/>
     <col min="220" max="220" width="11.85546875" style="2" customWidth="1"/>
-    <col min="221" max="263" width="10.85546875" style="2" customWidth="1"/>
-    <col min="264" max="16384" width="9.140625" style="2"/>
+    <col min="221" max="265" width="10.85546875" style="2" customWidth="1"/>
+    <col min="266" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:263" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:265" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:263" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:265" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:263" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:265" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:263" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:265" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="17">
         <v>37622</v>
@@ -8027,8 +8008,14 @@
       <c r="JC4" s="17">
         <v>45593</v>
       </c>
+      <c r="JD4" s="17">
+        <v>45624</v>
+      </c>
+      <c r="JE4" s="17" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="5" spans="1:263" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:265" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8292,8 +8279,10 @@
       <c r="JA5" s="5"/>
       <c r="JB5" s="5"/>
       <c r="JC5" s="5"/>
+      <c r="JD5" s="5"/>
+      <c r="JE5" s="5"/>
     </row>
-    <row r="6" spans="1:263" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:265" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -9083,8 +9072,14 @@
       <c r="JC6" s="25">
         <v>1074200.0022660706</v>
       </c>
+      <c r="JD6" s="25">
+        <v>1083955.8238674009</v>
+      </c>
+      <c r="JE6" s="25">
+        <v>1139532.031125471</v>
+      </c>
     </row>
-    <row r="7" spans="1:263" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:265" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -9348,8 +9343,10 @@
       <c r="JA7" s="26"/>
       <c r="JB7" s="26"/>
       <c r="JC7" s="26"/>
+      <c r="JD7" s="26"/>
+      <c r="JE7" s="26"/>
     </row>
-    <row r="8" spans="1:263" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:265" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -10110,28 +10107,28 @@
         <v>727922.80212156218</v>
       </c>
       <c r="IT8" s="26">
-        <v>572855.07030861243</v>
+        <v>572855.10023661237</v>
       </c>
       <c r="IU8" s="26">
-        <v>619370.28832124709</v>
+        <v>619370.31824924704</v>
       </c>
       <c r="IV8" s="26">
-        <v>765844.46968078311</v>
+        <v>765844.49960878305</v>
       </c>
       <c r="IW8" s="26">
-        <v>783156.19883118756</v>
+        <v>783156.22875918774</v>
       </c>
       <c r="IX8" s="26">
-        <v>714078.87732437626</v>
+        <v>714079.39463237626</v>
       </c>
       <c r="IY8" s="26">
-        <v>858445.89350971091</v>
+        <v>858446.93857371085</v>
       </c>
       <c r="IZ8" s="26">
-        <v>680660.75837427308</v>
+        <v>680662.61279467307</v>
       </c>
       <c r="JA8" s="26">
-        <v>702668.27182374219</v>
+        <v>702813.01564704208</v>
       </c>
       <c r="JB8" s="26">
         <v>847488.4706827749</v>
@@ -10139,8 +10136,14 @@
       <c r="JC8" s="26">
         <v>672192.01087752893</v>
       </c>
+      <c r="JD8" s="26">
+        <v>593957.60201579914</v>
+      </c>
+      <c r="JE8" s="26">
+        <v>960372.5621636291</v>
+      </c>
     </row>
-    <row r="9" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
@@ -10930,8 +10933,14 @@
       <c r="JC9" s="24">
         <v>-439828.62110599998</v>
       </c>
+      <c r="JD9" s="24">
+        <v>-467697.09767589998</v>
+      </c>
+      <c r="JE9" s="24">
+        <v>-419370.82706649997</v>
+      </c>
     </row>
-    <row r="10" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -11721,8 +11730,14 @@
       <c r="JC10" s="24">
         <v>677416.91447760002</v>
       </c>
+      <c r="JD10" s="24">
+        <v>637638.86670239992</v>
+      </c>
+      <c r="JE10" s="24">
+        <v>961309.24881999998</v>
+      </c>
     </row>
-    <row r="11" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>40</v>
       </c>
@@ -12512,8 +12527,14 @@
       <c r="JC11" s="24">
         <v>375076.02791599999</v>
       </c>
+      <c r="JD11" s="24">
+        <v>330201.69154000003</v>
+      </c>
+      <c r="JE11" s="24">
+        <v>651281.90015499992</v>
+      </c>
     </row>
-    <row r="12" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -13253,38 +13274,22 @@
       <c r="IS12" s="24">
         <v>0</v>
       </c>
-      <c r="IT12" s="24">
-        <v>0</v>
-      </c>
-      <c r="IU12" s="24">
-        <v>0</v>
-      </c>
-      <c r="IV12" s="24">
-        <v>0</v>
-      </c>
-      <c r="IW12" s="24">
-        <v>0</v>
-      </c>
-      <c r="IX12" s="24">
-        <v>0</v>
-      </c>
-      <c r="IY12" s="24">
-        <v>0</v>
-      </c>
-      <c r="IZ12" s="24">
-        <v>0</v>
-      </c>
-      <c r="JA12" s="24">
-        <v>0</v>
-      </c>
-      <c r="JB12" s="24">
-        <v>0</v>
-      </c>
-      <c r="JC12" s="24">
+      <c r="IT12" s="24"/>
+      <c r="IU12" s="24"/>
+      <c r="IV12" s="24"/>
+      <c r="IW12" s="24"/>
+      <c r="IX12" s="24"/>
+      <c r="IY12" s="24"/>
+      <c r="IZ12" s="24"/>
+      <c r="JA12" s="24"/>
+      <c r="JB12" s="24"/>
+      <c r="JC12" s="24"/>
+      <c r="JD12" s="24"/>
+      <c r="JE12" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -14072,8 +14077,14 @@
       <c r="JC13" s="24">
         <v>0</v>
       </c>
+      <c r="JD13" s="24">
+        <v>0</v>
+      </c>
+      <c r="JE13" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -14861,8 +14872,14 @@
       <c r="JC14" s="24">
         <v>0</v>
       </c>
+      <c r="JD14" s="24">
+        <v>0</v>
+      </c>
+      <c r="JE14" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
@@ -15644,8 +15661,14 @@
       <c r="JC15" s="24">
         <v>0</v>
       </c>
+      <c r="JD15" s="24">
+        <v>0</v>
+      </c>
+      <c r="JE15" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
@@ -16375,8 +16398,14 @@
       <c r="JC16" s="24">
         <v>0</v>
       </c>
+      <c r="JD16" s="24">
+        <v>0</v>
+      </c>
+      <c r="JE16" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
@@ -17137,37 +17166,43 @@
         <v>452623.75134816219</v>
       </c>
       <c r="IT17" s="24">
-        <v>455736.11115331249</v>
+        <v>455736.14108131244</v>
       </c>
       <c r="IU17" s="24">
-        <v>454388.04765994719</v>
+        <v>454388.07758794737</v>
       </c>
       <c r="IV17" s="24">
-        <v>459829.67476498312</v>
+        <v>459829.70469298307</v>
       </c>
       <c r="IW17" s="24">
-        <v>468985.93967448769</v>
+        <v>468985.96960248786</v>
       </c>
       <c r="IX17" s="24">
-        <v>467243.38725327642</v>
+        <v>467243.90456127643</v>
       </c>
       <c r="IY17" s="24">
-        <v>459933.24029681098</v>
+        <v>459934.28536081093</v>
       </c>
       <c r="IZ17" s="24">
-        <v>455702.568907173</v>
+        <v>455704.42332757299</v>
       </c>
       <c r="JA17" s="24">
-        <v>447907.01837154198</v>
+        <v>448051.76219484187</v>
       </c>
       <c r="JB17" s="24">
-        <v>436008.89850369212</v>
+        <v>436008.89850387478</v>
       </c>
       <c r="JC17" s="24">
         <v>434603.71750592883</v>
       </c>
+      <c r="JD17" s="24">
+        <v>424015.8329892992</v>
+      </c>
+      <c r="JE17" s="24">
+        <v>418434.1404101291</v>
+      </c>
     </row>
-    <row r="18" spans="1:263" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:265" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -17433,8 +17468,10 @@
       <c r="JA18" s="26"/>
       <c r="JB18" s="26"/>
       <c r="JC18" s="26"/>
+      <c r="JD18" s="26"/>
+      <c r="JE18" s="26"/>
     </row>
-    <row r="19" spans="1:263" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:265" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -18195,28 +18232,28 @@
         <v>1845623.3761258002</v>
       </c>
       <c r="IT19" s="26">
-        <v>1679946.2623457001</v>
+        <v>1679946.2922737</v>
       </c>
       <c r="IU19" s="26">
-        <v>1649790.6211099999</v>
+        <v>1649790.6510379999</v>
       </c>
       <c r="IV19" s="26">
-        <v>1737133.6538599001</v>
+        <v>1737133.6837879</v>
       </c>
       <c r="IW19" s="26">
-        <v>1686351.3380156998</v>
+        <v>1686351.3679436999</v>
       </c>
       <c r="IX19" s="26">
-        <v>1640899.4259615003</v>
+        <v>1640899.9432695003</v>
       </c>
       <c r="IY19" s="26">
-        <v>1846945.0300616999</v>
+        <v>1846946.0751256999</v>
       </c>
       <c r="IZ19" s="26">
-        <v>1691940.6462951002</v>
+        <v>1691942.5007155002</v>
       </c>
       <c r="JA19" s="26">
-        <v>1784558.0585213001</v>
+        <v>1784702.8023446</v>
       </c>
       <c r="JB19" s="26">
         <v>1913867.5623837998</v>
@@ -18224,8 +18261,14 @@
       <c r="JC19" s="26">
         <v>1746392.0131435995</v>
       </c>
+      <c r="JD19" s="26">
+        <v>1677913.4258832</v>
+      </c>
+      <c r="JE19" s="26">
+        <v>2099904.5932891001</v>
+      </c>
     </row>
-    <row r="20" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
@@ -19015,8 +19058,14 @@
       <c r="JC20" s="24">
         <v>923087.6008306999</v>
       </c>
+      <c r="JD20" s="24">
+        <v>922478.20883469982</v>
+      </c>
+      <c r="JE20" s="24">
+        <v>986374.01862089988</v>
+      </c>
     </row>
-    <row r="21" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>64</v>
       </c>
@@ -19806,8 +19855,14 @@
       <c r="JC21" s="24">
         <v>342187.53954359994</v>
       </c>
+      <c r="JD21" s="24">
+        <v>277674.68888430001</v>
+      </c>
+      <c r="JE21" s="24">
+        <v>567463.57737630012</v>
+      </c>
     </row>
-    <row r="22" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>63</v>
       </c>
@@ -20539,8 +20594,14 @@
       <c r="JC22" s="24">
         <v>462118.49991959997</v>
       </c>
+      <c r="JD22" s="24">
+        <v>463927.57805729995</v>
+      </c>
+      <c r="JE22" s="24">
+        <v>518672.48830070003</v>
+      </c>
     </row>
-    <row r="23" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>112</v>
       </c>
@@ -20796,22 +20857,44 @@
       <c r="IQ23" s="24"/>
       <c r="IR23" s="24"/>
       <c r="IS23" s="24"/>
-      <c r="IT23" s="24"/>
-      <c r="IU23" s="24"/>
-      <c r="IV23" s="24"/>
-      <c r="IW23" s="24"/>
-      <c r="IX23" s="24"/>
-      <c r="IY23" s="24"/>
-      <c r="IZ23" s="24"/>
-      <c r="JA23" s="24"/>
+      <c r="IT23" s="24">
+        <v>2.9928E-2</v>
+      </c>
+      <c r="IU23" s="24">
+        <v>2.9928E-2</v>
+      </c>
+      <c r="IV23" s="24">
+        <v>2.9928E-2</v>
+      </c>
+      <c r="IW23" s="24">
+        <v>2.9928E-2</v>
+      </c>
+      <c r="IX23" s="24">
+        <v>0.12992799999999999</v>
+      </c>
+      <c r="IY23" s="24">
+        <v>0.22992799999999999</v>
+      </c>
+      <c r="IZ23" s="24">
+        <v>0.22192689999999998</v>
+      </c>
+      <c r="JA23" s="24">
+        <v>1.1020768000000001</v>
+      </c>
       <c r="JB23" s="24">
         <v>1.1020768000000001</v>
       </c>
       <c r="JC23" s="24">
         <v>1.1020768000000001</v>
       </c>
+      <c r="JD23" s="24">
+        <v>1.1688523</v>
+      </c>
+      <c r="JE23" s="24">
+        <v>0.82594699999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>113</v>
       </c>
@@ -21067,22 +21150,44 @@
       <c r="IQ24" s="24"/>
       <c r="IR24" s="24"/>
       <c r="IS24" s="24"/>
-      <c r="IT24" s="24"/>
-      <c r="IU24" s="24"/>
-      <c r="IV24" s="24"/>
-      <c r="IW24" s="24"/>
-      <c r="IX24" s="24"/>
-      <c r="IY24" s="24"/>
-      <c r="IZ24" s="24"/>
-      <c r="JA24" s="24"/>
+      <c r="IT24" s="24">
+        <v>0</v>
+      </c>
+      <c r="IU24" s="24">
+        <v>0</v>
+      </c>
+      <c r="IV24" s="24">
+        <v>0</v>
+      </c>
+      <c r="IW24" s="24">
+        <v>0</v>
+      </c>
+      <c r="IX24" s="24">
+        <v>0.38738</v>
+      </c>
+      <c r="IY24" s="24">
+        <v>0.81513599999999997</v>
+      </c>
+      <c r="IZ24" s="24">
+        <v>1.6324935</v>
+      </c>
+      <c r="JA24" s="24">
+        <v>143.64174650000001</v>
+      </c>
       <c r="JB24" s="24">
         <v>143.92885219999999</v>
       </c>
       <c r="JC24" s="24">
         <v>142.936914</v>
       </c>
+      <c r="JD24" s="24">
+        <v>362.38806749999998</v>
+      </c>
+      <c r="JE24" s="24">
+        <v>1387.2403399</v>
+      </c>
     </row>
-    <row r="25" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>35</v>
       </c>
@@ -21843,28 +21948,28 @@
         <v>47966.948261700221</v>
       </c>
       <c r="IT25" s="24">
-        <v>19698.203578300017</v>
+        <v>19698.203578299963</v>
       </c>
       <c r="IU25" s="24">
-        <v>21770.781455199991</v>
+        <v>21770.781455199936</v>
       </c>
       <c r="IV25" s="24">
-        <v>18537.654393000237</v>
+        <v>18537.654393000183</v>
       </c>
       <c r="IW25" s="24">
-        <v>17200.077851099893</v>
+        <v>17200.077851100072</v>
       </c>
       <c r="IX25" s="24">
-        <v>18157.680459000287</v>
+        <v>18157.680459000298</v>
       </c>
       <c r="IY25" s="24">
-        <v>18611.375308899966</v>
+        <v>18611.375308899911</v>
       </c>
       <c r="IZ25" s="24">
-        <v>20158.536351400078</v>
+        <v>20158.536351400067</v>
       </c>
       <c r="JA25" s="24">
-        <v>21492.268535700103</v>
+        <v>21492.268535699983</v>
       </c>
       <c r="JB25" s="24">
         <v>18079.464525799791</v>
@@ -21872,8 +21977,14 @@
       <c r="JC25" s="24">
         <v>18854.333858899688</v>
       </c>
+      <c r="JD25" s="24">
+        <v>13469.393187100244</v>
+      </c>
+      <c r="JE25" s="24">
+        <v>26006.442704300069</v>
+      </c>
     </row>
-    <row r="26" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>65</v>
       </c>
@@ -22663,8 +22774,14 @@
       <c r="JC26" s="24">
         <v>14343.5603558</v>
       </c>
+      <c r="JD26" s="24">
+        <v>9905.134274500002</v>
+      </c>
+      <c r="JE26" s="24">
+        <v>23044.776054099999</v>
+      </c>
     </row>
-    <row r="27" spans="1:263" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:265" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>66</v>
       </c>
@@ -23454,18 +23571,24 @@
       <c r="JC27" s="24">
         <v>4510.7735031000002</v>
       </c>
+      <c r="JD27" s="24">
+        <v>3564.2589125999998</v>
+      </c>
+      <c r="JE27" s="24">
+        <v>2961.6666501999998</v>
+      </c>
     </row>
-    <row r="29" spans="1:263" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:265" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:263" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:265" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:263" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:265" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>67</v>
       </c>
@@ -35301,13 +35424,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C724DD08-6627-49CA-8CBE-FA0046F9F3D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B07C6CB2-2154-41AE-B848-81D5BCD6C2CA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD20EC0C-29DF-46D0-8A99-B051E3A3448E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6450EEE-1007-4057-B025-7515894F55E6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE047907-016F-4024-A50C-6E52FEBADEF4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8141419-B4AD-4A5A-B96F-B96074136E42}"/>
 </file>